--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf41513/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715B273-C12F-474C-9B95-E7F268EF4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394F592-6AAB-414F-9E5E-6060BE6E863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
     <sheet name="Journals" sheetId="12" r:id="rId2"/>
-    <sheet name="2 AER" sheetId="1" r:id="rId3"/>
+    <sheet name="studies_py" sheetId="14" r:id="rId3"/>
+    <sheet name="2 AER" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="173">
   <si>
     <t>Number</t>
   </si>
@@ -2258,9 +2259,6 @@
   </si>
   <si>
     <t>Rank</t>
-  </si>
-  <si>
-    <t>Journals</t>
   </si>
   <si>
     <t>Score</t>
@@ -3191,7 +3189,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3216,40 +3214,40 @@
         <v>131</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="K1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="L1" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="M1" s="50" t="s">
         <v>141</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3257,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C31" si="0">LEFT(B2,FIND(",", B2) - 1)</f>
@@ -3299,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -3341,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3383,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3425,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3467,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3509,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3551,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3593,7 +3591,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3635,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3677,7 +3675,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3719,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3761,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3803,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3845,7 +3843,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3887,7 +3885,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3929,7 +3927,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3971,7 +3969,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -4013,7 +4011,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -4055,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -4097,7 +4095,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -4139,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -4181,7 +4179,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -4223,7 +4221,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4265,7 +4263,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4307,7 +4305,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4349,7 +4347,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -4391,7 +4389,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -4433,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -4475,7 +4473,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -4528,6 +4526,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA734DCB-1F42-A14A-A96C-EB8C68C09043}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf41513/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF8B9A-E854-B541-A73D-DBFF1C01B7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34942E4A-2017-FF4C-ACC5-58835BCDA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2950,8 +2950,8 @@
   </sheetPr>
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf41513/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34942E4A-2017-FF4C-ACC5-58835BCDA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CBECA4-DCFF-4947-ABFC-90966BFD3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="850">
   <si>
     <t>Journal</t>
   </si>
@@ -115,6 +115,9 @@
     <t>Incentives to exercise</t>
   </si>
   <si>
+    <t>Query</t>
+  </si>
+  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>Article Title</t>
   </si>
   <si>
-    <t>Additional Data</t>
-  </si>
-  <si>
     <t>Full Citation</t>
   </si>
   <si>
@@ -2540,6 +2540,54 @@
   </si>
   <si>
     <t>T Helms, M Loock, R Bohnsack (2016). Timing-based business models for flexibility creation in the electric power sector. Energy Policy.</t>
+  </si>
+  <si>
+    <t>Included in the original sample, included in the new sample</t>
+  </si>
+  <si>
+    <t>Included in the original sample, not included in the new sample</t>
+  </si>
+  <si>
+    <t>Not included in the original sample, included in the new sample</t>
+  </si>
+  <si>
+    <t>Not included in the original sample, not included in the new sample</t>
+  </si>
+  <si>
+    <t>Snowballing</t>
+  </si>
+  <si>
+    <t>Not included in the new sample</t>
+  </si>
+  <si>
+    <t>Included in the new sample</t>
+  </si>
+  <si>
+    <t>A study either suggested for inclusion, or otherwise identified as relevant</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Not yet analysed</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Inclusion/Exclusion reasoning</t>
+  </si>
+  <si>
+    <t>A theoretical paper</t>
   </si>
 </sst>
 </file>
@@ -2600,12 +2648,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2616,6 +2670,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,21 +2762,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2948,10 +3091,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F285" sqref="F285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2962,37 +3105,41 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="190.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="190.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>79</v>
+        <v>844</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3011,12 +3158,15 @@
       <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3035,12 +3185,15 @@
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3059,12 +3212,15 @@
       <c r="F4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3083,12 +3239,17 @@
       <c r="F5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3107,12 +3268,15 @@
       <c r="F6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3131,12 +3295,15 @@
       <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3155,12 +3322,15 @@
       <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3179,12 +3349,15 @@
       <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3203,12 +3376,15 @@
       <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3227,12 +3403,15 @@
       <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3251,12 +3430,15 @@
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3275,12 +3457,15 @@
       <c r="F13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3299,12 +3484,15 @@
       <c r="F14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3323,12 +3511,15 @@
       <c r="F15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3347,12 +3538,15 @@
       <c r="F16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3371,12 +3565,15 @@
       <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3395,12 +3592,15 @@
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3419,12 +3619,15 @@
       <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3443,12 +3646,15 @@
       <c r="F20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3467,12 +3673,15 @@
       <c r="F21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3491,12 +3700,15 @@
       <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3515,12 +3727,15 @@
       <c r="F23" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3539,12 +3754,15 @@
       <c r="F24" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3563,12 +3781,15 @@
       <c r="F25" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3587,12 +3808,15 @@
       <c r="F26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3611,12 +3835,15 @@
       <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3635,12 +3862,15 @@
       <c r="F28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3659,12 +3889,15 @@
       <c r="F29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:9" ht="16">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3683,12 +3916,15 @@
       <c r="F30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3707,12 +3943,15 @@
       <c r="F31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10" t="s">
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3731,12 +3970,15 @@
       <c r="F32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3755,12 +3997,15 @@
       <c r="F33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16">
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3779,12 +4024,15 @@
       <c r="F34" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10" t="s">
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16">
+    <row r="35" spans="1:9" ht="16">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3803,12 +4051,15 @@
       <c r="F35" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10" t="s">
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16">
+    <row r="36" spans="1:9" ht="16">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3827,12 +4078,15 @@
       <c r="F36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:9" ht="16">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3851,12 +4105,15 @@
       <c r="F37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10" t="s">
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:9" ht="16">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -3875,12 +4132,15 @@
       <c r="F38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16">
+    <row r="39" spans="1:9" ht="16">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -3899,12 +4159,15 @@
       <c r="F39" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10" t="s">
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:9" ht="16">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -3923,12 +4186,15 @@
       <c r="F40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="10" t="s">
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16">
+    <row r="41" spans="1:9" ht="16">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -3947,12 +4213,15 @@
       <c r="F41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="10" t="s">
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:9" ht="16">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -3971,12 +4240,15 @@
       <c r="F42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10" t="s">
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16">
+    <row r="43" spans="1:9" ht="16">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -3995,12 +4267,15 @@
       <c r="F43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10" t="s">
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16">
+    <row r="44" spans="1:9" ht="16">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -4019,12 +4294,15 @@
       <c r="F44" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="10" t="s">
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:9" ht="16">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -4043,12 +4321,15 @@
       <c r="F45" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="10" t="s">
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16">
+    <row r="46" spans="1:9" ht="16">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -4067,12 +4348,15 @@
       <c r="F46" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="10" t="s">
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:9" ht="16">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -4091,12 +4375,15 @@
       <c r="F47" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10" t="s">
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:9" ht="16">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -4115,12 +4402,15 @@
       <c r="F48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="10" t="s">
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16">
+    <row r="49" spans="1:9" ht="16">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -4139,12 +4429,15 @@
       <c r="F49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10" t="s">
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16">
+    <row r="50" spans="1:9" ht="16">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -4163,12 +4456,15 @@
       <c r="F50" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="10" t="s">
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16">
+    <row r="51" spans="1:9" ht="16">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -4187,12 +4483,15 @@
       <c r="F51" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="10" t="s">
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16">
+    <row r="52" spans="1:9" ht="16">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -4211,12 +4510,15 @@
       <c r="F52" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="10" t="s">
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16">
+    <row r="53" spans="1:9" ht="16">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -4235,12 +4537,15 @@
       <c r="F53" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="10" t="s">
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:9" ht="16">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -4259,12 +4564,15 @@
       <c r="F54" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="10" t="s">
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16">
+    <row r="55" spans="1:9" ht="16">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -4283,12 +4591,15 @@
       <c r="F55" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="10" t="s">
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16">
+    <row r="56" spans="1:9" ht="16">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -4307,12 +4618,15 @@
       <c r="F56" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="10" t="s">
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16">
+    <row r="57" spans="1:9" ht="16">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -4331,12 +4645,15 @@
       <c r="F57" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="10" t="s">
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16">
+    <row r="58" spans="1:9" ht="16">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -4355,12 +4672,15 @@
       <c r="F58" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="10" t="s">
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16">
+    <row r="59" spans="1:9" ht="16">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -4379,12 +4699,15 @@
       <c r="F59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="10" t="s">
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16">
+    <row r="60" spans="1:9" ht="16">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -4403,12 +4726,15 @@
       <c r="F60" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10" t="s">
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16">
+    <row r="61" spans="1:9" ht="16">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -4427,12 +4753,15 @@
       <c r="F61" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10" t="s">
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16">
+    <row r="62" spans="1:9" ht="16">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4451,12 +4780,15 @@
       <c r="F62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="10" t="s">
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16">
+    <row r="63" spans="1:9" ht="16">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -4475,12 +4807,15 @@
       <c r="F63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="10" t="s">
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16">
+    <row r="64" spans="1:9" ht="16">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -4499,12 +4834,15 @@
       <c r="F64" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="10" t="s">
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16">
+    <row r="65" spans="1:9" ht="16">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -4523,12 +4861,15 @@
       <c r="F65" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="10" t="s">
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16">
+    <row r="66" spans="1:9" ht="16">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -4547,12 +4888,15 @@
       <c r="F66" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="10" t="s">
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16">
+    <row r="67" spans="1:9" ht="16">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -4571,12 +4915,15 @@
       <c r="F67" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="10" t="s">
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16">
+    <row r="68" spans="1:9" ht="16">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -4595,12 +4942,15 @@
       <c r="F68" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="10" t="s">
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16">
+    <row r="69" spans="1:9" ht="16">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -4619,12 +4969,15 @@
       <c r="F69" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="10" t="s">
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16">
+    <row r="70" spans="1:9" ht="16">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -4643,12 +4996,15 @@
       <c r="F70" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="10" t="s">
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16">
+    <row r="71" spans="1:9" ht="16">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -4667,12 +5023,15 @@
       <c r="F71" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="10" t="s">
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16">
+    <row r="72" spans="1:9" ht="16">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -4691,12 +5050,15 @@
       <c r="F72" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="10" t="s">
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16">
+    <row r="73" spans="1:9" ht="16">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -4715,12 +5077,15 @@
       <c r="F73" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="10" t="s">
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16">
+    <row r="74" spans="1:9" ht="16">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -4739,12 +5104,15 @@
       <c r="F74" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="10" t="s">
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16">
+    <row r="75" spans="1:9" ht="16">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -4763,12 +5131,15 @@
       <c r="F75" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="10" t="s">
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16">
+    <row r="76" spans="1:9" ht="16">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -4787,12 +5158,15 @@
       <c r="F76" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="10" t="s">
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16">
+    <row r="77" spans="1:9" ht="16">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -4811,12 +5185,15 @@
       <c r="F77" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="10" t="s">
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16">
+    <row r="78" spans="1:9" ht="16">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -4835,12 +5212,15 @@
       <c r="F78" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="10" t="s">
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16">
+    <row r="79" spans="1:9" ht="16">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -4859,12 +5239,15 @@
       <c r="F79" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="10" t="s">
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16">
+    <row r="80" spans="1:9" ht="16">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -4883,12 +5266,15 @@
       <c r="F80" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="10" t="s">
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16">
+    <row r="81" spans="1:9" ht="16">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -4907,12 +5293,15 @@
       <c r="F81" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="10" t="s">
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16">
+    <row r="82" spans="1:9" ht="16">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -4931,12 +5320,15 @@
       <c r="F82" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="10" t="s">
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16">
+    <row r="83" spans="1:9" ht="16">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -4955,12 +5347,15 @@
       <c r="F83" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="10" t="s">
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16">
+    <row r="84" spans="1:9" ht="16">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -4979,12 +5374,15 @@
       <c r="F84" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="10" t="s">
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16">
+    <row r="85" spans="1:9" ht="16">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -5003,12 +5401,15 @@
       <c r="F85" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="10" t="s">
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16">
+    <row r="86" spans="1:9" ht="16">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -5027,12 +5428,15 @@
       <c r="F86" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="10" t="s">
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16">
+    <row r="87" spans="1:9" ht="16">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -5051,12 +5455,15 @@
       <c r="F87" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="10" t="s">
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16">
+    <row r="88" spans="1:9" ht="16">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -5075,12 +5482,15 @@
       <c r="F88" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="10" t="s">
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16">
+    <row r="89" spans="1:9" ht="16">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -5099,12 +5509,15 @@
       <c r="F89" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="10" t="s">
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16">
+    <row r="90" spans="1:9" ht="16">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -5123,12 +5536,15 @@
       <c r="F90" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="10" t="s">
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16">
+    <row r="91" spans="1:9" ht="16">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -5147,12 +5563,15 @@
       <c r="F91" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="10" t="s">
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16">
+    <row r="92" spans="1:9" ht="16">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -5171,12 +5590,15 @@
       <c r="F92" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="10" t="s">
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16">
+    <row r="93" spans="1:9" ht="16">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -5195,12 +5617,15 @@
       <c r="F93" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="10" t="s">
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16">
+    <row r="94" spans="1:9" ht="16">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -5219,12 +5644,15 @@
       <c r="F94" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="10" t="s">
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16">
+    <row r="95" spans="1:9" ht="16">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -5243,12 +5671,15 @@
       <c r="F95" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="10" t="s">
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16">
+    <row r="96" spans="1:9" ht="16">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -5267,12 +5698,15 @@
       <c r="F96" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="10" t="s">
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16">
+    <row r="97" spans="1:9" ht="16">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -5291,12 +5725,15 @@
       <c r="F97" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="10" t="s">
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16">
+    <row r="98" spans="1:9" ht="16">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -5315,12 +5752,15 @@
       <c r="F98" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="10" t="s">
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16">
+    <row r="99" spans="1:9" ht="16">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -5339,12 +5779,15 @@
       <c r="F99" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="10" t="s">
+      <c r="G99" s="11">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16">
+    <row r="100" spans="1:9" ht="16">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -5363,12 +5806,15 @@
       <c r="F100" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="10" t="s">
+      <c r="G100" s="11">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16">
+    <row r="101" spans="1:9" ht="16">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -5387,12 +5833,15 @@
       <c r="F101" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="10" t="s">
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16">
+    <row r="102" spans="1:9" ht="16">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -5411,12 +5860,15 @@
       <c r="F102" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="10" t="s">
+      <c r="G102" s="11">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16">
+    <row r="103" spans="1:9" ht="16">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -5435,12 +5887,15 @@
       <c r="F103" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="10" t="s">
+      <c r="G103" s="11">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16">
+    <row r="104" spans="1:9" ht="16">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -5459,12 +5914,15 @@
       <c r="F104" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="10" t="s">
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16">
+    <row r="105" spans="1:9" ht="16">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -5483,12 +5941,15 @@
       <c r="F105" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="10" t="s">
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16">
+    <row r="106" spans="1:9" ht="16">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -5507,12 +5968,15 @@
       <c r="F106" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="10" t="s">
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16">
+    <row r="107" spans="1:9" ht="16">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -5531,12 +5995,15 @@
       <c r="F107" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="10" t="s">
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16">
+    <row r="108" spans="1:9" ht="16">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -5555,12 +6022,15 @@
       <c r="F108" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="10" t="s">
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16">
+    <row r="109" spans="1:9" ht="16">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -5579,12 +6049,15 @@
       <c r="F109" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="10" t="s">
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16">
+    <row r="110" spans="1:9" ht="16">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -5603,12 +6076,15 @@
       <c r="F110" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="10" t="s">
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16">
+    <row r="111" spans="1:9" ht="16">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -5627,12 +6103,15 @@
       <c r="F111" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="10" t="s">
+      <c r="G111" s="11">
+        <v>0</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16">
+    <row r="112" spans="1:9" ht="16">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -5651,12 +6130,15 @@
       <c r="F112" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="G112" s="11"/>
-      <c r="H112" s="10" t="s">
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16">
+    <row r="113" spans="1:9" ht="16">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -5675,12 +6157,15 @@
       <c r="F113" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="10" t="s">
+      <c r="G113" s="11">
+        <v>0</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16">
+    <row r="114" spans="1:9" ht="16">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5699,12 +6184,15 @@
       <c r="F114" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="10" t="s">
+      <c r="G114" s="11">
+        <v>0</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16">
+    <row r="115" spans="1:9" ht="16">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -5723,12 +6211,15 @@
       <c r="F115" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="10" t="s">
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16">
+    <row r="116" spans="1:9" ht="16">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -5747,12 +6238,15 @@
       <c r="F116" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="10" t="s">
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16">
+    <row r="117" spans="1:9" ht="16">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -5771,12 +6265,15 @@
       <c r="F117" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="10" t="s">
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16">
+    <row r="118" spans="1:9" ht="16">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -5795,12 +6292,15 @@
       <c r="F118" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="10" t="s">
+      <c r="G118" s="11">
+        <v>0</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16">
+    <row r="119" spans="1:9" ht="16">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -5819,12 +6319,15 @@
       <c r="F119" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="10" t="s">
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16">
+    <row r="120" spans="1:9" ht="16">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -5843,12 +6346,15 @@
       <c r="F120" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="10" t="s">
+      <c r="G120" s="11">
+        <v>0</v>
+      </c>
+      <c r="H120" s="11"/>
+      <c r="I120" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16">
+    <row r="121" spans="1:9" ht="16">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -5867,12 +6373,15 @@
       <c r="F121" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="G121" s="11"/>
-      <c r="H121" s="10" t="s">
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="10" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16">
+    <row r="122" spans="1:9" ht="16">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -5891,12 +6400,15 @@
       <c r="F122" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="10" t="s">
+      <c r="G122" s="11">
+        <v>0</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="10" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16">
+    <row r="123" spans="1:9" ht="16">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -5915,12 +6427,15 @@
       <c r="F123" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="10" t="s">
+      <c r="G123" s="11">
+        <v>0</v>
+      </c>
+      <c r="H123" s="11"/>
+      <c r="I123" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16">
+    <row r="124" spans="1:9" ht="16">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -5939,12 +6454,15 @@
       <c r="F124" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="10" t="s">
+      <c r="G124" s="11">
+        <v>0</v>
+      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="10" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16">
+    <row r="125" spans="1:9" ht="16">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -5963,12 +6481,15 @@
       <c r="F125" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="10" t="s">
+      <c r="G125" s="11">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16">
+    <row r="126" spans="1:9" ht="16">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -5987,12 +6508,15 @@
       <c r="F126" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="G126" s="11"/>
-      <c r="H126" s="10" t="s">
+      <c r="G126" s="11">
+        <v>0</v>
+      </c>
+      <c r="H126" s="11"/>
+      <c r="I126" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16">
+    <row r="127" spans="1:9" ht="16">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -6011,12 +6535,15 @@
       <c r="F127" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="10" t="s">
+      <c r="G127" s="11">
+        <v>0</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16">
+    <row r="128" spans="1:9" ht="16">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -6035,12 +6562,15 @@
       <c r="F128" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="10" t="s">
+      <c r="G128" s="11">
+        <v>0</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16">
+    <row r="129" spans="1:9" ht="16">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -6059,12 +6589,15 @@
       <c r="F129" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="10" t="s">
+      <c r="G129" s="11">
+        <v>0</v>
+      </c>
+      <c r="H129" s="11"/>
+      <c r="I129" s="10" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16">
+    <row r="130" spans="1:9" ht="16">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -6083,12 +6616,15 @@
       <c r="F130" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="10" t="s">
+      <c r="G130" s="11">
+        <v>0</v>
+      </c>
+      <c r="H130" s="11"/>
+      <c r="I130" s="10" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16">
+    <row r="131" spans="1:9" ht="16">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -6107,12 +6643,15 @@
       <c r="F131" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="10" t="s">
+      <c r="G131" s="11">
+        <v>0</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16">
+    <row r="132" spans="1:9" ht="16">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -6131,12 +6670,15 @@
       <c r="F132" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="10" t="s">
+      <c r="G132" s="11">
+        <v>0</v>
+      </c>
+      <c r="H132" s="11"/>
+      <c r="I132" s="10" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16">
+    <row r="133" spans="1:9" ht="16">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -6155,12 +6697,15 @@
       <c r="F133" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="10" t="s">
+      <c r="G133" s="11">
+        <v>0</v>
+      </c>
+      <c r="H133" s="11"/>
+      <c r="I133" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16">
+    <row r="134" spans="1:9" ht="16">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -6179,12 +6724,15 @@
       <c r="F134" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="10" t="s">
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11"/>
+      <c r="I134" s="10" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16">
+    <row r="135" spans="1:9" ht="16">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -6203,12 +6751,15 @@
       <c r="F135" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="10" t="s">
+      <c r="G135" s="11">
+        <v>0</v>
+      </c>
+      <c r="H135" s="11"/>
+      <c r="I135" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16">
+    <row r="136" spans="1:9" ht="16">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -6227,12 +6778,15 @@
       <c r="F136" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="10" t="s">
+      <c r="G136" s="11">
+        <v>0</v>
+      </c>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16">
+    <row r="137" spans="1:9" ht="16">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -6251,12 +6805,15 @@
       <c r="F137" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="10" t="s">
+      <c r="G137" s="11">
+        <v>0</v>
+      </c>
+      <c r="H137" s="11"/>
+      <c r="I137" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16">
+    <row r="138" spans="1:9" ht="16">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -6275,12 +6832,15 @@
       <c r="F138" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="10" t="s">
+      <c r="G138" s="11">
+        <v>0</v>
+      </c>
+      <c r="H138" s="11"/>
+      <c r="I138" s="10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16">
+    <row r="139" spans="1:9" ht="16">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -6299,12 +6859,15 @@
       <c r="F139" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="10" t="s">
+      <c r="G139" s="11">
+        <v>0</v>
+      </c>
+      <c r="H139" s="11"/>
+      <c r="I139" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16">
+    <row r="140" spans="1:9" ht="16">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -6323,12 +6886,15 @@
       <c r="F140" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="10" t="s">
+      <c r="G140" s="11">
+        <v>0</v>
+      </c>
+      <c r="H140" s="11"/>
+      <c r="I140" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16">
+    <row r="141" spans="1:9" ht="16">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -6347,12 +6913,15 @@
       <c r="F141" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="10" t="s">
+      <c r="G141" s="11">
+        <v>0</v>
+      </c>
+      <c r="H141" s="11"/>
+      <c r="I141" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16">
+    <row r="142" spans="1:9" ht="16">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -6371,12 +6940,15 @@
       <c r="F142" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G142" s="11"/>
-      <c r="H142" s="10" t="s">
+      <c r="G142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="11"/>
+      <c r="I142" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16">
+    <row r="143" spans="1:9" ht="16">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -6395,12 +6967,15 @@
       <c r="F143" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="10" t="s">
+      <c r="G143" s="11">
+        <v>0</v>
+      </c>
+      <c r="H143" s="11"/>
+      <c r="I143" s="10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16">
+    <row r="144" spans="1:9" ht="16">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -6419,12 +6994,15 @@
       <c r="F144" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="10" t="s">
+      <c r="G144" s="11">
+        <v>0</v>
+      </c>
+      <c r="H144" s="11"/>
+      <c r="I144" s="10" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16">
+    <row r="145" spans="1:9" ht="16">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -6443,12 +7021,15 @@
       <c r="F145" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="10" t="s">
+      <c r="G145" s="11">
+        <v>0</v>
+      </c>
+      <c r="H145" s="11"/>
+      <c r="I145" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16">
+    <row r="146" spans="1:9" ht="16">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -6467,12 +7048,15 @@
       <c r="F146" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="10" t="s">
+      <c r="G146" s="11">
+        <v>0</v>
+      </c>
+      <c r="H146" s="11"/>
+      <c r="I146" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16">
+    <row r="147" spans="1:9" ht="16">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -6491,12 +7075,15 @@
       <c r="F147" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="10" t="s">
+      <c r="G147" s="11">
+        <v>0</v>
+      </c>
+      <c r="H147" s="11"/>
+      <c r="I147" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16">
+    <row r="148" spans="1:9" ht="16">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -6515,12 +7102,15 @@
       <c r="F148" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="10" t="s">
+      <c r="G148" s="11">
+        <v>0</v>
+      </c>
+      <c r="H148" s="11"/>
+      <c r="I148" s="10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16">
+    <row r="149" spans="1:9" ht="16">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -6539,12 +7129,15 @@
       <c r="F149" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="10" t="s">
+      <c r="G149" s="11">
+        <v>0</v>
+      </c>
+      <c r="H149" s="11"/>
+      <c r="I149" s="10" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16">
+    <row r="150" spans="1:9" ht="16">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -6563,12 +7156,15 @@
       <c r="F150" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="10" t="s">
+      <c r="G150" s="11">
+        <v>0</v>
+      </c>
+      <c r="H150" s="11"/>
+      <c r="I150" s="10" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16">
+    <row r="151" spans="1:9" ht="16">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -6587,12 +7183,15 @@
       <c r="F151" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="10" t="s">
+      <c r="G151" s="11">
+        <v>0</v>
+      </c>
+      <c r="H151" s="11"/>
+      <c r="I151" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16">
+    <row r="152" spans="1:9" ht="16">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -6611,12 +7210,15 @@
       <c r="F152" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="G152" s="11"/>
-      <c r="H152" s="10" t="s">
+      <c r="G152" s="11">
+        <v>0</v>
+      </c>
+      <c r="H152" s="11"/>
+      <c r="I152" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16">
+    <row r="153" spans="1:9" ht="16">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -6635,12 +7237,15 @@
       <c r="F153" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="G153" s="11"/>
-      <c r="H153" s="10" t="s">
+      <c r="G153" s="11">
+        <v>0</v>
+      </c>
+      <c r="H153" s="11"/>
+      <c r="I153" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16">
+    <row r="154" spans="1:9" ht="16">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -6659,12 +7264,15 @@
       <c r="F154" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="10" t="s">
+      <c r="G154" s="11">
+        <v>0</v>
+      </c>
+      <c r="H154" s="11"/>
+      <c r="I154" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16">
+    <row r="155" spans="1:9" ht="16">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -6683,12 +7291,15 @@
       <c r="F155" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G155" s="11"/>
-      <c r="H155" s="10" t="s">
+      <c r="G155" s="11">
+        <v>0</v>
+      </c>
+      <c r="H155" s="11"/>
+      <c r="I155" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16">
+    <row r="156" spans="1:9" ht="16">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -6707,12 +7318,15 @@
       <c r="F156" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="G156" s="11"/>
-      <c r="H156" s="10" t="s">
+      <c r="G156" s="11">
+        <v>0</v>
+      </c>
+      <c r="H156" s="11"/>
+      <c r="I156" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16">
+    <row r="157" spans="1:9" ht="16">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -6731,12 +7345,15 @@
       <c r="F157" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="G157" s="11"/>
-      <c r="H157" s="10" t="s">
+      <c r="G157" s="11">
+        <v>0</v>
+      </c>
+      <c r="H157" s="11"/>
+      <c r="I157" s="10" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16">
+    <row r="158" spans="1:9" ht="16">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -6755,12 +7372,15 @@
       <c r="F158" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="G158" s="11"/>
-      <c r="H158" s="10" t="s">
+      <c r="G158" s="11">
+        <v>0</v>
+      </c>
+      <c r="H158" s="11"/>
+      <c r="I158" s="10" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16">
+    <row r="159" spans="1:9" ht="16">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -6779,12 +7399,15 @@
       <c r="F159" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="G159" s="11"/>
-      <c r="H159" s="10" t="s">
+      <c r="G159" s="11">
+        <v>0</v>
+      </c>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16">
+    <row r="160" spans="1:9" ht="16">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -6803,12 +7426,15 @@
       <c r="F160" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="10" t="s">
+      <c r="G160" s="11">
+        <v>0</v>
+      </c>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16">
+    <row r="161" spans="1:9" ht="16">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -6827,12 +7453,15 @@
       <c r="F161" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="G161" s="11"/>
-      <c r="H161" s="10" t="s">
+      <c r="G161" s="11">
+        <v>0</v>
+      </c>
+      <c r="H161" s="11"/>
+      <c r="I161" s="10" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16">
+    <row r="162" spans="1:9" ht="16">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -6851,12 +7480,15 @@
       <c r="F162" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="G162" s="11"/>
-      <c r="H162" s="10" t="s">
+      <c r="G162" s="11">
+        <v>0</v>
+      </c>
+      <c r="H162" s="11"/>
+      <c r="I162" s="10" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16">
+    <row r="163" spans="1:9" ht="16">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -6875,12 +7507,15 @@
       <c r="F163" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="G163" s="11"/>
-      <c r="H163" s="10" t="s">
+      <c r="G163" s="11">
+        <v>0</v>
+      </c>
+      <c r="H163" s="11"/>
+      <c r="I163" s="10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16">
+    <row r="164" spans="1:9" ht="16">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -6899,12 +7534,15 @@
       <c r="F164" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="G164" s="11"/>
-      <c r="H164" s="10" t="s">
+      <c r="G164" s="11">
+        <v>0</v>
+      </c>
+      <c r="H164" s="11"/>
+      <c r="I164" s="10" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16">
+    <row r="165" spans="1:9" ht="16">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -6923,12 +7561,15 @@
       <c r="F165" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="G165" s="11"/>
-      <c r="H165" s="10" t="s">
+      <c r="G165" s="11">
+        <v>0</v>
+      </c>
+      <c r="H165" s="11"/>
+      <c r="I165" s="10" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16">
+    <row r="166" spans="1:9" ht="16">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -6947,12 +7588,15 @@
       <c r="F166" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G166" s="11"/>
-      <c r="H166" s="10" t="s">
+      <c r="G166" s="11">
+        <v>0</v>
+      </c>
+      <c r="H166" s="11"/>
+      <c r="I166" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16">
+    <row r="167" spans="1:9" ht="16">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -6971,12 +7615,15 @@
       <c r="F167" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G167" s="11"/>
-      <c r="H167" s="10" t="s">
+      <c r="G167" s="11">
+        <v>0</v>
+      </c>
+      <c r="H167" s="11"/>
+      <c r="I167" s="10" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16">
+    <row r="168" spans="1:9" ht="16">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -6995,12 +7642,15 @@
       <c r="F168" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="10" t="s">
+      <c r="G168" s="11">
+        <v>0</v>
+      </c>
+      <c r="H168" s="11"/>
+      <c r="I168" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16">
+    <row r="169" spans="1:9" ht="16">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -7019,12 +7669,15 @@
       <c r="F169" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="G169" s="11"/>
-      <c r="H169" s="10" t="s">
+      <c r="G169" s="11">
+        <v>0</v>
+      </c>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16">
+    <row r="170" spans="1:9" ht="16">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -7043,12 +7696,15 @@
       <c r="F170" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="G170" s="11"/>
-      <c r="H170" s="10" t="s">
+      <c r="G170" s="11">
+        <v>0</v>
+      </c>
+      <c r="H170" s="11"/>
+      <c r="I170" s="10" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16">
+    <row r="171" spans="1:9" ht="16">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -7067,12 +7723,15 @@
       <c r="F171" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="G171" s="11"/>
-      <c r="H171" s="10" t="s">
+      <c r="G171" s="11">
+        <v>0</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16">
+    <row r="172" spans="1:9" ht="16">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -7091,12 +7750,15 @@
       <c r="F172" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="G172" s="11"/>
-      <c r="H172" s="10" t="s">
+      <c r="G172" s="11">
+        <v>0</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="10" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16">
+    <row r="173" spans="1:9" ht="16">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -7115,12 +7777,15 @@
       <c r="F173" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="G173" s="11"/>
-      <c r="H173" s="10" t="s">
+      <c r="G173" s="11">
+        <v>0</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="10" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16">
+    <row r="174" spans="1:9" ht="16">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -7139,12 +7804,15 @@
       <c r="F174" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="G174" s="11"/>
-      <c r="H174" s="10" t="s">
+      <c r="G174" s="11">
+        <v>0</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16">
+    <row r="175" spans="1:9" ht="16">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -7163,12 +7831,15 @@
       <c r="F175" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="G175" s="11"/>
-      <c r="H175" s="10" t="s">
+      <c r="G175" s="11">
+        <v>0</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="10" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16">
+    <row r="176" spans="1:9" ht="16">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -7187,12 +7858,15 @@
       <c r="F176" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="G176" s="11"/>
-      <c r="H176" s="10" t="s">
+      <c r="G176" s="11">
+        <v>0</v>
+      </c>
+      <c r="H176" s="11"/>
+      <c r="I176" s="10" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16">
+    <row r="177" spans="1:9" ht="16">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -7211,12 +7885,15 @@
       <c r="F177" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="G177" s="11"/>
-      <c r="H177" s="10" t="s">
+      <c r="G177" s="11">
+        <v>0</v>
+      </c>
+      <c r="H177" s="11"/>
+      <c r="I177" s="10" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16">
+    <row r="178" spans="1:9" ht="16">
       <c r="A178" s="9">
         <v>177</v>
       </c>
@@ -7235,12 +7912,15 @@
       <c r="F178" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="G178" s="11"/>
-      <c r="H178" s="10" t="s">
+      <c r="G178" s="11">
+        <v>0</v>
+      </c>
+      <c r="H178" s="11"/>
+      <c r="I178" s="10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16">
+    <row r="179" spans="1:9" ht="16">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -7259,12 +7939,15 @@
       <c r="F179" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="G179" s="11"/>
-      <c r="H179" s="10" t="s">
+      <c r="G179" s="11">
+        <v>0</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="10" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="16">
+    <row r="180" spans="1:9" ht="16">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -7283,12 +7966,15 @@
       <c r="F180" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="G180" s="11"/>
-      <c r="H180" s="10" t="s">
+      <c r="G180" s="11">
+        <v>0</v>
+      </c>
+      <c r="H180" s="11"/>
+      <c r="I180" s="10" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="16">
+    <row r="181" spans="1:9" ht="16">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -7307,12 +7993,15 @@
       <c r="F181" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="G181" s="11"/>
-      <c r="H181" s="10" t="s">
+      <c r="G181" s="11">
+        <v>0</v>
+      </c>
+      <c r="H181" s="11"/>
+      <c r="I181" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16">
+    <row r="182" spans="1:9" ht="16">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -7331,12 +8020,15 @@
       <c r="F182" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="G182" s="11"/>
-      <c r="H182" s="10" t="s">
+      <c r="G182" s="11">
+        <v>0</v>
+      </c>
+      <c r="H182" s="11"/>
+      <c r="I182" s="10" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="16">
+    <row r="183" spans="1:9" ht="16">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -7355,12 +8047,15 @@
       <c r="F183" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="10" t="s">
+      <c r="G183" s="11">
+        <v>0</v>
+      </c>
+      <c r="H183" s="11"/>
+      <c r="I183" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16">
+    <row r="184" spans="1:9" ht="16">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -7379,12 +8074,15 @@
       <c r="F184" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="G184" s="11"/>
-      <c r="H184" s="10" t="s">
+      <c r="G184" s="11">
+        <v>0</v>
+      </c>
+      <c r="H184" s="11"/>
+      <c r="I184" s="10" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16">
+    <row r="185" spans="1:9" ht="16">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -7403,12 +8101,15 @@
       <c r="F185" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="G185" s="11"/>
-      <c r="H185" s="10" t="s">
+      <c r="G185" s="11">
+        <v>0</v>
+      </c>
+      <c r="H185" s="11"/>
+      <c r="I185" s="10" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16">
+    <row r="186" spans="1:9" ht="16">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -7427,12 +8128,15 @@
       <c r="F186" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="G186" s="11"/>
-      <c r="H186" s="10" t="s">
+      <c r="G186" s="11">
+        <v>0</v>
+      </c>
+      <c r="H186" s="11"/>
+      <c r="I186" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16">
+    <row r="187" spans="1:9" ht="16">
       <c r="A187" s="9">
         <v>186</v>
       </c>
@@ -7451,12 +8155,15 @@
       <c r="F187" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="G187" s="11"/>
-      <c r="H187" s="10" t="s">
+      <c r="G187" s="11">
+        <v>0</v>
+      </c>
+      <c r="H187" s="11"/>
+      <c r="I187" s="10" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16">
+    <row r="188" spans="1:9" ht="16">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -7475,12 +8182,15 @@
       <c r="F188" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="11"/>
-      <c r="H188" s="10" t="s">
+      <c r="G188" s="11">
+        <v>0</v>
+      </c>
+      <c r="H188" s="11"/>
+      <c r="I188" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16">
+    <row r="189" spans="1:9" ht="16">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -7499,12 +8209,15 @@
       <c r="F189" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="G189" s="11"/>
-      <c r="H189" s="10" t="s">
+      <c r="G189" s="11">
+        <v>0</v>
+      </c>
+      <c r="H189" s="11"/>
+      <c r="I189" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16">
+    <row r="190" spans="1:9" ht="16">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -7523,12 +8236,15 @@
       <c r="F190" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="G190" s="11"/>
-      <c r="H190" s="10" t="s">
+      <c r="G190" s="11">
+        <v>0</v>
+      </c>
+      <c r="H190" s="11"/>
+      <c r="I190" s="10" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16">
+    <row r="191" spans="1:9" ht="16">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -7547,12 +8263,15 @@
       <c r="F191" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="G191" s="11"/>
-      <c r="H191" s="10" t="s">
+      <c r="G191" s="11">
+        <v>0</v>
+      </c>
+      <c r="H191" s="11"/>
+      <c r="I191" s="10" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16">
+    <row r="192" spans="1:9" ht="16">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -7571,12 +8290,15 @@
       <c r="F192" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="G192" s="11"/>
-      <c r="H192" s="10" t="s">
+      <c r="G192" s="11">
+        <v>0</v>
+      </c>
+      <c r="H192" s="11"/>
+      <c r="I192" s="10" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16">
+    <row r="193" spans="1:9" ht="16">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -7595,12 +8317,15 @@
       <c r="F193" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="G193" s="11"/>
-      <c r="H193" s="10" t="s">
+      <c r="G193" s="11">
+        <v>0</v>
+      </c>
+      <c r="H193" s="11"/>
+      <c r="I193" s="10" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16">
+    <row r="194" spans="1:9" ht="16">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -7619,12 +8344,15 @@
       <c r="F194" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="H194" s="10" t="s">
+      <c r="G194" s="11">
+        <v>0</v>
+      </c>
+      <c r="H194" s="11"/>
+      <c r="I194" s="10" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16">
+    <row r="195" spans="1:9" ht="16">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -7643,12 +8371,15 @@
       <c r="F195" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" s="10" t="s">
+      <c r="G195" s="11">
+        <v>0</v>
+      </c>
+      <c r="H195" s="11"/>
+      <c r="I195" s="10" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16">
+    <row r="196" spans="1:9" ht="16">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -7667,12 +8398,15 @@
       <c r="F196" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="G196" s="11"/>
-      <c r="H196" s="10" t="s">
+      <c r="G196" s="11">
+        <v>0</v>
+      </c>
+      <c r="H196" s="11"/>
+      <c r="I196" s="10" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16">
+    <row r="197" spans="1:9" ht="16">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -7691,12 +8425,15 @@
       <c r="F197" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="G197" s="11"/>
-      <c r="H197" s="10" t="s">
+      <c r="G197" s="11">
+        <v>0</v>
+      </c>
+      <c r="H197" s="11"/>
+      <c r="I197" s="10" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16">
+    <row r="198" spans="1:9" ht="16">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -7715,12 +8452,15 @@
       <c r="F198" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="G198" s="11"/>
-      <c r="H198" s="10" t="s">
+      <c r="G198" s="11">
+        <v>0</v>
+      </c>
+      <c r="H198" s="11"/>
+      <c r="I198" s="10" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16">
+    <row r="199" spans="1:9" ht="16">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -7739,12 +8479,15 @@
       <c r="F199" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="G199" s="11"/>
-      <c r="H199" s="10" t="s">
+      <c r="G199" s="11">
+        <v>0</v>
+      </c>
+      <c r="H199" s="11"/>
+      <c r="I199" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16">
+    <row r="200" spans="1:9" ht="16">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -7763,12 +8506,15 @@
       <c r="F200" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="10" t="s">
+      <c r="G200" s="11">
+        <v>0</v>
+      </c>
+      <c r="H200" s="11"/>
+      <c r="I200" s="10" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16">
+    <row r="201" spans="1:9" ht="16">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -7787,12 +8533,15 @@
       <c r="F201" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="G201" s="11"/>
-      <c r="H201" s="10" t="s">
+      <c r="G201" s="11">
+        <v>0</v>
+      </c>
+      <c r="H201" s="11"/>
+      <c r="I201" s="10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16">
+    <row r="202" spans="1:9" ht="16">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -7811,12 +8560,15 @@
       <c r="F202" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="G202" s="11"/>
-      <c r="H202" s="10" t="s">
+      <c r="G202" s="11">
+        <v>0</v>
+      </c>
+      <c r="H202" s="11"/>
+      <c r="I202" s="10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16">
+    <row r="203" spans="1:9" ht="16">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -7835,12 +8587,15 @@
       <c r="F203" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="G203" s="11"/>
-      <c r="H203" s="10" t="s">
+      <c r="G203" s="11">
+        <v>0</v>
+      </c>
+      <c r="H203" s="11"/>
+      <c r="I203" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16">
+    <row r="204" spans="1:9" ht="16">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -7859,12 +8614,15 @@
       <c r="F204" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="G204" s="11"/>
-      <c r="H204" s="10" t="s">
+      <c r="G204" s="11">
+        <v>0</v>
+      </c>
+      <c r="H204" s="11"/>
+      <c r="I204" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16">
+    <row r="205" spans="1:9" ht="16">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -7883,12 +8641,15 @@
       <c r="F205" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="G205" s="11"/>
-      <c r="H205" s="10" t="s">
+      <c r="G205" s="11">
+        <v>0</v>
+      </c>
+      <c r="H205" s="11"/>
+      <c r="I205" s="10" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16">
+    <row r="206" spans="1:9" ht="16">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -7907,12 +8668,15 @@
       <c r="F206" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="G206" s="11"/>
-      <c r="H206" s="10" t="s">
+      <c r="G206" s="11">
+        <v>0</v>
+      </c>
+      <c r="H206" s="11"/>
+      <c r="I206" s="10" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16">
+    <row r="207" spans="1:9" ht="16">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -7931,12 +8695,15 @@
       <c r="F207" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="G207" s="11"/>
-      <c r="H207" s="10" t="s">
+      <c r="G207" s="11">
+        <v>0</v>
+      </c>
+      <c r="H207" s="11"/>
+      <c r="I207" s="10" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16">
+    <row r="208" spans="1:9" ht="16">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -7955,12 +8722,15 @@
       <c r="F208" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="G208" s="11"/>
-      <c r="H208" s="10" t="s">
+      <c r="G208" s="11">
+        <v>0</v>
+      </c>
+      <c r="H208" s="11"/>
+      <c r="I208" s="10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16">
+    <row r="209" spans="1:9" ht="16">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -7979,12 +8749,15 @@
       <c r="F209" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="G209" s="11"/>
-      <c r="H209" s="10" t="s">
+      <c r="G209" s="11">
+        <v>0</v>
+      </c>
+      <c r="H209" s="11"/>
+      <c r="I209" s="10" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16">
+    <row r="210" spans="1:9" ht="16">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -8003,12 +8776,15 @@
       <c r="F210" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="G210" s="11"/>
-      <c r="H210" s="10" t="s">
+      <c r="G210" s="11">
+        <v>0</v>
+      </c>
+      <c r="H210" s="11"/>
+      <c r="I210" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16">
+    <row r="211" spans="1:9" ht="16">
       <c r="A211" s="9">
         <v>210</v>
       </c>
@@ -8027,12 +8803,15 @@
       <c r="F211" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="G211" s="11"/>
-      <c r="H211" s="10" t="s">
+      <c r="G211" s="11">
+        <v>0</v>
+      </c>
+      <c r="H211" s="11"/>
+      <c r="I211" s="10" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16">
+    <row r="212" spans="1:9" ht="16">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -8051,12 +8830,15 @@
       <c r="F212" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="G212" s="11"/>
-      <c r="H212" s="10" t="s">
+      <c r="G212" s="11">
+        <v>0</v>
+      </c>
+      <c r="H212" s="11"/>
+      <c r="I212" s="10" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16">
+    <row r="213" spans="1:9" ht="16">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -8075,12 +8857,15 @@
       <c r="F213" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="G213" s="11"/>
-      <c r="H213" s="10" t="s">
+      <c r="G213" s="11">
+        <v>0</v>
+      </c>
+      <c r="H213" s="11"/>
+      <c r="I213" s="10" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16">
+    <row r="214" spans="1:9" ht="16">
       <c r="A214" s="9">
         <v>213</v>
       </c>
@@ -8099,12 +8884,15 @@
       <c r="F214" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="G214" s="11"/>
-      <c r="H214" s="10" t="s">
+      <c r="G214" s="11">
+        <v>0</v>
+      </c>
+      <c r="H214" s="11"/>
+      <c r="I214" s="10" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16">
+    <row r="215" spans="1:9" ht="16">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -8123,12 +8911,15 @@
       <c r="F215" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="G215" s="11"/>
-      <c r="H215" s="10" t="s">
+      <c r="G215" s="11">
+        <v>0</v>
+      </c>
+      <c r="H215" s="11"/>
+      <c r="I215" s="10" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16">
+    <row r="216" spans="1:9" ht="16">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -8147,12 +8938,15 @@
       <c r="F216" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="G216" s="11"/>
-      <c r="H216" s="10" t="s">
+      <c r="G216" s="11">
+        <v>0</v>
+      </c>
+      <c r="H216" s="11"/>
+      <c r="I216" s="10" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16">
+    <row r="217" spans="1:9" ht="16">
       <c r="A217" s="9">
         <v>216</v>
       </c>
@@ -8171,12 +8965,15 @@
       <c r="F217" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="G217" s="11"/>
-      <c r="H217" s="10" t="s">
+      <c r="G217" s="11">
+        <v>0</v>
+      </c>
+      <c r="H217" s="11"/>
+      <c r="I217" s="10" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="16">
+    <row r="218" spans="1:9" ht="16">
       <c r="A218" s="9">
         <v>217</v>
       </c>
@@ -8195,12 +8992,15 @@
       <c r="F218" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="G218" s="11"/>
-      <c r="H218" s="10" t="s">
+      <c r="G218" s="11">
+        <v>0</v>
+      </c>
+      <c r="H218" s="11"/>
+      <c r="I218" s="10" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16">
+    <row r="219" spans="1:9" ht="16">
       <c r="A219" s="9">
         <v>218</v>
       </c>
@@ -8219,12 +9019,15 @@
       <c r="F219" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="G219" s="11"/>
-      <c r="H219" s="10" t="s">
+      <c r="G219" s="11">
+        <v>0</v>
+      </c>
+      <c r="H219" s="11"/>
+      <c r="I219" s="10" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16">
+    <row r="220" spans="1:9" ht="16">
       <c r="A220" s="9">
         <v>219</v>
       </c>
@@ -8243,12 +9046,15 @@
       <c r="F220" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="G220" s="11"/>
-      <c r="H220" s="10" t="s">
+      <c r="G220" s="11">
+        <v>0</v>
+      </c>
+      <c r="H220" s="11"/>
+      <c r="I220" s="10" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16">
+    <row r="221" spans="1:9" ht="16">
       <c r="A221" s="9">
         <v>220</v>
       </c>
@@ -8267,12 +9073,15 @@
       <c r="F221" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="G221" s="11"/>
-      <c r="H221" s="10" t="s">
+      <c r="G221" s="11">
+        <v>0</v>
+      </c>
+      <c r="H221" s="11"/>
+      <c r="I221" s="10" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16">
+    <row r="222" spans="1:9" ht="16">
       <c r="A222" s="9">
         <v>221</v>
       </c>
@@ -8291,12 +9100,15 @@
       <c r="F222" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="G222" s="11"/>
-      <c r="H222" s="10" t="s">
+      <c r="G222" s="11">
+        <v>0</v>
+      </c>
+      <c r="H222" s="11"/>
+      <c r="I222" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16">
+    <row r="223" spans="1:9" ht="16">
       <c r="A223" s="9">
         <v>222</v>
       </c>
@@ -8315,12 +9127,15 @@
       <c r="F223" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="G223" s="11"/>
-      <c r="H223" s="10" t="s">
+      <c r="G223" s="11">
+        <v>0</v>
+      </c>
+      <c r="H223" s="11"/>
+      <c r="I223" s="10" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16">
+    <row r="224" spans="1:9" ht="16">
       <c r="A224" s="9">
         <v>223</v>
       </c>
@@ -8339,12 +9154,15 @@
       <c r="F224" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="G224" s="11"/>
-      <c r="H224" s="10" t="s">
+      <c r="G224" s="11">
+        <v>0</v>
+      </c>
+      <c r="H224" s="11"/>
+      <c r="I224" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16">
+    <row r="225" spans="1:9" ht="16">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -8363,12 +9181,15 @@
       <c r="F225" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="G225" s="11"/>
-      <c r="H225" s="10" t="s">
+      <c r="G225" s="11">
+        <v>0</v>
+      </c>
+      <c r="H225" s="11"/>
+      <c r="I225" s="10" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16">
+    <row r="226" spans="1:9" ht="16">
       <c r="A226" s="9">
         <v>225</v>
       </c>
@@ -8387,12 +9208,15 @@
       <c r="F226" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="H226" s="10" t="s">
+      <c r="G226" s="11">
+        <v>0</v>
+      </c>
+      <c r="H226" s="11"/>
+      <c r="I226" s="10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="16">
+    <row r="227" spans="1:9" ht="16">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -8411,12 +9235,15 @@
       <c r="F227" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="G227" s="11"/>
-      <c r="H227" s="10" t="s">
+      <c r="G227" s="11">
+        <v>0</v>
+      </c>
+      <c r="H227" s="11"/>
+      <c r="I227" s="10" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="16">
+    <row r="228" spans="1:9" ht="16">
       <c r="A228" s="9">
         <v>227</v>
       </c>
@@ -8435,12 +9262,15 @@
       <c r="F228" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="G228" s="11"/>
-      <c r="H228" s="10" t="s">
+      <c r="G228" s="11">
+        <v>0</v>
+      </c>
+      <c r="H228" s="11"/>
+      <c r="I228" s="10" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="16">
+    <row r="229" spans="1:9" ht="16">
       <c r="A229" s="9">
         <v>228</v>
       </c>
@@ -8459,12 +9289,15 @@
       <c r="F229" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="G229" s="11"/>
-      <c r="H229" s="10" t="s">
+      <c r="G229" s="11">
+        <v>0</v>
+      </c>
+      <c r="H229" s="11"/>
+      <c r="I229" s="10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16">
+    <row r="230" spans="1:9" ht="16">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -8483,12 +9316,15 @@
       <c r="F230" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="G230" s="11"/>
-      <c r="H230" s="10" t="s">
+      <c r="G230" s="11">
+        <v>0</v>
+      </c>
+      <c r="H230" s="11"/>
+      <c r="I230" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16">
+    <row r="231" spans="1:9" ht="16">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -8507,12 +9343,15 @@
       <c r="F231" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="G231" s="11"/>
-      <c r="H231" s="10" t="s">
+      <c r="G231" s="11">
+        <v>0</v>
+      </c>
+      <c r="H231" s="11"/>
+      <c r="I231" s="10" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16">
+    <row r="232" spans="1:9" ht="16">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -8531,12 +9370,15 @@
       <c r="F232" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="G232" s="11"/>
-      <c r="H232" s="10" t="s">
+      <c r="G232" s="11">
+        <v>0</v>
+      </c>
+      <c r="H232" s="11"/>
+      <c r="I232" s="10" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="16">
+    <row r="233" spans="1:9" ht="16">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -8555,12 +9397,15 @@
       <c r="F233" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="G233" s="11"/>
-      <c r="H233" s="10" t="s">
+      <c r="G233" s="11">
+        <v>0</v>
+      </c>
+      <c r="H233" s="11"/>
+      <c r="I233" s="10" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="16">
+    <row r="234" spans="1:9" ht="16">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -8579,12 +9424,15 @@
       <c r="F234" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="G234" s="11"/>
-      <c r="H234" s="10" t="s">
+      <c r="G234" s="11">
+        <v>0</v>
+      </c>
+      <c r="H234" s="11"/>
+      <c r="I234" s="10" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="16">
+    <row r="235" spans="1:9" ht="16">
       <c r="A235" s="9">
         <v>234</v>
       </c>
@@ -8603,12 +9451,15 @@
       <c r="F235" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="G235" s="11"/>
-      <c r="H235" s="10" t="s">
+      <c r="G235" s="11">
+        <v>0</v>
+      </c>
+      <c r="H235" s="11"/>
+      <c r="I235" s="10" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="16">
+    <row r="236" spans="1:9" ht="16">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -8627,12 +9478,15 @@
       <c r="F236" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="G236" s="11"/>
-      <c r="H236" s="10" t="s">
+      <c r="G236" s="11">
+        <v>0</v>
+      </c>
+      <c r="H236" s="11"/>
+      <c r="I236" s="10" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="16">
+    <row r="237" spans="1:9" ht="16">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -8651,12 +9505,15 @@
       <c r="F237" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="G237" s="11"/>
-      <c r="H237" s="10" t="s">
+      <c r="G237" s="11">
+        <v>0</v>
+      </c>
+      <c r="H237" s="11"/>
+      <c r="I237" s="10" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="16">
+    <row r="238" spans="1:9" ht="16">
       <c r="A238" s="9">
         <v>237</v>
       </c>
@@ -8675,12 +9532,15 @@
       <c r="F238" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="G238" s="11"/>
-      <c r="H238" s="10" t="s">
+      <c r="G238" s="11">
+        <v>0</v>
+      </c>
+      <c r="H238" s="11"/>
+      <c r="I238" s="10" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="16">
+    <row r="239" spans="1:9" ht="16">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -8699,12 +9559,15 @@
       <c r="F239" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="G239" s="11"/>
-      <c r="H239" s="10" t="s">
+      <c r="G239" s="11">
+        <v>0</v>
+      </c>
+      <c r="H239" s="11"/>
+      <c r="I239" s="10" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16">
+    <row r="240" spans="1:9" ht="16">
       <c r="A240" s="9">
         <v>239</v>
       </c>
@@ -8723,12 +9586,15 @@
       <c r="F240" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="G240" s="11"/>
-      <c r="H240" s="10" t="s">
+      <c r="G240" s="11">
+        <v>0</v>
+      </c>
+      <c r="H240" s="11"/>
+      <c r="I240" s="10" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16">
+    <row r="241" spans="1:9" ht="16">
       <c r="A241" s="9">
         <v>240</v>
       </c>
@@ -8747,12 +9613,15 @@
       <c r="F241" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="G241" s="11"/>
-      <c r="H241" s="10" t="s">
+      <c r="G241" s="11">
+        <v>0</v>
+      </c>
+      <c r="H241" s="11"/>
+      <c r="I241" s="10" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16">
+    <row r="242" spans="1:9" ht="16">
       <c r="A242" s="9">
         <v>241</v>
       </c>
@@ -8771,12 +9640,15 @@
       <c r="F242" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="G242" s="11"/>
-      <c r="H242" s="10" t="s">
+      <c r="G242" s="11">
+        <v>0</v>
+      </c>
+      <c r="H242" s="11"/>
+      <c r="I242" s="10" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="16">
+    <row r="243" spans="1:9" ht="16">
       <c r="A243" s="9">
         <v>242</v>
       </c>
@@ -8795,12 +9667,15 @@
       <c r="F243" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="G243" s="11"/>
-      <c r="H243" s="10" t="s">
+      <c r="G243" s="11">
+        <v>0</v>
+      </c>
+      <c r="H243" s="11"/>
+      <c r="I243" s="10" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="16">
+    <row r="244" spans="1:9" ht="16">
       <c r="A244" s="9">
         <v>243</v>
       </c>
@@ -8819,12 +9694,15 @@
       <c r="F244" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="G244" s="11"/>
-      <c r="H244" s="10" t="s">
+      <c r="G244" s="11">
+        <v>0</v>
+      </c>
+      <c r="H244" s="11"/>
+      <c r="I244" s="10" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16">
+    <row r="245" spans="1:9" ht="16">
       <c r="A245" s="9">
         <v>244</v>
       </c>
@@ -8843,12 +9721,15 @@
       <c r="F245" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="G245" s="11"/>
-      <c r="H245" s="10" t="s">
+      <c r="G245" s="11">
+        <v>0</v>
+      </c>
+      <c r="H245" s="11"/>
+      <c r="I245" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="16">
+    <row r="246" spans="1:9" ht="16">
       <c r="A246" s="9">
         <v>245</v>
       </c>
@@ -8867,12 +9748,15 @@
       <c r="F246" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="G246" s="11"/>
-      <c r="H246" s="10" t="s">
+      <c r="G246" s="11">
+        <v>0</v>
+      </c>
+      <c r="H246" s="11"/>
+      <c r="I246" s="10" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="16">
+    <row r="247" spans="1:9" ht="16">
       <c r="A247" s="9">
         <v>246</v>
       </c>
@@ -8891,12 +9775,15 @@
       <c r="F247" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="G247" s="11"/>
-      <c r="H247" s="10" t="s">
+      <c r="G247" s="11">
+        <v>0</v>
+      </c>
+      <c r="H247" s="11"/>
+      <c r="I247" s="10" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16">
+    <row r="248" spans="1:9" ht="16">
       <c r="A248" s="9">
         <v>247</v>
       </c>
@@ -8915,12 +9802,15 @@
       <c r="F248" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="G248" s="11"/>
-      <c r="H248" s="10" t="s">
+      <c r="G248" s="11">
+        <v>0</v>
+      </c>
+      <c r="H248" s="11"/>
+      <c r="I248" s="10" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="16">
+    <row r="249" spans="1:9" ht="16">
       <c r="A249" s="9">
         <v>248</v>
       </c>
@@ -8939,12 +9829,15 @@
       <c r="F249" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="G249" s="11"/>
-      <c r="H249" s="10" t="s">
+      <c r="G249" s="11">
+        <v>0</v>
+      </c>
+      <c r="H249" s="11"/>
+      <c r="I249" s="10" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="16">
+    <row r="250" spans="1:9" ht="16">
       <c r="A250" s="9">
         <v>249</v>
       </c>
@@ -8963,12 +9856,15 @@
       <c r="F250" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="G250" s="11"/>
-      <c r="H250" s="10" t="s">
+      <c r="G250" s="11">
+        <v>0</v>
+      </c>
+      <c r="H250" s="11"/>
+      <c r="I250" s="10" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="16">
+    <row r="251" spans="1:9" ht="16">
       <c r="A251" s="9">
         <v>250</v>
       </c>
@@ -8987,12 +9883,15 @@
       <c r="F251" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="G251" s="11"/>
-      <c r="H251" s="10" t="s">
+      <c r="G251" s="11">
+        <v>0</v>
+      </c>
+      <c r="H251" s="11"/>
+      <c r="I251" s="10" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16">
+    <row r="252" spans="1:9" ht="16">
       <c r="A252" s="9">
         <v>251</v>
       </c>
@@ -9011,12 +9910,15 @@
       <c r="F252" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="G252" s="11"/>
-      <c r="H252" s="10" t="s">
+      <c r="G252" s="11">
+        <v>0</v>
+      </c>
+      <c r="H252" s="11"/>
+      <c r="I252" s="10" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16">
+    <row r="253" spans="1:9" ht="16">
       <c r="A253" s="9">
         <v>252</v>
       </c>
@@ -9035,12 +9937,15 @@
       <c r="F253" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="G253" s="11"/>
-      <c r="H253" s="10" t="s">
+      <c r="G253" s="11">
+        <v>0</v>
+      </c>
+      <c r="H253" s="11"/>
+      <c r="I253" s="10" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16">
+    <row r="254" spans="1:9" ht="16">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -9059,12 +9964,15 @@
       <c r="F254" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="G254" s="11"/>
-      <c r="H254" s="10" t="s">
+      <c r="G254" s="11">
+        <v>0</v>
+      </c>
+      <c r="H254" s="11"/>
+      <c r="I254" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16">
+    <row r="255" spans="1:9" ht="16">
       <c r="A255" s="9">
         <v>254</v>
       </c>
@@ -9083,12 +9991,15 @@
       <c r="F255" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="G255" s="11"/>
-      <c r="H255" s="10" t="s">
+      <c r="G255" s="11">
+        <v>0</v>
+      </c>
+      <c r="H255" s="11"/>
+      <c r="I255" s="10" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="16">
+    <row r="256" spans="1:9" ht="16">
       <c r="A256" s="9">
         <v>255</v>
       </c>
@@ -9107,12 +10018,15 @@
       <c r="F256" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="G256" s="11"/>
-      <c r="H256" s="10" t="s">
+      <c r="G256" s="11">
+        <v>0</v>
+      </c>
+      <c r="H256" s="11"/>
+      <c r="I256" s="10" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="16">
+    <row r="257" spans="1:9" ht="16">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -9131,12 +10045,15 @@
       <c r="F257" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="G257" s="11"/>
-      <c r="H257" s="10" t="s">
+      <c r="G257" s="11">
+        <v>0</v>
+      </c>
+      <c r="H257" s="11"/>
+      <c r="I257" s="10" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="16">
+    <row r="258" spans="1:9" ht="16">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -9155,12 +10072,15 @@
       <c r="F258" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="G258" s="11"/>
-      <c r="H258" s="10" t="s">
+      <c r="G258" s="11">
+        <v>0</v>
+      </c>
+      <c r="H258" s="11"/>
+      <c r="I258" s="10" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="16">
+    <row r="259" spans="1:9" ht="16">
       <c r="A259" s="9">
         <v>258</v>
       </c>
@@ -9179,12 +10099,15 @@
       <c r="F259" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="G259" s="11"/>
-      <c r="H259" s="10" t="s">
+      <c r="G259" s="11">
+        <v>0</v>
+      </c>
+      <c r="H259" s="11"/>
+      <c r="I259" s="10" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="16">
+    <row r="260" spans="1:9" ht="16">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -9203,12 +10126,15 @@
       <c r="F260" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="10" t="s">
+      <c r="G260" s="11">
+        <v>0</v>
+      </c>
+      <c r="H260" s="11"/>
+      <c r="I260" s="10" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="16">
+    <row r="261" spans="1:9" ht="16">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -9227,12 +10153,15 @@
       <c r="F261" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="G261" s="11"/>
-      <c r="H261" s="10" t="s">
+      <c r="G261" s="11">
+        <v>0</v>
+      </c>
+      <c r="H261" s="11"/>
+      <c r="I261" s="10" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="16">
+    <row r="262" spans="1:9" ht="16">
       <c r="A262" s="9">
         <v>261</v>
       </c>
@@ -9251,12 +10180,15 @@
       <c r="F262" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="G262" s="11"/>
-      <c r="H262" s="10" t="s">
+      <c r="G262" s="11">
+        <v>0</v>
+      </c>
+      <c r="H262" s="11"/>
+      <c r="I262" s="10" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="16">
+    <row r="263" spans="1:9" ht="16">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -9275,12 +10207,15 @@
       <c r="F263" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="G263" s="11"/>
-      <c r="H263" s="10" t="s">
+      <c r="G263" s="11">
+        <v>0</v>
+      </c>
+      <c r="H263" s="11"/>
+      <c r="I263" s="10" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="16">
+    <row r="264" spans="1:9" ht="16">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -9299,32 +10234,38 @@
       <c r="F264" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="G264" s="11"/>
-      <c r="H264" s="10" t="s">
+      <c r="G264" s="11">
+        <v>0</v>
+      </c>
+      <c r="H264" s="11"/>
+      <c r="I264" s="10" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="16">
-      <c r="A265" s="9">
+    <row r="265" spans="1:9" s="6" customFormat="1" ht="17" thickBot="1">
+      <c r="A265" s="24">
         <v>264</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="C265" s="10">
+      <c r="C265" s="25">
         <v>2016</v>
       </c>
-      <c r="D265" s="10">
+      <c r="D265" s="25">
         <v>80</v>
       </c>
-      <c r="E265" s="10" t="s">
+      <c r="E265" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="F265" s="10" t="s">
+      <c r="F265" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="G265" s="11"/>
-      <c r="H265" s="10" t="s">
+      <c r="G265" s="26">
+        <v>0</v>
+      </c>
+      <c r="H265" s="26"/>
+      <c r="I265" s="25" t="s">
         <v>833</v>
       </c>
     </row>
@@ -9340,7 +10281,7 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -9363,43 +10304,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9407,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C31" si="0">LEFT(B2,FIND(",", B2) - 1)</f>
@@ -9449,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -9491,7 +10432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -9533,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -9575,7 +10516,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -9617,7 +10558,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -9659,7 +10600,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -9701,7 +10642,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -9743,7 +10684,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -9785,7 +10726,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -9827,7 +10768,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -9869,7 +10810,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -9911,7 +10852,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -9953,7 +10894,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -9995,7 +10936,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -10037,7 +10978,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -10079,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -10121,7 +11062,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -10163,7 +11104,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -10205,7 +11146,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -10247,7 +11188,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -10289,7 +11230,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -10331,7 +11272,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -10373,7 +11314,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -10415,7 +11356,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -10457,7 +11398,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -10499,7 +11440,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -10541,7 +11482,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -10583,7 +11524,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -10625,7 +11566,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -10682,45 +11623,171 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Studies!G:G, E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Studies!G:G, E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="16"/>
+      <c r="E13" s="27">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Studies!G:G, E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="16"/>
+      <c r="E14" s="28">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(Studies!G:G, E14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="E15" s="21">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(Studies!G:G, E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E16" s="22">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Studies!G:G, E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="18"/>
+      <c r="E17" s="23">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(Studies!G:G, E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(Studies!G:G, E18)</f>
+        <v>263</v>
+      </c>
+      <c r="G18" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D16:D17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jf41513/code/meta/incentives/literature_search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480831FE-1DF2-6A48-94F5-645F1C34D1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE755D-7DF4-DB47-91C4-909FD64056DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
-    <sheet name="Journals" sheetId="12" r:id="rId2"/>
-    <sheet name="Metadata" sheetId="15" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="15" r:id="rId2"/>
+    <sheet name="Journals" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="834">
   <si>
     <t>Journal</t>
   </si>
@@ -2504,13 +2504,49 @@
   </si>
   <si>
     <t>Quarterly Journal of Economics</t>
+  </si>
+  <si>
+    <t>Not found in the original search query, included in the new sample</t>
+  </si>
+  <si>
+    <t>Not found in the original search query, not included in the new sample</t>
+  </si>
+  <si>
+    <t>Mistake during the original selection</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Misaligned query hit</t>
+  </si>
+  <si>
+    <t>No financial incentives</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Unmeasurable performance; New</t>
+  </si>
+  <si>
+    <t>A theoretical paper; New</t>
+  </si>
+  <si>
+    <t>Irrelevant to the topic</t>
+  </si>
+  <si>
+    <t>Irrelevant focus</t>
+  </si>
+  <si>
+    <t>No collectible data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2578,8 +2614,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2670,6 +2720,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2689,11 +2751,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2726,16 +2789,20 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3025,8 +3092,8 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3091,7 +3158,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
@@ -3118,9 +3185,11 @@
         <v>23</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
@@ -3145,9 +3214,11 @@
         <v>46</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>829</v>
+      </c>
       <c r="I4" s="9" t="s">
         <v>47</v>
       </c>
@@ -3172,7 +3243,7 @@
         <v>49</v>
       </c>
       <c r="G5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>809</v>
@@ -3201,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="9" t="s">
@@ -3228,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="9" t="s">
@@ -3255,9 +3326,11 @@
         <v>6</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>809</v>
+      </c>
       <c r="I8" s="9" t="s">
         <v>56</v>
       </c>
@@ -3282,9 +3355,11 @@
         <v>9</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>809</v>
+      </c>
       <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
@@ -3309,9 +3384,11 @@
         <v>19</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>826</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>59</v>
       </c>
@@ -3336,9 +3413,11 @@
         <v>4</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>827</v>
+      </c>
       <c r="I11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3363,9 +3442,11 @@
         <v>7</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>827</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>63</v>
       </c>
@@ -3390,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="9" t="s">
@@ -3417,9 +3498,11 @@
         <v>67</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9" t="s">
@@ -3471,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="9" t="s">
@@ -3498,9 +3581,11 @@
         <v>13</v>
       </c>
       <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I17" s="9" t="s">
         <v>74</v>
       </c>
@@ -3525,9 +3610,11 @@
         <v>15</v>
       </c>
       <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I18" s="9" t="s">
         <v>76</v>
       </c>
@@ -3552,9 +3639,11 @@
         <v>17</v>
       </c>
       <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I19" s="9" t="s">
         <v>78</v>
       </c>
@@ -3579,9 +3668,11 @@
         <v>81</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
@@ -3606,9 +3697,11 @@
         <v>14</v>
       </c>
       <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I21" s="9" t="s">
         <v>84</v>
       </c>
@@ -3633,9 +3726,11 @@
         <v>19</v>
       </c>
       <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>826</v>
+      </c>
       <c r="I22" s="9" t="s">
         <v>86</v>
       </c>
@@ -3660,9 +3755,11 @@
         <v>88</v>
       </c>
       <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>826</v>
+      </c>
       <c r="I23" s="9" t="s">
         <v>89</v>
       </c>
@@ -3687,7 +3784,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="9" t="s">
@@ -3714,9 +3811,11 @@
         <v>94</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>831</v>
+      </c>
       <c r="I25" s="9" t="s">
         <v>95</v>
       </c>
@@ -3741,9 +3840,11 @@
         <v>21</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="I26" s="9" t="s">
         <v>97</v>
       </c>
@@ -3768,9 +3869,11 @@
         <v>12</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>832</v>
+      </c>
       <c r="I27" s="9" t="s">
         <v>99</v>
       </c>
@@ -3795,9 +3898,11 @@
         <v>18</v>
       </c>
       <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>833</v>
+      </c>
       <c r="I28" s="9" t="s">
         <v>101</v>
       </c>
@@ -3822,9 +3927,11 @@
         <v>16</v>
       </c>
       <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>833</v>
+      </c>
       <c r="I29" s="9" t="s">
         <v>103</v>
       </c>
@@ -3849,9 +3956,11 @@
         <v>11</v>
       </c>
       <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>809</v>
+      </c>
       <c r="I30" s="9" t="s">
         <v>105</v>
       </c>
@@ -3876,9 +3985,11 @@
         <v>20</v>
       </c>
       <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>809</v>
+      </c>
       <c r="I31" s="9" t="s">
         <v>107</v>
       </c>
@@ -3903,9 +4014,11 @@
         <v>109</v>
       </c>
       <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>832</v>
+      </c>
       <c r="I32" s="9" t="s">
         <v>110</v>
       </c>
@@ -3930,7 +4043,7 @@
         <v>112</v>
       </c>
       <c r="G33" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9" t="s">
@@ -3957,9 +4070,11 @@
         <v>116</v>
       </c>
       <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>832</v>
+      </c>
       <c r="I34" s="9" t="s">
         <v>117</v>
       </c>
@@ -10207,13 +10322,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CCFCCB-8546-F94C-8848-7B181B7F20C3}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Studies!G:G, E11)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="32"/>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Studies!G:G, E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="32"/>
+      <c r="E13" s="24">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Studies!G:G, E13)</f>
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="32"/>
+      <c r="E14" s="25">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(Studies!G:G, E14)</f>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="32"/>
+      <c r="E15" s="30">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(Studies!G:G, E15)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="32"/>
+      <c r="E16" s="29">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Studies!G:G, E16)</f>
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="E17" s="18">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(Studies!G:G, E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="E18" s="19">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(Studies!G:G, E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="28"/>
+      <c r="E19" s="20">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF(Studies!G:G, E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(Studies!G:G, E20)</f>
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" t="s">
+        <v>825</v>
+      </c>
+      <c r="E22" s="31">
+        <f>SUM(F11:F19)/(F20+SUM(F11:F19))</f>
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFAFB47-306A-E946-B821-EFD954047C06}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -11213,178 +11536,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CCFCCB-8546-F94C-8848-7B181B7F20C3}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>COUNTIF(Studies!G:G, E11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="28"/>
-      <c r="E12" s="14">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <f>COUNTIF(Studies!G:G, E12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="28"/>
-      <c r="E13" s="24">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <f>COUNTIF(Studies!G:G, E13)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14" s="28"/>
-      <c r="E14" s="25">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f>COUNTIF(Studies!G:G, E14)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="15" t="s">
-        <v>798</v>
-      </c>
-      <c r="E15" s="18">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <f>COUNTIF(Studies!G:G, E15)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="E16" s="19">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <f>COUNTIF(Studies!G:G, E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="29"/>
-      <c r="E17" s="20">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <f>COUNTIF(Studies!G:G, E17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f>COUNTIF(Studies!G:G, E18)</f>
-        <v>263</v>
-      </c>
-      <c r="G18" t="s">
-        <v>805</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D16:D17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE755D-7DF4-DB47-91C4-909FD64056DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FEF95F-DC5E-5143-94D7-7425B3821824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3092,7 +3092,7 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="125" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FEF95F-DC5E-5143-94D7-7425B3821824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C36500E-9513-3140-A65D-4A449B21C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55120" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="848">
   <si>
     <t>Journal</t>
   </si>
@@ -2540,13 +2540,55 @@
   </si>
   <si>
     <t>No collectible data</t>
+  </si>
+  <si>
+    <t>Mistakes during bachelor search:</t>
+  </si>
+  <si>
+    <t>New papers:</t>
+  </si>
+  <si>
+    <t>Missing:</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (satisfation)</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (pay) &lt;- reversed</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (referral)</t>
+  </si>
+  <si>
+    <t>Theoretical paper</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (attention)</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (fairness)</t>
+  </si>
+  <si>
+    <t>Invalid setup (compensation as the dependent variable)</t>
+  </si>
+  <si>
+    <t>Irrelevant new papers:</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Total papers:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2594,12 +2636,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2624,6 +2660,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2754,9 +2803,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2767,7 +2816,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2784,20 +2832,23 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3092,8 +3143,8 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3102,43 +3153,43 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="34" customWidth="1"/>
     <col min="9" max="9" width="190.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="16" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="16" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3157,15 +3208,15 @@
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="32">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3184,17 +3235,17 @@
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="32">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3213,17 +3264,17 @@
       <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="32">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="32" t="s">
         <v>829</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3242,17 +3293,17 @@
       <c r="F5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="32">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="32" t="s">
         <v>809</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3271,15 +3322,15 @@
       <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3298,15 +3349,15 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="32">
         <v>4</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3325,17 +3376,17 @@
       <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="32">
         <v>4</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="32" t="s">
         <v>809</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3354,17 +3405,17 @@
       <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="32" t="s">
         <v>809</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3383,17 +3434,17 @@
       <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="32">
         <v>4</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="32" t="s">
         <v>826</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3412,17 +3463,17 @@
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="32">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="32" t="s">
         <v>827</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3441,17 +3492,17 @@
       <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="32">
         <v>4</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="32" t="s">
         <v>827</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3470,15 +3521,15 @@
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="32">
         <v>1</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3497,17 +3548,17 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="32">
         <v>5</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="32" t="s">
         <v>828</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3526,15 +3577,15 @@
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="32">
         <v>1</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3553,15 +3604,15 @@
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="32">
         <v>1</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16">
+    <row r="17" spans="1:9">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3580,17 +3631,17 @@
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="32">
         <v>3</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16">
+    <row r="18" spans="1:9">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3609,17 +3660,17 @@
       <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="32">
         <v>3</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16">
+    <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3638,17 +3689,17 @@
       <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="32">
         <v>3</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16">
+    <row r="20" spans="1:9">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -3667,17 +3718,17 @@
       <c r="F20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="32">
         <v>6</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="32" t="s">
         <v>830</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16">
+    <row r="21" spans="1:9">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3696,17 +3747,17 @@
       <c r="F21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="32">
         <v>3</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:9">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3725,17 +3776,17 @@
       <c r="F22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="32">
         <v>4</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="32" t="s">
         <v>826</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16">
+    <row r="23" spans="1:9">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3754,17 +3805,17 @@
       <c r="F23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="32">
         <v>6</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="32" t="s">
         <v>826</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16">
+    <row r="24" spans="1:9">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -3783,15 +3834,15 @@
       <c r="F24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="32">
         <v>5</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:9">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -3810,17 +3861,17 @@
       <c r="F25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="32">
         <v>6</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="32" t="s">
         <v>831</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16">
+    <row r="26" spans="1:9">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3839,17 +3890,17 @@
       <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="32">
         <v>3</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="32" t="s">
         <v>824</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:9">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -3868,17 +3919,17 @@
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="32">
         <v>6</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="32" t="s">
         <v>832</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:9">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3897,17 +3948,17 @@
       <c r="F28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="32">
         <v>4</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="32" t="s">
         <v>833</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16">
+    <row r="29" spans="1:9">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -3926,17 +3977,17 @@
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="32">
         <v>4</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="32" t="s">
         <v>833</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16">
+    <row r="30" spans="1:9">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3955,17 +4006,17 @@
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="32">
         <v>6</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="32" t="s">
         <v>809</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16">
+    <row r="31" spans="1:9">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3984,17 +4035,17 @@
       <c r="F31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="32">
         <v>4</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="32" t="s">
         <v>809</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:9">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -4013,17 +4064,17 @@
       <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="32">
         <v>6</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="32" t="s">
         <v>832</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16">
+    <row r="33" spans="1:9">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -4042,15 +4093,15 @@
       <c r="F33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="32">
         <v>5</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16">
+    <row r="34" spans="1:9">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -4069,17 +4120,17 @@
       <c r="F34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="32">
         <v>6</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="32" t="s">
         <v>832</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16">
+    <row r="35" spans="1:9">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -4098,15 +4149,17 @@
       <c r="F35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10"/>
+      <c r="G35" s="32">
+        <v>6</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="I35" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16">
+    <row r="36" spans="1:9">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -4125,15 +4178,17 @@
       <c r="F36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10"/>
+      <c r="G36" s="32">
+        <v>4</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>827</v>
+      </c>
       <c r="I36" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16">
+    <row r="37" spans="1:9">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -4152,15 +4207,17 @@
       <c r="F37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10"/>
+      <c r="G37" s="32">
+        <v>4</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="I37" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16">
+    <row r="38" spans="1:9">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -4179,15 +4236,17 @@
       <c r="F38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10"/>
+      <c r="G38" s="32">
+        <v>4</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="I38" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16">
+    <row r="39" spans="1:9">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -4206,15 +4265,17 @@
       <c r="F39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10"/>
+      <c r="G39" s="32">
+        <v>6</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>839</v>
+      </c>
       <c r="I39" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16">
+    <row r="40" spans="1:9">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -4233,15 +4294,17 @@
       <c r="F40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10"/>
+      <c r="G40" s="32">
+        <v>3</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>824</v>
+      </c>
       <c r="I40" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16">
+    <row r="41" spans="1:9">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -4260,15 +4323,17 @@
       <c r="F41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="G41" s="32">
+        <v>3</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>824</v>
+      </c>
       <c r="I41" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16">
+    <row r="42" spans="1:9">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -4287,15 +4352,17 @@
       <c r="F42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10"/>
+      <c r="G42" s="32">
+        <v>4</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="I42" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16">
+    <row r="43" spans="1:9">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -4314,15 +4381,17 @@
       <c r="F43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10"/>
+      <c r="G43" s="32">
+        <v>5</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="I43" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16">
+    <row r="44" spans="1:9">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -4341,15 +4410,17 @@
       <c r="F44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="G44" s="32">
+        <v>6</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>840</v>
+      </c>
       <c r="I44" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16">
+    <row r="45" spans="1:9">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -4368,15 +4439,17 @@
       <c r="F45" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10"/>
+      <c r="G45" s="32">
+        <v>6</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I45" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16">
+    <row r="46" spans="1:9">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -4395,15 +4468,17 @@
       <c r="F46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10"/>
+      <c r="G46" s="32">
+        <v>6</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>842</v>
+      </c>
       <c r="I46" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16">
+    <row r="47" spans="1:9">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -4422,15 +4497,17 @@
       <c r="F47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10"/>
+      <c r="G47" s="32">
+        <v>6</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="I47" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16">
+    <row r="48" spans="1:9">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -4449,15 +4526,17 @@
       <c r="F48" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10"/>
+      <c r="G48" s="32">
+        <v>4</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I48" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16">
+    <row r="49" spans="1:9">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -4476,15 +4555,17 @@
       <c r="F49" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10"/>
+      <c r="G49" s="32">
+        <v>4</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I49" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16">
+    <row r="50" spans="1:9">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -4503,15 +4584,17 @@
       <c r="F50" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10"/>
+      <c r="G50" s="32">
+        <v>5</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="I50" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16">
+    <row r="51" spans="1:9">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -4530,15 +4613,17 @@
       <c r="F51" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10"/>
+      <c r="G51" s="32">
+        <v>4</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>837</v>
+      </c>
       <c r="I51" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16">
+    <row r="52" spans="1:9">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -4557,15 +4642,17 @@
       <c r="F52" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10"/>
+      <c r="G52" s="32">
+        <v>6</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I52" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16">
+    <row r="53" spans="1:9">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -4584,15 +4671,17 @@
       <c r="F53" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10"/>
+      <c r="G53" s="32">
+        <v>6</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I53" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16">
+    <row r="54" spans="1:9">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -4611,15 +4700,17 @@
       <c r="F54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10"/>
+      <c r="G54" s="32">
+        <v>6</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I54" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16">
+    <row r="55" spans="1:9">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -4638,15 +4729,17 @@
       <c r="F55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="10">
-        <v>0</v>
-      </c>
-      <c r="H55" s="10"/>
+      <c r="G55" s="32">
+        <v>6</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I55" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16">
+    <row r="56" spans="1:9">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -4665,15 +4758,17 @@
       <c r="F56" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10"/>
+      <c r="G56" s="32">
+        <v>4</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I56" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16">
+    <row r="57" spans="1:9">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -4692,15 +4787,17 @@
       <c r="F57" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="10">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10"/>
+      <c r="G57" s="32">
+        <v>6</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I57" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16">
+    <row r="58" spans="1:9">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -4719,15 +4816,17 @@
       <c r="F58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10"/>
+      <c r="G58" s="32">
+        <v>4</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I58" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16">
+    <row r="59" spans="1:9">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -4746,15 +4845,17 @@
       <c r="F59" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10"/>
+      <c r="G59" s="32">
+        <v>4</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I59" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16">
+    <row r="60" spans="1:9">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -4773,15 +4874,17 @@
       <c r="F60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10"/>
+      <c r="G60" s="32">
+        <v>4</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I60" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16">
+    <row r="61" spans="1:9">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -4800,15 +4903,17 @@
       <c r="F61" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" s="10"/>
+      <c r="G61" s="32">
+        <v>4</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I61" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16">
+    <row r="62" spans="1:9">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -4827,15 +4932,17 @@
       <c r="F62" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10"/>
+      <c r="G62" s="32">
+        <v>4</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I62" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16">
+    <row r="63" spans="1:9">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -4854,15 +4961,17 @@
       <c r="F63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10"/>
+      <c r="G63" s="32">
+        <v>4</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I63" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16">
+    <row r="64" spans="1:9">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -4881,15 +4990,17 @@
       <c r="F64" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10"/>
+      <c r="G64" s="32">
+        <v>4</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I64" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16">
+    <row r="65" spans="1:9">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -4908,15 +5019,17 @@
       <c r="F65" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10"/>
+      <c r="G65" s="32">
+        <v>4</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I65" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16">
+    <row r="66" spans="1:9">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -4935,15 +5048,17 @@
       <c r="F66" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10"/>
+      <c r="G66" s="32">
+        <v>4</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>831</v>
+      </c>
       <c r="I66" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16">
+    <row r="67" spans="1:9">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -4962,15 +5077,17 @@
       <c r="F67" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10"/>
+      <c r="G67" s="32">
+        <v>6</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>843</v>
+      </c>
       <c r="I67" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16">
+    <row r="68" spans="1:9">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -4989,15 +5106,17 @@
       <c r="F68" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10"/>
+      <c r="G68" s="32">
+        <v>6</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>831</v>
+      </c>
       <c r="I68" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16">
+    <row r="69" spans="1:9">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -5016,15 +5135,17 @@
       <c r="F69" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10"/>
+      <c r="G69" s="32">
+        <v>6</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>844</v>
+      </c>
       <c r="I69" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16">
+    <row r="70" spans="1:9">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -5043,15 +5164,17 @@
       <c r="F70" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="G70" s="32">
+        <v>4</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I70" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16">
+    <row r="71" spans="1:9">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -5070,15 +5193,17 @@
       <c r="F71" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="10">
-        <v>0</v>
-      </c>
-      <c r="H71" s="10"/>
+      <c r="G71" s="32">
+        <v>4</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I71" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16">
+    <row r="72" spans="1:9">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -5097,15 +5222,17 @@
       <c r="F72" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
-      <c r="H72" s="10"/>
+      <c r="G72" s="32">
+        <v>4</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I72" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16">
+    <row r="73" spans="1:9">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -5124,15 +5251,17 @@
       <c r="F73" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10"/>
+      <c r="G73" s="32">
+        <v>4</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I73" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16">
+    <row r="74" spans="1:9">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -5151,15 +5280,17 @@
       <c r="F74" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10"/>
+      <c r="G74" s="32">
+        <v>4</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="I74" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16">
+    <row r="75" spans="1:9">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -5178,15 +5309,17 @@
       <c r="F75" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10"/>
+      <c r="G75" s="32">
+        <v>4</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I75" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16">
+    <row r="76" spans="1:9">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -5205,15 +5338,17 @@
       <c r="F76" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10"/>
+      <c r="G76" s="32">
+        <v>4</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I76" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16">
+    <row r="77" spans="1:9">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -5232,15 +5367,17 @@
       <c r="F77" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10"/>
+      <c r="G77" s="32">
+        <v>4</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I77" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16">
+    <row r="78" spans="1:9">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -5259,15 +5396,17 @@
       <c r="F78" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10"/>
+      <c r="G78" s="32">
+        <v>4</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I78" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16">
+    <row r="79" spans="1:9">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -5286,15 +5425,17 @@
       <c r="F79" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10"/>
+      <c r="G79" s="32">
+        <v>5</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="I79" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16">
+    <row r="80" spans="1:9">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -5313,15 +5454,17 @@
       <c r="F80" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10"/>
+      <c r="G80" s="32">
+        <v>3</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>824</v>
+      </c>
       <c r="I80" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16">
+    <row r="81" spans="1:9">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -5340,15 +5483,17 @@
       <c r="F81" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10"/>
+      <c r="G81" s="32">
+        <v>4</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I81" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16">
+    <row r="82" spans="1:9">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -5367,15 +5512,17 @@
       <c r="F82" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="10">
-        <v>0</v>
-      </c>
-      <c r="H82" s="10"/>
+      <c r="G82" s="32">
+        <v>5</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="I82" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16">
+    <row r="83" spans="1:9">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -5394,15 +5541,17 @@
       <c r="F83" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
-      <c r="H83" s="10"/>
+      <c r="G83" s="32">
+        <v>4</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I83" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16">
+    <row r="84" spans="1:9">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -5421,15 +5570,17 @@
       <c r="F84" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="10">
-        <v>0</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="G84" s="32">
+        <v>6</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I84" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16">
+    <row r="85" spans="1:9">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -5448,15 +5599,17 @@
       <c r="F85" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G85" s="10">
-        <v>0</v>
-      </c>
-      <c r="H85" s="10"/>
+      <c r="G85" s="32">
+        <v>4</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>841</v>
+      </c>
       <c r="I85" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16">
+    <row r="86" spans="1:9">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -5475,15 +5628,15 @@
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="10">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10"/>
+      <c r="G86" s="32">
+        <v>0</v>
+      </c>
+      <c r="H86" s="32"/>
       <c r="I86" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16">
+    <row r="87" spans="1:9">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -5502,15 +5655,15 @@
       <c r="F87" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="10">
-        <v>0</v>
-      </c>
-      <c r="H87" s="10"/>
+      <c r="G87" s="32">
+        <v>0</v>
+      </c>
+      <c r="H87" s="32"/>
       <c r="I87" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16">
+    <row r="88" spans="1:9">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -5529,15 +5682,15 @@
       <c r="F88" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="10">
-        <v>0</v>
-      </c>
-      <c r="H88" s="10"/>
+      <c r="G88" s="32">
+        <v>0</v>
+      </c>
+      <c r="H88" s="32"/>
       <c r="I88" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16">
+    <row r="89" spans="1:9">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -5556,15 +5709,15 @@
       <c r="F89" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G89" s="10">
-        <v>0</v>
-      </c>
-      <c r="H89" s="10"/>
+      <c r="G89" s="32">
+        <v>0</v>
+      </c>
+      <c r="H89" s="32"/>
       <c r="I89" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16">
+    <row r="90" spans="1:9">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -5583,15 +5736,15 @@
       <c r="F90" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G90" s="10">
-        <v>0</v>
-      </c>
-      <c r="H90" s="10"/>
+      <c r="G90" s="32">
+        <v>0</v>
+      </c>
+      <c r="H90" s="32"/>
       <c r="I90" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16">
+    <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -5610,15 +5763,15 @@
       <c r="F91" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G91" s="10">
-        <v>0</v>
-      </c>
-      <c r="H91" s="10"/>
+      <c r="G91" s="32">
+        <v>0</v>
+      </c>
+      <c r="H91" s="32"/>
       <c r="I91" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16">
+    <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -5637,15 +5790,15 @@
       <c r="F92" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G92" s="10">
-        <v>0</v>
-      </c>
-      <c r="H92" s="10"/>
+      <c r="G92" s="32">
+        <v>0</v>
+      </c>
+      <c r="H92" s="32"/>
       <c r="I92" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16">
+    <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -5664,15 +5817,15 @@
       <c r="F93" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="10">
-        <v>0</v>
-      </c>
-      <c r="H93" s="10"/>
+      <c r="G93" s="32">
+        <v>0</v>
+      </c>
+      <c r="H93" s="32"/>
       <c r="I93" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16">
+    <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -5691,15 +5844,15 @@
       <c r="F94" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G94" s="10">
-        <v>0</v>
-      </c>
-      <c r="H94" s="10"/>
+      <c r="G94" s="32">
+        <v>0</v>
+      </c>
+      <c r="H94" s="32"/>
       <c r="I94" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16">
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -5718,15 +5871,15 @@
       <c r="F95" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G95" s="10">
-        <v>0</v>
-      </c>
-      <c r="H95" s="10"/>
+      <c r="G95" s="32">
+        <v>0</v>
+      </c>
+      <c r="H95" s="32"/>
       <c r="I95" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16">
+    <row r="96" spans="1:9">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -5745,15 +5898,15 @@
       <c r="F96" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G96" s="10">
-        <v>0</v>
-      </c>
-      <c r="H96" s="10"/>
+      <c r="G96" s="32">
+        <v>0</v>
+      </c>
+      <c r="H96" s="32"/>
       <c r="I96" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16">
+    <row r="97" spans="1:9">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -5772,15 +5925,15 @@
       <c r="F97" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G97" s="10">
-        <v>0</v>
-      </c>
-      <c r="H97" s="10"/>
+      <c r="G97" s="32">
+        <v>0</v>
+      </c>
+      <c r="H97" s="32"/>
       <c r="I97" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16">
+    <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -5799,15 +5952,15 @@
       <c r="F98" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G98" s="10">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10"/>
+      <c r="G98" s="32">
+        <v>0</v>
+      </c>
+      <c r="H98" s="32"/>
       <c r="I98" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16">
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -5826,15 +5979,15 @@
       <c r="F99" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G99" s="10">
-        <v>0</v>
-      </c>
-      <c r="H99" s="10"/>
+      <c r="G99" s="32">
+        <v>0</v>
+      </c>
+      <c r="H99" s="32"/>
       <c r="I99" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -5853,15 +6006,15 @@
       <c r="F100" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G100" s="10">
-        <v>0</v>
-      </c>
-      <c r="H100" s="10"/>
+      <c r="G100" s="32">
+        <v>0</v>
+      </c>
+      <c r="H100" s="32"/>
       <c r="I100" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16">
+    <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -5880,15 +6033,15 @@
       <c r="F101" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G101" s="10">
-        <v>0</v>
-      </c>
-      <c r="H101" s="10"/>
+      <c r="G101" s="32">
+        <v>0</v>
+      </c>
+      <c r="H101" s="32"/>
       <c r="I101" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16">
+    <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -5907,15 +6060,15 @@
       <c r="F102" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G102" s="10">
-        <v>0</v>
-      </c>
-      <c r="H102" s="10"/>
+      <c r="G102" s="32">
+        <v>0</v>
+      </c>
+      <c r="H102" s="32"/>
       <c r="I102" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16">
+    <row r="103" spans="1:9">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -5934,15 +6087,15 @@
       <c r="F103" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G103" s="10">
-        <v>0</v>
-      </c>
-      <c r="H103" s="10"/>
+      <c r="G103" s="32">
+        <v>0</v>
+      </c>
+      <c r="H103" s="32"/>
       <c r="I103" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16">
+    <row r="104" spans="1:9">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -5961,15 +6114,15 @@
       <c r="F104" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G104" s="10">
-        <v>0</v>
-      </c>
-      <c r="H104" s="10"/>
+      <c r="G104" s="32">
+        <v>0</v>
+      </c>
+      <c r="H104" s="32"/>
       <c r="I104" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16">
+    <row r="105" spans="1:9">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -5988,15 +6141,15 @@
       <c r="F105" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G105" s="10">
-        <v>0</v>
-      </c>
-      <c r="H105" s="10"/>
+      <c r="G105" s="32">
+        <v>0</v>
+      </c>
+      <c r="H105" s="32"/>
       <c r="I105" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16">
+    <row r="106" spans="1:9">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -6015,15 +6168,15 @@
       <c r="F106" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G106" s="10">
-        <v>0</v>
-      </c>
-      <c r="H106" s="10"/>
+      <c r="G106" s="32">
+        <v>0</v>
+      </c>
+      <c r="H106" s="32"/>
       <c r="I106" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16">
+    <row r="107" spans="1:9">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -6042,15 +6195,15 @@
       <c r="F107" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G107" s="10">
-        <v>0</v>
-      </c>
-      <c r="H107" s="10"/>
+      <c r="G107" s="32">
+        <v>0</v>
+      </c>
+      <c r="H107" s="32"/>
       <c r="I107" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16">
+    <row r="108" spans="1:9">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -6069,15 +6222,15 @@
       <c r="F108" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G108" s="10">
-        <v>0</v>
-      </c>
-      <c r="H108" s="10"/>
+      <c r="G108" s="32">
+        <v>0</v>
+      </c>
+      <c r="H108" s="32"/>
       <c r="I108" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16">
+    <row r="109" spans="1:9">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -6096,15 +6249,15 @@
       <c r="F109" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G109" s="10">
-        <v>0</v>
-      </c>
-      <c r="H109" s="10"/>
+      <c r="G109" s="32">
+        <v>0</v>
+      </c>
+      <c r="H109" s="32"/>
       <c r="I109" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16">
+    <row r="110" spans="1:9">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -6123,15 +6276,15 @@
       <c r="F110" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G110" s="10">
-        <v>0</v>
-      </c>
-      <c r="H110" s="10"/>
+      <c r="G110" s="32">
+        <v>0</v>
+      </c>
+      <c r="H110" s="32"/>
       <c r="I110" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16">
+    <row r="111" spans="1:9">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -6150,15 +6303,15 @@
       <c r="F111" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G111" s="10">
-        <v>0</v>
-      </c>
-      <c r="H111" s="10"/>
+      <c r="G111" s="32">
+        <v>0</v>
+      </c>
+      <c r="H111" s="32"/>
       <c r="I111" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16">
+    <row r="112" spans="1:9">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -6177,15 +6330,15 @@
       <c r="F112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G112" s="10">
-        <v>0</v>
-      </c>
-      <c r="H112" s="10"/>
+      <c r="G112" s="32">
+        <v>0</v>
+      </c>
+      <c r="H112" s="32"/>
       <c r="I112" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16">
+    <row r="113" spans="1:9">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -6204,15 +6357,15 @@
       <c r="F113" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G113" s="10">
-        <v>0</v>
-      </c>
-      <c r="H113" s="10"/>
+      <c r="G113" s="32">
+        <v>0</v>
+      </c>
+      <c r="H113" s="32"/>
       <c r="I113" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16">
+    <row r="114" spans="1:9">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -6231,15 +6384,15 @@
       <c r="F114" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="G114" s="10">
-        <v>0</v>
-      </c>
-      <c r="H114" s="10"/>
+      <c r="G114" s="32">
+        <v>0</v>
+      </c>
+      <c r="H114" s="32"/>
       <c r="I114" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16">
+    <row r="115" spans="1:9">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -6258,15 +6411,15 @@
       <c r="F115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G115" s="10">
-        <v>0</v>
-      </c>
-      <c r="H115" s="10"/>
+      <c r="G115" s="32">
+        <v>0</v>
+      </c>
+      <c r="H115" s="32"/>
       <c r="I115" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16">
+    <row r="116" spans="1:9">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -6285,15 +6438,15 @@
       <c r="F116" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="G116" s="10">
-        <v>0</v>
-      </c>
-      <c r="H116" s="10"/>
+      <c r="G116" s="32">
+        <v>0</v>
+      </c>
+      <c r="H116" s="32"/>
       <c r="I116" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16">
+    <row r="117" spans="1:9">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -6312,15 +6465,15 @@
       <c r="F117" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="10">
-        <v>0</v>
-      </c>
-      <c r="H117" s="10"/>
+      <c r="G117" s="32">
+        <v>0</v>
+      </c>
+      <c r="H117" s="32"/>
       <c r="I117" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16">
+    <row r="118" spans="1:9">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -6339,15 +6492,15 @@
       <c r="F118" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="G118" s="10">
-        <v>0</v>
-      </c>
-      <c r="H118" s="10"/>
+      <c r="G118" s="32">
+        <v>0</v>
+      </c>
+      <c r="H118" s="32"/>
       <c r="I118" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16">
+    <row r="119" spans="1:9">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -6366,15 +6519,15 @@
       <c r="F119" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="G119" s="10">
-        <v>0</v>
-      </c>
-      <c r="H119" s="10"/>
+      <c r="G119" s="32">
+        <v>0</v>
+      </c>
+      <c r="H119" s="32"/>
       <c r="I119" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16">
+    <row r="120" spans="1:9">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -6393,15 +6546,15 @@
       <c r="F120" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G120" s="10">
-        <v>0</v>
-      </c>
-      <c r="H120" s="10"/>
+      <c r="G120" s="32">
+        <v>0</v>
+      </c>
+      <c r="H120" s="32"/>
       <c r="I120" s="9" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16">
+    <row r="121" spans="1:9">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -6420,15 +6573,15 @@
       <c r="F121" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G121" s="10">
-        <v>0</v>
-      </c>
-      <c r="H121" s="10"/>
+      <c r="G121" s="32">
+        <v>0</v>
+      </c>
+      <c r="H121" s="32"/>
       <c r="I121" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16">
+    <row r="122" spans="1:9">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -6447,15 +6600,15 @@
       <c r="F122" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G122" s="10">
-        <v>0</v>
-      </c>
-      <c r="H122" s="10"/>
+      <c r="G122" s="32">
+        <v>0</v>
+      </c>
+      <c r="H122" s="32"/>
       <c r="I122" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16">
+    <row r="123" spans="1:9">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -6474,15 +6627,15 @@
       <c r="F123" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G123" s="10">
-        <v>0</v>
-      </c>
-      <c r="H123" s="10"/>
+      <c r="G123" s="32">
+        <v>0</v>
+      </c>
+      <c r="H123" s="32"/>
       <c r="I123" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16">
+    <row r="124" spans="1:9">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -6501,15 +6654,15 @@
       <c r="F124" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G124" s="10">
-        <v>0</v>
-      </c>
-      <c r="H124" s="10"/>
+      <c r="G124" s="32">
+        <v>0</v>
+      </c>
+      <c r="H124" s="32"/>
       <c r="I124" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16">
+    <row r="125" spans="1:9">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -6528,15 +6681,15 @@
       <c r="F125" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G125" s="10">
-        <v>0</v>
-      </c>
-      <c r="H125" s="10"/>
+      <c r="G125" s="32">
+        <v>0</v>
+      </c>
+      <c r="H125" s="32"/>
       <c r="I125" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16">
+    <row r="126" spans="1:9">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -6555,15 +6708,15 @@
       <c r="F126" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G126" s="10">
-        <v>0</v>
-      </c>
-      <c r="H126" s="10"/>
+      <c r="G126" s="32">
+        <v>0</v>
+      </c>
+      <c r="H126" s="32"/>
       <c r="I126" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16">
+    <row r="127" spans="1:9">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -6582,15 +6735,15 @@
       <c r="F127" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G127" s="10">
-        <v>0</v>
-      </c>
-      <c r="H127" s="10"/>
+      <c r="G127" s="32">
+        <v>0</v>
+      </c>
+      <c r="H127" s="32"/>
       <c r="I127" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16">
+    <row r="128" spans="1:9">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -6609,15 +6762,15 @@
       <c r="F128" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G128" s="10">
-        <v>0</v>
-      </c>
-      <c r="H128" s="10"/>
+      <c r="G128" s="32">
+        <v>0</v>
+      </c>
+      <c r="H128" s="32"/>
       <c r="I128" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16">
+    <row r="129" spans="1:9">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -6636,15 +6789,15 @@
       <c r="F129" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G129" s="10">
-        <v>0</v>
-      </c>
-      <c r="H129" s="10"/>
+      <c r="G129" s="32">
+        <v>0</v>
+      </c>
+      <c r="H129" s="32"/>
       <c r="I129" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16">
+    <row r="130" spans="1:9">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -6663,15 +6816,15 @@
       <c r="F130" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G130" s="10">
-        <v>0</v>
-      </c>
-      <c r="H130" s="10"/>
+      <c r="G130" s="32">
+        <v>0</v>
+      </c>
+      <c r="H130" s="32"/>
       <c r="I130" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16">
+    <row r="131" spans="1:9">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -6690,15 +6843,15 @@
       <c r="F131" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G131" s="10">
-        <v>0</v>
-      </c>
-      <c r="H131" s="10"/>
+      <c r="G131" s="32">
+        <v>0</v>
+      </c>
+      <c r="H131" s="32"/>
       <c r="I131" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16">
+    <row r="132" spans="1:9">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -6717,15 +6870,15 @@
       <c r="F132" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G132" s="10">
-        <v>0</v>
-      </c>
-      <c r="H132" s="10"/>
+      <c r="G132" s="32">
+        <v>0</v>
+      </c>
+      <c r="H132" s="32"/>
       <c r="I132" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16">
+    <row r="133" spans="1:9">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -6744,15 +6897,15 @@
       <c r="F133" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G133" s="10">
-        <v>0</v>
-      </c>
-      <c r="H133" s="10"/>
+      <c r="G133" s="32">
+        <v>0</v>
+      </c>
+      <c r="H133" s="32"/>
       <c r="I133" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16">
+    <row r="134" spans="1:9">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -6771,15 +6924,15 @@
       <c r="F134" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G134" s="10">
-        <v>0</v>
-      </c>
-      <c r="H134" s="10"/>
+      <c r="G134" s="32">
+        <v>0</v>
+      </c>
+      <c r="H134" s="32"/>
       <c r="I134" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16">
+    <row r="135" spans="1:9">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -6798,15 +6951,15 @@
       <c r="F135" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="10">
-        <v>0</v>
-      </c>
-      <c r="H135" s="10"/>
+      <c r="G135" s="32">
+        <v>0</v>
+      </c>
+      <c r="H135" s="32"/>
       <c r="I135" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16">
+    <row r="136" spans="1:9">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -6825,15 +6978,15 @@
       <c r="F136" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G136" s="10">
-        <v>0</v>
-      </c>
-      <c r="H136" s="10"/>
+      <c r="G136" s="32">
+        <v>0</v>
+      </c>
+      <c r="H136" s="32"/>
       <c r="I136" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16">
+    <row r="137" spans="1:9">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -6852,15 +7005,15 @@
       <c r="F137" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G137" s="10">
-        <v>0</v>
-      </c>
-      <c r="H137" s="10"/>
+      <c r="G137" s="32">
+        <v>0</v>
+      </c>
+      <c r="H137" s="32"/>
       <c r="I137" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16">
+    <row r="138" spans="1:9">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -6879,15 +7032,15 @@
       <c r="F138" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G138" s="10">
-        <v>0</v>
-      </c>
-      <c r="H138" s="10"/>
+      <c r="G138" s="32">
+        <v>0</v>
+      </c>
+      <c r="H138" s="32"/>
       <c r="I138" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16">
+    <row r="139" spans="1:9">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -6906,15 +7059,15 @@
       <c r="F139" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G139" s="10">
-        <v>0</v>
-      </c>
-      <c r="H139" s="10"/>
+      <c r="G139" s="32">
+        <v>0</v>
+      </c>
+      <c r="H139" s="32"/>
       <c r="I139" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16">
+    <row r="140" spans="1:9">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -6933,15 +7086,15 @@
       <c r="F140" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G140" s="10">
-        <v>0</v>
-      </c>
-      <c r="H140" s="10"/>
+      <c r="G140" s="32">
+        <v>0</v>
+      </c>
+      <c r="H140" s="32"/>
       <c r="I140" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16">
+    <row r="141" spans="1:9">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -6960,15 +7113,15 @@
       <c r="F141" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G141" s="10">
-        <v>0</v>
-      </c>
-      <c r="H141" s="10"/>
+      <c r="G141" s="32">
+        <v>0</v>
+      </c>
+      <c r="H141" s="32"/>
       <c r="I141" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16">
+    <row r="142" spans="1:9">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -6987,15 +7140,15 @@
       <c r="F142" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="G142" s="10">
-        <v>0</v>
-      </c>
-      <c r="H142" s="10"/>
+      <c r="G142" s="32">
+        <v>0</v>
+      </c>
+      <c r="H142" s="32"/>
       <c r="I142" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16">
+    <row r="143" spans="1:9">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -7014,15 +7167,15 @@
       <c r="F143" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G143" s="10">
-        <v>0</v>
-      </c>
-      <c r="H143" s="10"/>
+      <c r="G143" s="32">
+        <v>0</v>
+      </c>
+      <c r="H143" s="32"/>
       <c r="I143" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16">
+    <row r="144" spans="1:9">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -7041,15 +7194,15 @@
       <c r="F144" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G144" s="10">
-        <v>0</v>
-      </c>
-      <c r="H144" s="10"/>
+      <c r="G144" s="32">
+        <v>0</v>
+      </c>
+      <c r="H144" s="32"/>
       <c r="I144" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16">
+    <row r="145" spans="1:9">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -7068,15 +7221,15 @@
       <c r="F145" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G145" s="10">
-        <v>0</v>
-      </c>
-      <c r="H145" s="10"/>
+      <c r="G145" s="32">
+        <v>0</v>
+      </c>
+      <c r="H145" s="32"/>
       <c r="I145" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16">
+    <row r="146" spans="1:9">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -7095,15 +7248,15 @@
       <c r="F146" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G146" s="10">
-        <v>0</v>
-      </c>
-      <c r="H146" s="10"/>
+      <c r="G146" s="32">
+        <v>0</v>
+      </c>
+      <c r="H146" s="32"/>
       <c r="I146" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16">
+    <row r="147" spans="1:9">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -7122,15 +7275,15 @@
       <c r="F147" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G147" s="10">
-        <v>0</v>
-      </c>
-      <c r="H147" s="10"/>
+      <c r="G147" s="32">
+        <v>0</v>
+      </c>
+      <c r="H147" s="32"/>
       <c r="I147" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16">
+    <row r="148" spans="1:9">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -7149,15 +7302,15 @@
       <c r="F148" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G148" s="10">
-        <v>0</v>
-      </c>
-      <c r="H148" s="10"/>
+      <c r="G148" s="32">
+        <v>0</v>
+      </c>
+      <c r="H148" s="32"/>
       <c r="I148" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16">
+    <row r="149" spans="1:9">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -7176,15 +7329,15 @@
       <c r="F149" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G149" s="10">
-        <v>0</v>
-      </c>
-      <c r="H149" s="10"/>
+      <c r="G149" s="32">
+        <v>0</v>
+      </c>
+      <c r="H149" s="32"/>
       <c r="I149" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16">
+    <row r="150" spans="1:9">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -7203,15 +7356,15 @@
       <c r="F150" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="G150" s="10">
-        <v>0</v>
-      </c>
-      <c r="H150" s="10"/>
+      <c r="G150" s="32">
+        <v>0</v>
+      </c>
+      <c r="H150" s="32"/>
       <c r="I150" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16">
+    <row r="151" spans="1:9">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -7230,15 +7383,15 @@
       <c r="F151" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G151" s="10">
-        <v>0</v>
-      </c>
-      <c r="H151" s="10"/>
+      <c r="G151" s="32">
+        <v>0</v>
+      </c>
+      <c r="H151" s="32"/>
       <c r="I151" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16">
+    <row r="152" spans="1:9">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -7257,15 +7410,15 @@
       <c r="F152" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G152" s="10">
-        <v>0</v>
-      </c>
-      <c r="H152" s="10"/>
+      <c r="G152" s="32">
+        <v>0</v>
+      </c>
+      <c r="H152" s="32"/>
       <c r="I152" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16">
+    <row r="153" spans="1:9">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -7284,15 +7437,15 @@
       <c r="F153" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G153" s="10">
-        <v>0</v>
-      </c>
-      <c r="H153" s="10"/>
+      <c r="G153" s="32">
+        <v>0</v>
+      </c>
+      <c r="H153" s="32"/>
       <c r="I153" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16">
+    <row r="154" spans="1:9">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -7311,15 +7464,15 @@
       <c r="F154" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G154" s="10">
-        <v>0</v>
-      </c>
-      <c r="H154" s="10"/>
+      <c r="G154" s="32">
+        <v>0</v>
+      </c>
+      <c r="H154" s="32"/>
       <c r="I154" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16">
+    <row r="155" spans="1:9">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -7338,15 +7491,15 @@
       <c r="F155" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="G155" s="10">
-        <v>0</v>
-      </c>
-      <c r="H155" s="10"/>
+      <c r="G155" s="32">
+        <v>0</v>
+      </c>
+      <c r="H155" s="32"/>
       <c r="I155" s="9" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16">
+    <row r="156" spans="1:9">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -7365,15 +7518,15 @@
       <c r="F156" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G156" s="10">
-        <v>0</v>
-      </c>
-      <c r="H156" s="10"/>
+      <c r="G156" s="32">
+        <v>0</v>
+      </c>
+      <c r="H156" s="32"/>
       <c r="I156" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16">
+    <row r="157" spans="1:9">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -7392,15 +7545,15 @@
       <c r="F157" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G157" s="10">
-        <v>0</v>
-      </c>
-      <c r="H157" s="10"/>
+      <c r="G157" s="32">
+        <v>0</v>
+      </c>
+      <c r="H157" s="32"/>
       <c r="I157" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16">
+    <row r="158" spans="1:9">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -7419,15 +7572,15 @@
       <c r="F158" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="G158" s="10">
-        <v>0</v>
-      </c>
-      <c r="H158" s="10"/>
+      <c r="G158" s="32">
+        <v>0</v>
+      </c>
+      <c r="H158" s="32"/>
       <c r="I158" s="9" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16">
+    <row r="159" spans="1:9">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -7446,15 +7599,15 @@
       <c r="F159" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G159" s="10">
-        <v>0</v>
-      </c>
-      <c r="H159" s="10"/>
+      <c r="G159" s="32">
+        <v>0</v>
+      </c>
+      <c r="H159" s="32"/>
       <c r="I159" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16">
+    <row r="160" spans="1:9">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -7473,15 +7626,15 @@
       <c r="F160" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G160" s="10">
-        <v>0</v>
-      </c>
-      <c r="H160" s="10"/>
+      <c r="G160" s="32">
+        <v>0</v>
+      </c>
+      <c r="H160" s="32"/>
       <c r="I160" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16">
+    <row r="161" spans="1:9">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -7500,15 +7653,15 @@
       <c r="F161" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="G161" s="10">
-        <v>0</v>
-      </c>
-      <c r="H161" s="10"/>
+      <c r="G161" s="32">
+        <v>0</v>
+      </c>
+      <c r="H161" s="32"/>
       <c r="I161" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16">
+    <row r="162" spans="1:9">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -7527,15 +7680,15 @@
       <c r="F162" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="G162" s="10">
-        <v>0</v>
-      </c>
-      <c r="H162" s="10"/>
+      <c r="G162" s="32">
+        <v>0</v>
+      </c>
+      <c r="H162" s="32"/>
       <c r="I162" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16">
+    <row r="163" spans="1:9">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -7554,15 +7707,15 @@
       <c r="F163" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="G163" s="10">
-        <v>0</v>
-      </c>
-      <c r="H163" s="10"/>
+      <c r="G163" s="32">
+        <v>0</v>
+      </c>
+      <c r="H163" s="32"/>
       <c r="I163" s="9" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16">
+    <row r="164" spans="1:9">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -7581,15 +7734,15 @@
       <c r="F164" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G164" s="10">
-        <v>0</v>
-      </c>
-      <c r="H164" s="10"/>
+      <c r="G164" s="32">
+        <v>0</v>
+      </c>
+      <c r="H164" s="32"/>
       <c r="I164" s="9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16">
+    <row r="165" spans="1:9">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -7608,15 +7761,15 @@
       <c r="F165" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="G165" s="10">
-        <v>0</v>
-      </c>
-      <c r="H165" s="10"/>
+      <c r="G165" s="32">
+        <v>0</v>
+      </c>
+      <c r="H165" s="32"/>
       <c r="I165" s="9" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16">
+    <row r="166" spans="1:9">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -7635,15 +7788,15 @@
       <c r="F166" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="G166" s="10">
-        <v>0</v>
-      </c>
-      <c r="H166" s="10"/>
+      <c r="G166" s="32">
+        <v>0</v>
+      </c>
+      <c r="H166" s="32"/>
       <c r="I166" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16">
+    <row r="167" spans="1:9">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -7662,15 +7815,15 @@
       <c r="F167" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="G167" s="10">
-        <v>0</v>
-      </c>
-      <c r="H167" s="10"/>
+      <c r="G167" s="32">
+        <v>0</v>
+      </c>
+      <c r="H167" s="32"/>
       <c r="I167" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16">
+    <row r="168" spans="1:9">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -7689,15 +7842,15 @@
       <c r="F168" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="G168" s="10">
-        <v>0</v>
-      </c>
-      <c r="H168" s="10"/>
+      <c r="G168" s="32">
+        <v>0</v>
+      </c>
+      <c r="H168" s="32"/>
       <c r="I168" s="9" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16">
+    <row r="169" spans="1:9">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -7716,15 +7869,15 @@
       <c r="F169" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G169" s="10">
-        <v>0</v>
-      </c>
-      <c r="H169" s="10"/>
+      <c r="G169" s="32">
+        <v>0</v>
+      </c>
+      <c r="H169" s="32"/>
       <c r="I169" s="9" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16">
+    <row r="170" spans="1:9">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -7743,15 +7896,15 @@
       <c r="F170" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="G170" s="10">
-        <v>0</v>
-      </c>
-      <c r="H170" s="10"/>
+      <c r="G170" s="32">
+        <v>0</v>
+      </c>
+      <c r="H170" s="32"/>
       <c r="I170" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16">
+    <row r="171" spans="1:9">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -7770,15 +7923,15 @@
       <c r="F171" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="G171" s="10">
-        <v>0</v>
-      </c>
-      <c r="H171" s="10"/>
+      <c r="G171" s="32">
+        <v>0</v>
+      </c>
+      <c r="H171" s="32"/>
       <c r="I171" s="9" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16">
+    <row r="172" spans="1:9">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -7797,15 +7950,15 @@
       <c r="F172" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="G172" s="10">
-        <v>0</v>
-      </c>
-      <c r="H172" s="10"/>
+      <c r="G172" s="32">
+        <v>0</v>
+      </c>
+      <c r="H172" s="32"/>
       <c r="I172" s="9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16">
+    <row r="173" spans="1:9">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -7824,15 +7977,15 @@
       <c r="F173" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="G173" s="10">
-        <v>0</v>
-      </c>
-      <c r="H173" s="10"/>
+      <c r="G173" s="32">
+        <v>0</v>
+      </c>
+      <c r="H173" s="32"/>
       <c r="I173" s="9" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16">
+    <row r="174" spans="1:9">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -7851,15 +8004,15 @@
       <c r="F174" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="G174" s="10">
-        <v>0</v>
-      </c>
-      <c r="H174" s="10"/>
+      <c r="G174" s="32">
+        <v>0</v>
+      </c>
+      <c r="H174" s="32"/>
       <c r="I174" s="9" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16">
+    <row r="175" spans="1:9">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -7878,15 +8031,15 @@
       <c r="F175" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="G175" s="10">
-        <v>0</v>
-      </c>
-      <c r="H175" s="10"/>
+      <c r="G175" s="32">
+        <v>0</v>
+      </c>
+      <c r="H175" s="32"/>
       <c r="I175" s="9" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16">
+    <row r="176" spans="1:9">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -7905,15 +8058,15 @@
       <c r="F176" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="G176" s="10">
-        <v>0</v>
-      </c>
-      <c r="H176" s="10"/>
+      <c r="G176" s="32">
+        <v>0</v>
+      </c>
+      <c r="H176" s="32"/>
       <c r="I176" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16">
+    <row r="177" spans="1:9">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -7932,15 +8085,15 @@
       <c r="F177" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="G177" s="10">
-        <v>0</v>
-      </c>
-      <c r="H177" s="10"/>
+      <c r="G177" s="32">
+        <v>0</v>
+      </c>
+      <c r="H177" s="32"/>
       <c r="I177" s="9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16">
+    <row r="178" spans="1:9">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -7959,15 +8112,15 @@
       <c r="F178" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="G178" s="10">
-        <v>0</v>
-      </c>
-      <c r="H178" s="10"/>
+      <c r="G178" s="32">
+        <v>0</v>
+      </c>
+      <c r="H178" s="32"/>
       <c r="I178" s="9" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16">
+    <row r="179" spans="1:9">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -7986,15 +8139,15 @@
       <c r="F179" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G179" s="10">
-        <v>0</v>
-      </c>
-      <c r="H179" s="10"/>
+      <c r="G179" s="32">
+        <v>0</v>
+      </c>
+      <c r="H179" s="32"/>
       <c r="I179" s="9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16">
+    <row r="180" spans="1:9">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -8013,15 +8166,15 @@
       <c r="F180" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="G180" s="10">
-        <v>0</v>
-      </c>
-      <c r="H180" s="10"/>
+      <c r="G180" s="32">
+        <v>0</v>
+      </c>
+      <c r="H180" s="32"/>
       <c r="I180" s="9" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="16">
+    <row r="181" spans="1:9">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -8040,15 +8193,15 @@
       <c r="F181" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="G181" s="10">
-        <v>0</v>
-      </c>
-      <c r="H181" s="10"/>
+      <c r="G181" s="32">
+        <v>0</v>
+      </c>
+      <c r="H181" s="32"/>
       <c r="I181" s="9" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="16">
+    <row r="182" spans="1:9">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -8067,15 +8220,15 @@
       <c r="F182" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G182" s="10">
-        <v>0</v>
-      </c>
-      <c r="H182" s="10"/>
+      <c r="G182" s="32">
+        <v>0</v>
+      </c>
+      <c r="H182" s="32"/>
       <c r="I182" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16">
+    <row r="183" spans="1:9">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -8094,15 +8247,15 @@
       <c r="F183" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G183" s="10">
-        <v>0</v>
-      </c>
-      <c r="H183" s="10"/>
+      <c r="G183" s="32">
+        <v>0</v>
+      </c>
+      <c r="H183" s="32"/>
       <c r="I183" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16">
+    <row r="184" spans="1:9">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -8121,15 +8274,15 @@
       <c r="F184" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G184" s="10">
-        <v>0</v>
-      </c>
-      <c r="H184" s="10"/>
+      <c r="G184" s="32">
+        <v>0</v>
+      </c>
+      <c r="H184" s="32"/>
       <c r="I184" s="9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16">
+    <row r="185" spans="1:9">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -8148,15 +8301,15 @@
       <c r="F185" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G185" s="10">
-        <v>0</v>
-      </c>
-      <c r="H185" s="10"/>
+      <c r="G185" s="32">
+        <v>0</v>
+      </c>
+      <c r="H185" s="32"/>
       <c r="I185" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16">
+    <row r="186" spans="1:9">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -8175,15 +8328,15 @@
       <c r="F186" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G186" s="10">
-        <v>0</v>
-      </c>
-      <c r="H186" s="10"/>
+      <c r="G186" s="32">
+        <v>0</v>
+      </c>
+      <c r="H186" s="32"/>
       <c r="I186" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16">
+    <row r="187" spans="1:9">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -8202,15 +8355,15 @@
       <c r="F187" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G187" s="10">
-        <v>0</v>
-      </c>
-      <c r="H187" s="10"/>
+      <c r="G187" s="32">
+        <v>0</v>
+      </c>
+      <c r="H187" s="32"/>
       <c r="I187" s="9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16">
+    <row r="188" spans="1:9">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -8229,15 +8382,15 @@
       <c r="F188" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G188" s="10">
-        <v>0</v>
-      </c>
-      <c r="H188" s="10"/>
+      <c r="G188" s="32">
+        <v>0</v>
+      </c>
+      <c r="H188" s="32"/>
       <c r="I188" s="9" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16">
+    <row r="189" spans="1:9">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -8256,15 +8409,15 @@
       <c r="F189" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="10">
-        <v>0</v>
-      </c>
-      <c r="H189" s="10"/>
+      <c r="G189" s="32">
+        <v>0</v>
+      </c>
+      <c r="H189" s="32"/>
       <c r="I189" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16">
+    <row r="190" spans="1:9">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -8283,15 +8436,15 @@
       <c r="F190" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="G190" s="10">
-        <v>0</v>
-      </c>
-      <c r="H190" s="10"/>
+      <c r="G190" s="32">
+        <v>0</v>
+      </c>
+      <c r="H190" s="32"/>
       <c r="I190" s="9" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16">
+    <row r="191" spans="1:9">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -8310,15 +8463,15 @@
       <c r="F191" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G191" s="10">
-        <v>0</v>
-      </c>
-      <c r="H191" s="10"/>
+      <c r="G191" s="32">
+        <v>0</v>
+      </c>
+      <c r="H191" s="32"/>
       <c r="I191" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16">
+    <row r="192" spans="1:9">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -8337,15 +8490,15 @@
       <c r="F192" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G192" s="10">
-        <v>0</v>
-      </c>
-      <c r="H192" s="10"/>
+      <c r="G192" s="32">
+        <v>0</v>
+      </c>
+      <c r="H192" s="32"/>
       <c r="I192" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16">
+    <row r="193" spans="1:9">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -8364,15 +8517,15 @@
       <c r="F193" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="G193" s="10">
-        <v>0</v>
-      </c>
-      <c r="H193" s="10"/>
+      <c r="G193" s="32">
+        <v>0</v>
+      </c>
+      <c r="H193" s="32"/>
       <c r="I193" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16">
+    <row r="194" spans="1:9">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -8391,15 +8544,15 @@
       <c r="F194" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G194" s="10">
-        <v>0</v>
-      </c>
-      <c r="H194" s="10"/>
+      <c r="G194" s="32">
+        <v>0</v>
+      </c>
+      <c r="H194" s="32"/>
       <c r="I194" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16">
+    <row r="195" spans="1:9">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -8418,15 +8571,15 @@
       <c r="F195" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G195" s="10">
-        <v>0</v>
-      </c>
-      <c r="H195" s="10"/>
+      <c r="G195" s="32">
+        <v>0</v>
+      </c>
+      <c r="H195" s="32"/>
       <c r="I195" s="9" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16">
+    <row r="196" spans="1:9">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -8445,15 +8598,15 @@
       <c r="F196" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="G196" s="10">
-        <v>0</v>
-      </c>
-      <c r="H196" s="10"/>
+      <c r="G196" s="32">
+        <v>0</v>
+      </c>
+      <c r="H196" s="32"/>
       <c r="I196" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16">
+    <row r="197" spans="1:9">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -8472,15 +8625,15 @@
       <c r="F197" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="G197" s="10">
-        <v>0</v>
-      </c>
-      <c r="H197" s="10"/>
+      <c r="G197" s="32">
+        <v>0</v>
+      </c>
+      <c r="H197" s="32"/>
       <c r="I197" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16">
+    <row r="198" spans="1:9">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -8499,15 +8652,15 @@
       <c r="F198" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="G198" s="10">
-        <v>0</v>
-      </c>
-      <c r="H198" s="10"/>
+      <c r="G198" s="32">
+        <v>0</v>
+      </c>
+      <c r="H198" s="32"/>
       <c r="I198" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16">
+    <row r="199" spans="1:9">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -8526,15 +8679,15 @@
       <c r="F199" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="G199" s="10">
-        <v>0</v>
-      </c>
-      <c r="H199" s="10"/>
+      <c r="G199" s="32">
+        <v>0</v>
+      </c>
+      <c r="H199" s="32"/>
       <c r="I199" s="9" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16">
+    <row r="200" spans="1:9">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -8553,15 +8706,15 @@
       <c r="F200" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="G200" s="10">
-        <v>0</v>
-      </c>
-      <c r="H200" s="10"/>
+      <c r="G200" s="32">
+        <v>0</v>
+      </c>
+      <c r="H200" s="32"/>
       <c r="I200" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16">
+    <row r="201" spans="1:9">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -8580,15 +8733,15 @@
       <c r="F201" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="G201" s="10">
-        <v>0</v>
-      </c>
-      <c r="H201" s="10"/>
+      <c r="G201" s="32">
+        <v>0</v>
+      </c>
+      <c r="H201" s="32"/>
       <c r="I201" s="9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16">
+    <row r="202" spans="1:9">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -8607,15 +8760,15 @@
       <c r="F202" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="G202" s="10">
-        <v>0</v>
-      </c>
-      <c r="H202" s="10"/>
+      <c r="G202" s="32">
+        <v>0</v>
+      </c>
+      <c r="H202" s="32"/>
       <c r="I202" s="9" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16">
+    <row r="203" spans="1:9">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -8634,15 +8787,15 @@
       <c r="F203" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="G203" s="10">
-        <v>0</v>
-      </c>
-      <c r="H203" s="10"/>
+      <c r="G203" s="32">
+        <v>0</v>
+      </c>
+      <c r="H203" s="32"/>
       <c r="I203" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16">
+    <row r="204" spans="1:9">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -8661,15 +8814,15 @@
       <c r="F204" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G204" s="10">
-        <v>0</v>
-      </c>
-      <c r="H204" s="10"/>
+      <c r="G204" s="32">
+        <v>0</v>
+      </c>
+      <c r="H204" s="32"/>
       <c r="I204" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16">
+    <row r="205" spans="1:9">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -8688,15 +8841,15 @@
       <c r="F205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="G205" s="10">
-        <v>0</v>
-      </c>
-      <c r="H205" s="10"/>
+      <c r="G205" s="32">
+        <v>0</v>
+      </c>
+      <c r="H205" s="32"/>
       <c r="I205" s="9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16">
+    <row r="206" spans="1:9">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -8715,15 +8868,15 @@
       <c r="F206" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G206" s="10">
-        <v>0</v>
-      </c>
-      <c r="H206" s="10"/>
+      <c r="G206" s="32">
+        <v>0</v>
+      </c>
+      <c r="H206" s="32"/>
       <c r="I206" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16">
+    <row r="207" spans="1:9">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -8742,15 +8895,15 @@
       <c r="F207" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G207" s="10">
-        <v>0</v>
-      </c>
-      <c r="H207" s="10"/>
+      <c r="G207" s="32">
+        <v>0</v>
+      </c>
+      <c r="H207" s="32"/>
       <c r="I207" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16">
+    <row r="208" spans="1:9">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -8769,15 +8922,15 @@
       <c r="F208" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G208" s="10">
-        <v>0</v>
-      </c>
-      <c r="H208" s="10"/>
+      <c r="G208" s="32">
+        <v>0</v>
+      </c>
+      <c r="H208" s="32"/>
       <c r="I208" s="9" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16">
+    <row r="209" spans="1:9">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -8796,15 +8949,15 @@
       <c r="F209" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="G209" s="10">
-        <v>0</v>
-      </c>
-      <c r="H209" s="10"/>
+      <c r="G209" s="32">
+        <v>0</v>
+      </c>
+      <c r="H209" s="32"/>
       <c r="I209" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16">
+    <row r="210" spans="1:9">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -8823,15 +8976,15 @@
       <c r="F210" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G210" s="10">
-        <v>0</v>
-      </c>
-      <c r="H210" s="10"/>
+      <c r="G210" s="32">
+        <v>0</v>
+      </c>
+      <c r="H210" s="32"/>
       <c r="I210" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16">
+    <row r="211" spans="1:9">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -8850,15 +9003,15 @@
       <c r="F211" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="G211" s="10">
-        <v>0</v>
-      </c>
-      <c r="H211" s="10"/>
+      <c r="G211" s="32">
+        <v>0</v>
+      </c>
+      <c r="H211" s="32"/>
       <c r="I211" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16">
+    <row r="212" spans="1:9">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -8877,15 +9030,15 @@
       <c r="F212" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G212" s="10">
-        <v>0</v>
-      </c>
-      <c r="H212" s="10"/>
+      <c r="G212" s="32">
+        <v>0</v>
+      </c>
+      <c r="H212" s="32"/>
       <c r="I212" s="9" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16">
+    <row r="213" spans="1:9">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -8904,15 +9057,15 @@
       <c r="F213" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="G213" s="10">
-        <v>0</v>
-      </c>
-      <c r="H213" s="10"/>
+      <c r="G213" s="32">
+        <v>0</v>
+      </c>
+      <c r="H213" s="32"/>
       <c r="I213" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16">
+    <row r="214" spans="1:9">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -8931,15 +9084,15 @@
       <c r="F214" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G214" s="10">
-        <v>0</v>
-      </c>
-      <c r="H214" s="10"/>
+      <c r="G214" s="32">
+        <v>0</v>
+      </c>
+      <c r="H214" s="32"/>
       <c r="I214" s="9" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16">
+    <row r="215" spans="1:9">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -8958,15 +9111,15 @@
       <c r="F215" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="G215" s="10">
-        <v>0</v>
-      </c>
-      <c r="H215" s="10"/>
+      <c r="G215" s="32">
+        <v>0</v>
+      </c>
+      <c r="H215" s="32"/>
       <c r="I215" s="9" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16">
+    <row r="216" spans="1:9">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -8985,15 +9138,15 @@
       <c r="F216" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G216" s="10">
-        <v>0</v>
-      </c>
-      <c r="H216" s="10"/>
+      <c r="G216" s="32">
+        <v>0</v>
+      </c>
+      <c r="H216" s="32"/>
       <c r="I216" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16">
+    <row r="217" spans="1:9">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -9012,15 +9165,15 @@
       <c r="F217" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G217" s="10">
-        <v>0</v>
-      </c>
-      <c r="H217" s="10"/>
+      <c r="G217" s="32">
+        <v>0</v>
+      </c>
+      <c r="H217" s="32"/>
       <c r="I217" s="9" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16">
+    <row r="218" spans="1:9">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -9039,15 +9192,15 @@
       <c r="F218" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G218" s="10">
-        <v>0</v>
-      </c>
-      <c r="H218" s="10"/>
+      <c r="G218" s="32">
+        <v>0</v>
+      </c>
+      <c r="H218" s="32"/>
       <c r="I218" s="9" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16">
+    <row r="219" spans="1:9">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -9066,15 +9219,15 @@
       <c r="F219" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="G219" s="10">
-        <v>0</v>
-      </c>
-      <c r="H219" s="10"/>
+      <c r="G219" s="32">
+        <v>0</v>
+      </c>
+      <c r="H219" s="32"/>
       <c r="I219" s="9" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16">
+    <row r="220" spans="1:9">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -9093,15 +9246,15 @@
       <c r="F220" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="G220" s="10">
-        <v>0</v>
-      </c>
-      <c r="H220" s="10"/>
+      <c r="G220" s="32">
+        <v>0</v>
+      </c>
+      <c r="H220" s="32"/>
       <c r="I220" s="9" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16">
+    <row r="221" spans="1:9">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -9120,15 +9273,15 @@
       <c r="F221" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="G221" s="10">
-        <v>0</v>
-      </c>
-      <c r="H221" s="10"/>
+      <c r="G221" s="32">
+        <v>0</v>
+      </c>
+      <c r="H221" s="32"/>
       <c r="I221" s="9" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16">
+    <row r="222" spans="1:9">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -9147,15 +9300,15 @@
       <c r="F222" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G222" s="10">
-        <v>0</v>
-      </c>
-      <c r="H222" s="10"/>
+      <c r="G222" s="32">
+        <v>0</v>
+      </c>
+      <c r="H222" s="32"/>
       <c r="I222" s="9" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16">
+    <row r="223" spans="1:9">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -9174,15 +9327,15 @@
       <c r="F223" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="G223" s="10">
-        <v>0</v>
-      </c>
-      <c r="H223" s="10"/>
+      <c r="G223" s="32">
+        <v>0</v>
+      </c>
+      <c r="H223" s="32"/>
       <c r="I223" s="9" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16">
+    <row r="224" spans="1:9">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -9201,15 +9354,15 @@
       <c r="F224" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="G224" s="10">
-        <v>0</v>
-      </c>
-      <c r="H224" s="10"/>
+      <c r="G224" s="32">
+        <v>0</v>
+      </c>
+      <c r="H224" s="32"/>
       <c r="I224" s="9" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16">
+    <row r="225" spans="1:9">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -9228,15 +9381,15 @@
       <c r="F225" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="G225" s="10">
-        <v>0</v>
-      </c>
-      <c r="H225" s="10"/>
+      <c r="G225" s="32">
+        <v>0</v>
+      </c>
+      <c r="H225" s="32"/>
       <c r="I225" s="9" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16">
+    <row r="226" spans="1:9">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -9255,15 +9408,15 @@
       <c r="F226" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="G226" s="10">
-        <v>0</v>
-      </c>
-      <c r="H226" s="10"/>
+      <c r="G226" s="32">
+        <v>0</v>
+      </c>
+      <c r="H226" s="32"/>
       <c r="I226" s="9" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16">
+    <row r="227" spans="1:9">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -9282,15 +9435,15 @@
       <c r="F227" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="G227" s="10">
-        <v>0</v>
-      </c>
-      <c r="H227" s="10"/>
+      <c r="G227" s="32">
+        <v>0</v>
+      </c>
+      <c r="H227" s="32"/>
       <c r="I227" s="9" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16">
+    <row r="228" spans="1:9">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -9309,15 +9462,15 @@
       <c r="F228" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="G228" s="10">
-        <v>0</v>
-      </c>
-      <c r="H228" s="10"/>
+      <c r="G228" s="32">
+        <v>0</v>
+      </c>
+      <c r="H228" s="32"/>
       <c r="I228" s="9" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16">
+    <row r="229" spans="1:9">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -9336,15 +9489,15 @@
       <c r="F229" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="G229" s="10">
-        <v>0</v>
-      </c>
-      <c r="H229" s="10"/>
+      <c r="G229" s="32">
+        <v>0</v>
+      </c>
+      <c r="H229" s="32"/>
       <c r="I229" s="9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16">
+    <row r="230" spans="1:9">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -9363,15 +9516,15 @@
       <c r="F230" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="G230" s="10">
-        <v>0</v>
-      </c>
-      <c r="H230" s="10"/>
+      <c r="G230" s="32">
+        <v>0</v>
+      </c>
+      <c r="H230" s="32"/>
       <c r="I230" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16">
+    <row r="231" spans="1:9">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -9390,15 +9543,15 @@
       <c r="F231" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G231" s="10">
-        <v>0</v>
-      </c>
-      <c r="H231" s="10"/>
+      <c r="G231" s="32">
+        <v>0</v>
+      </c>
+      <c r="H231" s="32"/>
       <c r="I231" s="9" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16">
+    <row r="232" spans="1:9">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -9417,15 +9570,15 @@
       <c r="F232" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="G232" s="10">
-        <v>0</v>
-      </c>
-      <c r="H232" s="10"/>
+      <c r="G232" s="32">
+        <v>0</v>
+      </c>
+      <c r="H232" s="32"/>
       <c r="I232" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16">
+    <row r="233" spans="1:9">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -9444,15 +9597,15 @@
       <c r="F233" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="G233" s="10">
-        <v>0</v>
-      </c>
-      <c r="H233" s="10"/>
+      <c r="G233" s="32">
+        <v>0</v>
+      </c>
+      <c r="H233" s="32"/>
       <c r="I233" s="9" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16">
+    <row r="234" spans="1:9">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -9471,15 +9624,15 @@
       <c r="F234" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="G234" s="10">
-        <v>0</v>
-      </c>
-      <c r="H234" s="10"/>
+      <c r="G234" s="32">
+        <v>0</v>
+      </c>
+      <c r="H234" s="32"/>
       <c r="I234" s="9" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16">
+    <row r="235" spans="1:9">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -9498,15 +9651,15 @@
       <c r="F235" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="G235" s="10">
-        <v>0</v>
-      </c>
-      <c r="H235" s="10"/>
+      <c r="G235" s="32">
+        <v>0</v>
+      </c>
+      <c r="H235" s="32"/>
       <c r="I235" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16">
+    <row r="236" spans="1:9">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -9525,15 +9678,15 @@
       <c r="F236" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G236" s="10">
-        <v>0</v>
-      </c>
-      <c r="H236" s="10"/>
+      <c r="G236" s="32">
+        <v>0</v>
+      </c>
+      <c r="H236" s="32"/>
       <c r="I236" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16">
+    <row r="237" spans="1:9">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -9552,15 +9705,15 @@
       <c r="F237" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="G237" s="10">
-        <v>0</v>
-      </c>
-      <c r="H237" s="10"/>
+      <c r="G237" s="32">
+        <v>0</v>
+      </c>
+      <c r="H237" s="32"/>
       <c r="I237" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16">
+    <row r="238" spans="1:9">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -9579,15 +9732,15 @@
       <c r="F238" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="G238" s="10">
-        <v>0</v>
-      </c>
-      <c r="H238" s="10"/>
+      <c r="G238" s="32">
+        <v>0</v>
+      </c>
+      <c r="H238" s="32"/>
       <c r="I238" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16">
+    <row r="239" spans="1:9">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -9606,15 +9759,15 @@
       <c r="F239" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="G239" s="10">
-        <v>0</v>
-      </c>
-      <c r="H239" s="10"/>
+      <c r="G239" s="32">
+        <v>0</v>
+      </c>
+      <c r="H239" s="32"/>
       <c r="I239" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16">
+    <row r="240" spans="1:9">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -9633,15 +9786,15 @@
       <c r="F240" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G240" s="10">
-        <v>0</v>
-      </c>
-      <c r="H240" s="10"/>
+      <c r="G240" s="32">
+        <v>0</v>
+      </c>
+      <c r="H240" s="32"/>
       <c r="I240" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16">
+    <row r="241" spans="1:9">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -9660,15 +9813,15 @@
       <c r="F241" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="G241" s="10">
-        <v>0</v>
-      </c>
-      <c r="H241" s="10"/>
+      <c r="G241" s="32">
+        <v>0</v>
+      </c>
+      <c r="H241" s="32"/>
       <c r="I241" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16">
+    <row r="242" spans="1:9">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -9687,15 +9840,15 @@
       <c r="F242" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="G242" s="10">
-        <v>0</v>
-      </c>
-      <c r="H242" s="10"/>
+      <c r="G242" s="32">
+        <v>0</v>
+      </c>
+      <c r="H242" s="32"/>
       <c r="I242" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16">
+    <row r="243" spans="1:9">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -9714,15 +9867,15 @@
       <c r="F243" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G243" s="10">
-        <v>0</v>
-      </c>
-      <c r="H243" s="10"/>
+      <c r="G243" s="32">
+        <v>0</v>
+      </c>
+      <c r="H243" s="32"/>
       <c r="I243" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16">
+    <row r="244" spans="1:9">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -9741,15 +9894,15 @@
       <c r="F244" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="G244" s="10">
-        <v>0</v>
-      </c>
-      <c r="H244" s="10"/>
+      <c r="G244" s="32">
+        <v>0</v>
+      </c>
+      <c r="H244" s="32"/>
       <c r="I244" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16">
+    <row r="245" spans="1:9">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -9768,15 +9921,15 @@
       <c r="F245" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="G245" s="10">
-        <v>0</v>
-      </c>
-      <c r="H245" s="10"/>
+      <c r="G245" s="32">
+        <v>0</v>
+      </c>
+      <c r="H245" s="32"/>
       <c r="I245" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16">
+    <row r="246" spans="1:9">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -9795,15 +9948,15 @@
       <c r="F246" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="G246" s="10">
-        <v>0</v>
-      </c>
-      <c r="H246" s="10"/>
+      <c r="G246" s="32">
+        <v>0</v>
+      </c>
+      <c r="H246" s="32"/>
       <c r="I246" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16">
+    <row r="247" spans="1:9">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -9822,15 +9975,15 @@
       <c r="F247" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="G247" s="10">
-        <v>0</v>
-      </c>
-      <c r="H247" s="10"/>
+      <c r="G247" s="32">
+        <v>0</v>
+      </c>
+      <c r="H247" s="32"/>
       <c r="I247" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16">
+    <row r="248" spans="1:9">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -9849,15 +10002,15 @@
       <c r="F248" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="G248" s="10">
-        <v>0</v>
-      </c>
-      <c r="H248" s="10"/>
+      <c r="G248" s="32">
+        <v>0</v>
+      </c>
+      <c r="H248" s="32"/>
       <c r="I248" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16">
+    <row r="249" spans="1:9">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -9876,15 +10029,15 @@
       <c r="F249" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="G249" s="10">
-        <v>0</v>
-      </c>
-      <c r="H249" s="10"/>
+      <c r="G249" s="32">
+        <v>0</v>
+      </c>
+      <c r="H249" s="32"/>
       <c r="I249" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16">
+    <row r="250" spans="1:9">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -9903,15 +10056,15 @@
       <c r="F250" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="G250" s="10">
-        <v>0</v>
-      </c>
-      <c r="H250" s="10"/>
+      <c r="G250" s="32">
+        <v>0</v>
+      </c>
+      <c r="H250" s="32"/>
       <c r="I250" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16">
+    <row r="251" spans="1:9">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -9930,15 +10083,15 @@
       <c r="F251" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G251" s="10">
-        <v>0</v>
-      </c>
-      <c r="H251" s="10"/>
+      <c r="G251" s="32">
+        <v>0</v>
+      </c>
+      <c r="H251" s="32"/>
       <c r="I251" s="9" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16">
+    <row r="252" spans="1:9">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -9957,15 +10110,15 @@
       <c r="F252" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="G252" s="10">
-        <v>0</v>
-      </c>
-      <c r="H252" s="10"/>
+      <c r="G252" s="32">
+        <v>0</v>
+      </c>
+      <c r="H252" s="32"/>
       <c r="I252" s="9" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16">
+    <row r="253" spans="1:9">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -9984,15 +10137,15 @@
       <c r="F253" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G253" s="10">
-        <v>0</v>
-      </c>
-      <c r="H253" s="10"/>
+      <c r="G253" s="32">
+        <v>0</v>
+      </c>
+      <c r="H253" s="32"/>
       <c r="I253" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16">
+    <row r="254" spans="1:9">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -10011,15 +10164,15 @@
       <c r="F254" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="G254" s="10">
-        <v>0</v>
-      </c>
-      <c r="H254" s="10"/>
+      <c r="G254" s="32">
+        <v>0</v>
+      </c>
+      <c r="H254" s="32"/>
       <c r="I254" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16">
+    <row r="255" spans="1:9">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -10038,15 +10191,15 @@
       <c r="F255" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="G255" s="10">
-        <v>0</v>
-      </c>
-      <c r="H255" s="10"/>
+      <c r="G255" s="32">
+        <v>0</v>
+      </c>
+      <c r="H255" s="32"/>
       <c r="I255" s="9" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16">
+    <row r="256" spans="1:9">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -10065,15 +10218,15 @@
       <c r="F256" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="G256" s="10">
-        <v>0</v>
-      </c>
-      <c r="H256" s="10"/>
+      <c r="G256" s="32">
+        <v>0</v>
+      </c>
+      <c r="H256" s="32"/>
       <c r="I256" s="9" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="16">
+    <row r="257" spans="1:9">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -10092,15 +10245,15 @@
       <c r="F257" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="G257" s="10">
-        <v>0</v>
-      </c>
-      <c r="H257" s="10"/>
+      <c r="G257" s="32">
+        <v>0</v>
+      </c>
+      <c r="H257" s="32"/>
       <c r="I257" s="9" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="16">
+    <row r="258" spans="1:9">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -10119,15 +10272,15 @@
       <c r="F258" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="G258" s="10">
-        <v>0</v>
-      </c>
-      <c r="H258" s="10"/>
+      <c r="G258" s="32">
+        <v>0</v>
+      </c>
+      <c r="H258" s="32"/>
       <c r="I258" s="9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="16">
+    <row r="259" spans="1:9">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -10146,15 +10299,15 @@
       <c r="F259" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="G259" s="10">
-        <v>0</v>
-      </c>
-      <c r="H259" s="10"/>
+      <c r="G259" s="32">
+        <v>0</v>
+      </c>
+      <c r="H259" s="32"/>
       <c r="I259" s="9" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="16">
+    <row r="260" spans="1:9">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -10173,15 +10326,15 @@
       <c r="F260" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="G260" s="10">
-        <v>0</v>
-      </c>
-      <c r="H260" s="10"/>
+      <c r="G260" s="32">
+        <v>0</v>
+      </c>
+      <c r="H260" s="32"/>
       <c r="I260" s="9" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16">
+    <row r="261" spans="1:9">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -10200,15 +10353,15 @@
       <c r="F261" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="G261" s="10">
-        <v>0</v>
-      </c>
-      <c r="H261" s="10"/>
+      <c r="G261" s="32">
+        <v>0</v>
+      </c>
+      <c r="H261" s="32"/>
       <c r="I261" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16">
+    <row r="262" spans="1:9">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -10227,15 +10380,15 @@
       <c r="F262" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="G262" s="10">
-        <v>0</v>
-      </c>
-      <c r="H262" s="10"/>
+      <c r="G262" s="32">
+        <v>0</v>
+      </c>
+      <c r="H262" s="32"/>
       <c r="I262" s="9" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16">
+    <row r="263" spans="1:9">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -10254,15 +10407,15 @@
       <c r="F263" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="G263" s="10">
-        <v>0</v>
-      </c>
-      <c r="H263" s="10"/>
+      <c r="G263" s="32">
+        <v>0</v>
+      </c>
+      <c r="H263" s="32"/>
       <c r="I263" s="9" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="16">
+    <row r="264" spans="1:9">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -10281,43 +10434,44 @@
       <c r="F264" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G264" s="10">
-        <v>0</v>
-      </c>
-      <c r="H264" s="10"/>
+      <c r="G264" s="32">
+        <v>0</v>
+      </c>
+      <c r="H264" s="32"/>
       <c r="I264" s="9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="A265" s="21">
+    <row r="265" spans="1:9" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="A265" s="20">
         <v>264</v>
       </c>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="C265" s="22">
+      <c r="C265" s="21">
         <v>2016</v>
       </c>
-      <c r="D265" s="22">
+      <c r="D265" s="21">
         <v>80</v>
       </c>
-      <c r="E265" s="22" t="s">
+      <c r="E265" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="F265" s="22" t="s">
+      <c r="F265" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="G265" s="23">
-        <v>0</v>
-      </c>
-      <c r="H265" s="23"/>
-      <c r="I265" s="22" t="s">
+      <c r="G265" s="33">
+        <v>0</v>
+      </c>
+      <c r="H265" s="33"/>
+      <c r="I265" s="21" t="s">
         <v>793</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10326,14 +10480,15 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10375,10 +10530,10 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
       <c r="F11">
@@ -10390,8 +10545,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="D12" s="32"/>
-      <c r="E12" s="14">
+      <c r="D12" s="30"/>
+      <c r="E12" s="13">
         <v>2</v>
       </c>
       <c r="F12">
@@ -10403,62 +10558,62 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="D13" s="32"/>
-      <c r="E13" s="24">
+      <c r="D13" s="30"/>
+      <c r="E13" s="22">
         <v>3</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Studies!G:G, E13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="32"/>
-      <c r="E14" s="25">
+      <c r="D14" s="30"/>
+      <c r="E14" s="23">
         <v>4</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Studies!G:G, E14)</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="32"/>
-      <c r="E15" s="30">
+      <c r="D15" s="30"/>
+      <c r="E15" s="28">
         <v>5</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Studies!G:G, E15)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="32"/>
-      <c r="E16" s="29">
+      <c r="D16" s="30"/>
+      <c r="E16" s="27">
         <v>6</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Studies!G:G, E16)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>7</v>
       </c>
       <c r="F17">
@@ -10470,10 +10625,10 @@
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>8</v>
       </c>
       <c r="F18">
@@ -10485,8 +10640,8 @@
       </c>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="28"/>
-      <c r="E19" s="20">
+      <c r="D19" s="26"/>
+      <c r="E19" s="19">
         <v>9</v>
       </c>
       <c r="F19">
@@ -10498,15 +10653,15 @@
       </c>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0</v>
       </c>
       <c r="F20">
         <f>COUNTIF(Studies!G:G, E20)</f>
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>805</v>
@@ -10514,11 +10669,93 @@
     </row>
     <row r="22" spans="4:7">
       <c r="D22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E22">
+        <f>SUM(F11:F19)</f>
+        <v>84</v>
+      </c>
+      <c r="F22" s="31">
+        <f>E22/E22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" t="s">
+        <v>846</v>
+      </c>
+      <c r="E24">
+        <f>F11+F14</f>
+        <v>44</v>
+      </c>
+      <c r="F24" s="29">
+        <f>E24/E22</f>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E25">
+        <f>F13+F15+F17+F18</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="29">
+        <f>E25/E22</f>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>845</v>
+      </c>
+      <c r="E26">
+        <f>F16+F19</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="29">
+        <f>E26/E22</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>834</v>
+      </c>
+      <c r="E27">
+        <f>F13</f>
+        <v>9</v>
+      </c>
+      <c r="F27" s="29">
+        <f>F13/E22</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" t="s">
         <v>825</v>
       </c>
-      <c r="E22" s="31">
-        <f>SUM(F11:F19)/(F20+SUM(F11:F19))</f>
-        <v>0.125</v>
+      <c r="E29">
+        <f>SUM(F11:F19)</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="29">
+        <f>E29/SUM(F11:F20)</f>
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" t="s">
+        <v>836</v>
+      </c>
+      <c r="E30">
+        <f>F20</f>
+        <v>180</v>
+      </c>
+      <c r="F30" s="29">
+        <f>F20/SUM(F11:F20)</f>
+        <v>0.68181818181818177</v>
       </c>
     </row>
   </sheetData>
@@ -10581,10 +10818,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="2"/>
@@ -10602,10 +10839,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>810</v>
       </c>
       <c r="D3" s="2"/>
@@ -10623,10 +10860,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>811</v>
       </c>
       <c r="D4" s="2"/>
@@ -10644,10 +10881,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
@@ -10665,10 +10902,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2"/>
@@ -10686,10 +10923,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>476</v>
       </c>
       <c r="D7" s="2"/>
@@ -10707,10 +10944,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>812</v>
       </c>
       <c r="D8" s="2"/>
@@ -10728,10 +10965,10 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>813</v>
       </c>
       <c r="D9" s="2"/>
@@ -10749,10 +10986,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>708</v>
       </c>
       <c r="D10" s="2"/>
@@ -10770,10 +11007,10 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>814</v>
       </c>
       <c r="D11" s="2"/>
@@ -10791,10 +11028,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>216</v>
       </c>
       <c r="D12" s="2"/>
@@ -10812,10 +11049,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>815</v>
       </c>
       <c r="D13" s="2"/>
@@ -10833,10 +11070,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>816</v>
       </c>
       <c r="D14" s="2"/>
@@ -10854,10 +11091,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>453</v>
       </c>
       <c r="D15" s="2"/>
@@ -10875,10 +11112,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>425</v>
       </c>
       <c r="D16" s="2"/>
@@ -10896,10 +11133,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="2"/>
@@ -10917,10 +11154,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>659</v>
       </c>
       <c r="D18" s="2"/>
@@ -10938,10 +11175,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>817</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>817</v>
       </c>
       <c r="D19" s="2"/>
@@ -10959,10 +11196,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>449</v>
       </c>
       <c r="D20" s="2"/>
@@ -10980,10 +11217,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D21" s="2"/>
@@ -11001,10 +11238,10 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>567</v>
       </c>
       <c r="D22" s="2"/>
@@ -11022,10 +11259,10 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>293</v>
       </c>
       <c r="D23" s="2"/>
@@ -11043,10 +11280,10 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>821</v>
       </c>
       <c r="D24" s="2"/>
@@ -11064,10 +11301,10 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>366</v>
       </c>
       <c r="D25" s="2"/>
@@ -11085,10 +11322,10 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>384</v>
       </c>
       <c r="D26" s="2"/>
@@ -11168,370 +11405,370 @@
       <c r="M31" s="1"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="26"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C36500E-9513-3140-A65D-4A449B21C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA938AD-370C-B74C-882E-AC7B4406059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55120" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52140" yWindow="0" windowWidth="28460" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="854">
   <si>
     <t>Journal</t>
   </si>
@@ -2582,6 +2582,24 @@
   </si>
   <si>
     <t>Total papers:</t>
+  </si>
+  <si>
+    <t>Invalid search</t>
+  </si>
+  <si>
+    <t>Invalid search item, such as duplicates, or from another journal</t>
+  </si>
+  <si>
+    <t>Incorrect paper</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Meta-analysis with a different focus</t>
+  </si>
+  <si>
+    <t>Meta-analysis</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2781,6 +2799,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2805,7 +2835,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2836,9 +2866,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -2849,6 +2876,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3143,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView topLeftCell="B103" zoomScale="159" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3155,8 +3189,8 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="33" customWidth="1"/>
     <col min="9" max="9" width="190.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3208,10 +3242,10 @@
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
@@ -3235,10 +3269,10 @@
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>3</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -3264,10 +3298,10 @@
       <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>6</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>829</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -3293,10 +3327,10 @@
       <c r="F5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>6</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>809</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -3322,10 +3356,10 @@
       <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>1</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
@@ -3349,10 +3383,10 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>4</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="9" t="s">
         <v>54</v>
       </c>
@@ -3376,10 +3410,10 @@
       <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>4</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>809</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -3405,10 +3439,10 @@
       <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>4</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>809</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -3434,10 +3468,10 @@
       <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>4</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>826</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -3463,10 +3497,10 @@
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>4</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>827</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -3492,10 +3526,10 @@
       <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>4</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>827</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -3521,10 +3555,10 @@
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>1</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="9" t="s">
         <v>65</v>
       </c>
@@ -3548,10 +3582,10 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="31">
         <v>5</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>828</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -3577,10 +3611,10 @@
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>1</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="9" t="s">
         <v>70</v>
       </c>
@@ -3604,10 +3638,10 @@
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="31">
         <v>1</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="9" t="s">
         <v>72</v>
       </c>
@@ -3631,10 +3665,10 @@
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>3</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -3660,10 +3694,10 @@
       <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>3</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -3689,10 +3723,10 @@
       <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <v>3</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -3718,10 +3752,10 @@
       <c r="F20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <v>6</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="31" t="s">
         <v>830</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -3747,10 +3781,10 @@
       <c r="F21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>3</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -3776,10 +3810,10 @@
       <c r="F22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <v>4</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>826</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -3805,10 +3839,10 @@
       <c r="F23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <v>6</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>826</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -3834,10 +3868,10 @@
       <c r="F24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="31">
         <v>5</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="9" t="s">
         <v>92</v>
       </c>
@@ -3861,10 +3895,10 @@
       <c r="F25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>6</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>831</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -3890,10 +3924,10 @@
       <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="31">
         <v>3</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -3919,10 +3953,10 @@
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="31">
         <v>6</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I27" s="9" t="s">
@@ -3948,10 +3982,10 @@
       <c r="F28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="31">
         <v>4</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="31" t="s">
         <v>833</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -3977,10 +4011,10 @@
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="31">
         <v>4</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>833</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -4006,10 +4040,10 @@
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="31">
         <v>6</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="31" t="s">
         <v>809</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -4035,10 +4069,10 @@
       <c r="F31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="31">
         <v>4</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>809</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -4064,10 +4098,10 @@
       <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="31">
         <v>6</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -4093,10 +4127,10 @@
       <c r="F33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="31">
         <v>5</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="9" t="s">
         <v>113</v>
       </c>
@@ -4120,10 +4154,10 @@
       <c r="F34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <v>6</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -4149,10 +4183,10 @@
       <c r="F35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="31">
         <v>6</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -4178,10 +4212,10 @@
       <c r="F36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="31">
         <v>4</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>827</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4207,10 +4241,10 @@
       <c r="F37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="31">
         <v>4</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="31" t="s">
         <v>838</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -4236,10 +4270,10 @@
       <c r="F38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="31">
         <v>4</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -4265,10 +4299,10 @@
       <c r="F39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="31">
         <v>6</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="31" t="s">
         <v>839</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -4294,10 +4328,10 @@
       <c r="F40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="31">
         <v>3</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I40" s="9" t="s">
@@ -4323,10 +4357,10 @@
       <c r="F41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="31">
         <v>3</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I41" s="9" t="s">
@@ -4352,10 +4386,10 @@
       <c r="F42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="31">
         <v>4</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I42" s="9" t="s">
@@ -4381,10 +4415,10 @@
       <c r="F43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="31">
         <v>5</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="31" t="s">
         <v>828</v>
       </c>
       <c r="I43" s="9" t="s">
@@ -4410,10 +4444,10 @@
       <c r="F44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="31">
         <v>6</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="31" t="s">
         <v>840</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -4439,10 +4473,10 @@
       <c r="F45" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="31">
         <v>6</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I45" s="9" t="s">
@@ -4468,10 +4502,10 @@
       <c r="F46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="31">
         <v>6</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="31" t="s">
         <v>842</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -4497,10 +4531,10 @@
       <c r="F47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="31">
         <v>6</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I47" s="9" t="s">
@@ -4526,10 +4560,10 @@
       <c r="F48" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="31">
         <v>4</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I48" s="9" t="s">
@@ -4555,10 +4589,10 @@
       <c r="F49" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="31">
         <v>4</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I49" s="9" t="s">
@@ -4584,10 +4618,10 @@
       <c r="F50" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="31">
         <v>5</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H50" s="31" t="s">
         <v>828</v>
       </c>
       <c r="I50" s="9" t="s">
@@ -4613,10 +4647,10 @@
       <c r="F51" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="32">
-        <v>4</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="31" t="s">
         <v>837</v>
       </c>
       <c r="I51" s="9" t="s">
@@ -4642,10 +4676,10 @@
       <c r="F52" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="31">
         <v>6</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H52" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I52" s="9" t="s">
@@ -4671,10 +4705,10 @@
       <c r="F53" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="31">
         <v>6</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="H53" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I53" s="9" t="s">
@@ -4700,10 +4734,10 @@
       <c r="F54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="31">
         <v>6</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I54" s="9" t="s">
@@ -4729,10 +4763,10 @@
       <c r="F55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="31">
         <v>6</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I55" s="9" t="s">
@@ -4758,10 +4792,10 @@
       <c r="F56" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="31">
         <v>4</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I56" s="9" t="s">
@@ -4787,10 +4821,10 @@
       <c r="F57" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="31">
         <v>6</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I57" s="9" t="s">
@@ -4816,10 +4850,10 @@
       <c r="F58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="31">
         <v>4</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I58" s="9" t="s">
@@ -4845,10 +4879,10 @@
       <c r="F59" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="31">
         <v>4</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I59" s="9" t="s">
@@ -4874,10 +4908,10 @@
       <c r="F60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="31">
         <v>4</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I60" s="9" t="s">
@@ -4903,10 +4937,10 @@
       <c r="F61" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="31">
         <v>4</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I61" s="9" t="s">
@@ -4932,10 +4966,10 @@
       <c r="F62" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>4</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I62" s="9" t="s">
@@ -4961,10 +4995,10 @@
       <c r="F63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>4</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I63" s="9" t="s">
@@ -4990,10 +5024,10 @@
       <c r="F64" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="31">
         <v>4</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I64" s="9" t="s">
@@ -5019,10 +5053,10 @@
       <c r="F65" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="31">
         <v>4</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="H65" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I65" s="9" t="s">
@@ -5048,10 +5082,10 @@
       <c r="F66" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="31">
         <v>4</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H66" s="31" t="s">
         <v>831</v>
       </c>
       <c r="I66" s="9" t="s">
@@ -5077,10 +5111,10 @@
       <c r="F67" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="31">
         <v>6</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H67" s="31" t="s">
         <v>843</v>
       </c>
       <c r="I67" s="9" t="s">
@@ -5106,10 +5140,10 @@
       <c r="F68" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="31">
         <v>6</v>
       </c>
-      <c r="H68" s="32" t="s">
+      <c r="H68" s="31" t="s">
         <v>831</v>
       </c>
       <c r="I68" s="9" t="s">
@@ -5135,10 +5169,10 @@
       <c r="F69" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="31">
         <v>6</v>
       </c>
-      <c r="H69" s="32" t="s">
+      <c r="H69" s="31" t="s">
         <v>844</v>
       </c>
       <c r="I69" s="9" t="s">
@@ -5164,10 +5198,10 @@
       <c r="F70" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="31">
         <v>4</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I70" s="9" t="s">
@@ -5193,10 +5227,10 @@
       <c r="F71" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="31">
         <v>4</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H71" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I71" s="9" t="s">
@@ -5222,10 +5256,10 @@
       <c r="F72" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="31">
         <v>4</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I72" s="9" t="s">
@@ -5251,10 +5285,10 @@
       <c r="F73" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="31">
         <v>4</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I73" s="9" t="s">
@@ -5280,10 +5314,10 @@
       <c r="F74" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="31">
         <v>4</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="31" t="s">
         <v>832</v>
       </c>
       <c r="I74" s="9" t="s">
@@ -5309,10 +5343,10 @@
       <c r="F75" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="31">
         <v>4</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H75" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I75" s="9" t="s">
@@ -5338,10 +5372,10 @@
       <c r="F76" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="32">
+      <c r="G76" s="31">
         <v>4</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I76" s="9" t="s">
@@ -5367,10 +5401,10 @@
       <c r="F77" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="31">
         <v>4</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I77" s="9" t="s">
@@ -5396,10 +5430,10 @@
       <c r="F78" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G78" s="31">
         <v>4</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H78" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I78" s="9" t="s">
@@ -5425,10 +5459,10 @@
       <c r="F79" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="31">
         <v>5</v>
       </c>
-      <c r="H79" s="32" t="s">
+      <c r="H79" s="31" t="s">
         <v>828</v>
       </c>
       <c r="I79" s="9" t="s">
@@ -5454,10 +5488,10 @@
       <c r="F80" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="31">
         <v>3</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="H80" s="31" t="s">
         <v>824</v>
       </c>
       <c r="I80" s="9" t="s">
@@ -5483,10 +5517,10 @@
       <c r="F81" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G81" s="32">
+      <c r="G81" s="31">
         <v>4</v>
       </c>
-      <c r="H81" s="32" t="s">
+      <c r="H81" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I81" s="9" t="s">
@@ -5512,10 +5546,10 @@
       <c r="F82" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="31">
         <v>5</v>
       </c>
-      <c r="H82" s="32" t="s">
+      <c r="H82" s="31" t="s">
         <v>828</v>
       </c>
       <c r="I82" s="9" t="s">
@@ -5541,10 +5575,10 @@
       <c r="F83" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G83" s="32">
+      <c r="G83" s="31">
         <v>4</v>
       </c>
-      <c r="H83" s="32" t="s">
+      <c r="H83" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I83" s="9" t="s">
@@ -5570,10 +5604,10 @@
       <c r="F84" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="32">
+      <c r="G84" s="31">
         <v>6</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I84" s="9" t="s">
@@ -5599,10 +5633,10 @@
       <c r="F85" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G85" s="32">
+      <c r="G85" s="31">
         <v>4</v>
       </c>
-      <c r="H85" s="32" t="s">
+      <c r="H85" s="31" t="s">
         <v>841</v>
       </c>
       <c r="I85" s="9" t="s">
@@ -5628,10 +5662,12 @@
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="32">
-        <v>0</v>
-      </c>
-      <c r="H86" s="32"/>
+      <c r="G86" s="31">
+        <v>4</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I86" s="9" t="s">
         <v>276</v>
       </c>
@@ -5655,10 +5691,12 @@
       <c r="F87" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="32">
-        <v>0</v>
-      </c>
-      <c r="H87" s="32"/>
+      <c r="G87" s="31">
+        <v>4</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I87" s="9" t="s">
         <v>279</v>
       </c>
@@ -5682,10 +5720,12 @@
       <c r="F88" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="32">
-        <v>0</v>
-      </c>
-      <c r="H88" s="32"/>
+      <c r="G88" s="31">
+        <v>4</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I88" s="9" t="s">
         <v>282</v>
       </c>
@@ -5709,10 +5749,12 @@
       <c r="F89" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G89" s="32">
-        <v>0</v>
-      </c>
-      <c r="H89" s="32"/>
+      <c r="G89" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>837</v>
+      </c>
       <c r="I89" s="9" t="s">
         <v>285</v>
       </c>
@@ -5736,10 +5778,12 @@
       <c r="F90" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G90" s="32">
-        <v>0</v>
-      </c>
-      <c r="H90" s="32"/>
+      <c r="G90" s="31">
+        <v>4</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I90" s="9" t="s">
         <v>288</v>
       </c>
@@ -5763,10 +5807,12 @@
       <c r="F91" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G91" s="32">
-        <v>0</v>
-      </c>
-      <c r="H91" s="32"/>
+      <c r="G91" s="31">
+        <v>6</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I91" s="9" t="s">
         <v>291</v>
       </c>
@@ -5790,10 +5836,12 @@
       <c r="F92" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G92" s="32">
-        <v>0</v>
-      </c>
-      <c r="H92" s="32"/>
+      <c r="G92" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I92" s="9" t="s">
         <v>295</v>
       </c>
@@ -5817,10 +5865,12 @@
       <c r="F93" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="32">
-        <v>0</v>
-      </c>
-      <c r="H93" s="32"/>
+      <c r="G93" s="31">
+        <v>4</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I93" s="9" t="s">
         <v>298</v>
       </c>
@@ -5844,10 +5894,12 @@
       <c r="F94" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G94" s="32">
-        <v>0</v>
-      </c>
-      <c r="H94" s="32"/>
+      <c r="G94" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I94" s="9" t="s">
         <v>301</v>
       </c>
@@ -5871,10 +5923,12 @@
       <c r="F95" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G95" s="32">
-        <v>0</v>
-      </c>
-      <c r="H95" s="32"/>
+      <c r="G95" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I95" s="9" t="s">
         <v>304</v>
       </c>
@@ -5898,10 +5952,12 @@
       <c r="F96" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G96" s="32">
-        <v>0</v>
-      </c>
-      <c r="H96" s="32"/>
+      <c r="G96" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I96" s="9" t="s">
         <v>307</v>
       </c>
@@ -5925,10 +5981,12 @@
       <c r="F97" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G97" s="32">
-        <v>0</v>
-      </c>
-      <c r="H97" s="32"/>
+      <c r="G97" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I97" s="9" t="s">
         <v>310</v>
       </c>
@@ -5952,10 +6010,12 @@
       <c r="F98" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G98" s="32">
-        <v>0</v>
-      </c>
-      <c r="H98" s="32"/>
+      <c r="G98" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I98" s="9" t="s">
         <v>313</v>
       </c>
@@ -5979,10 +6039,12 @@
       <c r="F99" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G99" s="32">
-        <v>0</v>
-      </c>
-      <c r="H99" s="32"/>
+      <c r="G99" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I99" s="9" t="s">
         <v>316</v>
       </c>
@@ -6006,10 +6068,12 @@
       <c r="F100" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G100" s="32">
-        <v>0</v>
-      </c>
-      <c r="H100" s="32"/>
+      <c r="G100" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I100" s="9" t="s">
         <v>319</v>
       </c>
@@ -6033,10 +6097,12 @@
       <c r="F101" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G101" s="32">
-        <v>0</v>
-      </c>
-      <c r="H101" s="32"/>
+      <c r="G101" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I101" s="9" t="s">
         <v>322</v>
       </c>
@@ -6060,10 +6126,12 @@
       <c r="F102" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G102" s="32">
-        <v>0</v>
-      </c>
-      <c r="H102" s="32"/>
+      <c r="G102" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I102" s="9" t="s">
         <v>325</v>
       </c>
@@ -6087,10 +6155,12 @@
       <c r="F103" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G103" s="32">
-        <v>0</v>
-      </c>
-      <c r="H103" s="32"/>
+      <c r="G103" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I103" s="9" t="s">
         <v>328</v>
       </c>
@@ -6114,10 +6184,12 @@
       <c r="F104" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G104" s="32">
-        <v>0</v>
-      </c>
-      <c r="H104" s="32"/>
+      <c r="G104" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I104" s="9" t="s">
         <v>331</v>
       </c>
@@ -6141,10 +6213,12 @@
       <c r="F105" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G105" s="32">
-        <v>0</v>
-      </c>
-      <c r="H105" s="32"/>
+      <c r="G105" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I105" s="9" t="s">
         <v>334</v>
       </c>
@@ -6168,10 +6242,12 @@
       <c r="F106" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G106" s="32">
-        <v>0</v>
-      </c>
-      <c r="H106" s="32"/>
+      <c r="G106" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I106" s="9" t="s">
         <v>337</v>
       </c>
@@ -6195,10 +6271,12 @@
       <c r="F107" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G107" s="32">
-        <v>0</v>
-      </c>
-      <c r="H107" s="32"/>
+      <c r="G107" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I107" s="9" t="s">
         <v>340</v>
       </c>
@@ -6222,10 +6300,12 @@
       <c r="F108" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G108" s="32">
-        <v>0</v>
-      </c>
-      <c r="H108" s="32"/>
+      <c r="G108" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I108" s="9" t="s">
         <v>343</v>
       </c>
@@ -6249,10 +6329,12 @@
       <c r="F109" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G109" s="32">
-        <v>0</v>
-      </c>
-      <c r="H109" s="32"/>
+      <c r="G109" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I109" s="9" t="s">
         <v>346</v>
       </c>
@@ -6276,10 +6358,12 @@
       <c r="F110" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G110" s="32">
-        <v>0</v>
-      </c>
-      <c r="H110" s="32"/>
+      <c r="G110" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I110" s="9" t="s">
         <v>349</v>
       </c>
@@ -6303,10 +6387,12 @@
       <c r="F111" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G111" s="32">
-        <v>0</v>
-      </c>
-      <c r="H111" s="32"/>
+      <c r="G111" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I111" s="9" t="s">
         <v>352</v>
       </c>
@@ -6330,10 +6416,12 @@
       <c r="F112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G112" s="32">
-        <v>0</v>
-      </c>
-      <c r="H112" s="32"/>
+      <c r="G112" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I112" s="9" t="s">
         <v>355</v>
       </c>
@@ -6357,10 +6445,12 @@
       <c r="F113" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G113" s="32">
-        <v>0</v>
-      </c>
-      <c r="H113" s="32"/>
+      <c r="G113" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I113" s="9" t="s">
         <v>358</v>
       </c>
@@ -6384,10 +6474,12 @@
       <c r="F114" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="G114" s="32">
-        <v>0</v>
-      </c>
-      <c r="H114" s="32"/>
+      <c r="G114" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I114" s="9" t="s">
         <v>361</v>
       </c>
@@ -6411,10 +6503,12 @@
       <c r="F115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G115" s="32">
-        <v>0</v>
-      </c>
-      <c r="H115" s="32"/>
+      <c r="G115" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>850</v>
+      </c>
       <c r="I115" s="9" t="s">
         <v>364</v>
       </c>
@@ -6438,10 +6532,12 @@
       <c r="F116" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="G116" s="32">
-        <v>0</v>
-      </c>
-      <c r="H116" s="32"/>
+      <c r="G116" s="31">
+        <v>4</v>
+      </c>
+      <c r="H116" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I116" s="9" t="s">
         <v>368</v>
       </c>
@@ -6465,10 +6561,12 @@
       <c r="F117" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="32">
-        <v>0</v>
-      </c>
-      <c r="H117" s="32"/>
+      <c r="G117" s="31">
+        <v>4</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I117" s="9" t="s">
         <v>371</v>
       </c>
@@ -6492,10 +6590,12 @@
       <c r="F118" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="G118" s="32">
-        <v>0</v>
-      </c>
-      <c r="H118" s="32"/>
+      <c r="G118" s="31">
+        <v>6</v>
+      </c>
+      <c r="H118" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I118" s="9" t="s">
         <v>375</v>
       </c>
@@ -6519,10 +6619,12 @@
       <c r="F119" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="G119" s="32">
-        <v>0</v>
-      </c>
-      <c r="H119" s="32"/>
+      <c r="G119" s="31">
+        <v>6</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I119" s="9" t="s">
         <v>379</v>
       </c>
@@ -6546,10 +6648,12 @@
       <c r="F120" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G120" s="32">
-        <v>0</v>
-      </c>
-      <c r="H120" s="32"/>
+      <c r="G120" s="31">
+        <v>6</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I120" s="9" t="s">
         <v>382</v>
       </c>
@@ -6573,10 +6677,10 @@
       <c r="F121" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G121" s="32">
-        <v>0</v>
-      </c>
-      <c r="H121" s="32"/>
+      <c r="G121" s="31">
+        <v>1</v>
+      </c>
+      <c r="H121" s="31"/>
       <c r="I121" s="9" t="s">
         <v>386</v>
       </c>
@@ -6600,10 +6704,12 @@
       <c r="F122" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G122" s="32">
-        <v>0</v>
-      </c>
-      <c r="H122" s="32"/>
+      <c r="G122" s="31">
+        <v>6</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>852</v>
+      </c>
       <c r="I122" s="9" t="s">
         <v>390</v>
       </c>
@@ -6627,10 +6733,12 @@
       <c r="F123" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G123" s="32">
-        <v>0</v>
-      </c>
-      <c r="H123" s="32"/>
+      <c r="G123" s="31">
+        <v>6</v>
+      </c>
+      <c r="H123" s="31" t="s">
+        <v>853</v>
+      </c>
       <c r="I123" s="9" t="s">
         <v>393</v>
       </c>
@@ -6654,10 +6762,12 @@
       <c r="F124" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G124" s="32">
-        <v>0</v>
-      </c>
-      <c r="H124" s="32"/>
+      <c r="G124" s="31">
+        <v>6</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I124" s="9" t="s">
         <v>396</v>
       </c>
@@ -6681,10 +6791,12 @@
       <c r="F125" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G125" s="32">
-        <v>0</v>
-      </c>
-      <c r="H125" s="32"/>
+      <c r="G125" s="31">
+        <v>4</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I125" s="9" t="s">
         <v>399</v>
       </c>
@@ -6708,10 +6820,12 @@
       <c r="F126" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G126" s="32">
-        <v>0</v>
-      </c>
-      <c r="H126" s="32"/>
+      <c r="G126" s="31">
+        <v>4</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I126" s="9" t="s">
         <v>402</v>
       </c>
@@ -6735,10 +6849,12 @@
       <c r="F127" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G127" s="32">
-        <v>0</v>
-      </c>
-      <c r="H127" s="32"/>
+      <c r="G127" s="31">
+        <v>6</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I127" s="9" t="s">
         <v>405</v>
       </c>
@@ -6762,10 +6878,12 @@
       <c r="F128" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G128" s="32">
-        <v>0</v>
-      </c>
-      <c r="H128" s="32"/>
+      <c r="G128" s="31">
+        <v>4</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I128" s="9" t="s">
         <v>408</v>
       </c>
@@ -6789,10 +6907,12 @@
       <c r="F129" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G129" s="32">
-        <v>0</v>
-      </c>
-      <c r="H129" s="32"/>
+      <c r="G129" s="31">
+        <v>4</v>
+      </c>
+      <c r="H129" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I129" s="9" t="s">
         <v>411</v>
       </c>
@@ -6816,10 +6936,12 @@
       <c r="F130" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G130" s="32">
-        <v>0</v>
-      </c>
-      <c r="H130" s="32"/>
+      <c r="G130" s="31">
+        <v>4</v>
+      </c>
+      <c r="H130" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I130" s="9" t="s">
         <v>414</v>
       </c>
@@ -6843,10 +6965,12 @@
       <c r="F131" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G131" s="32">
-        <v>0</v>
-      </c>
-      <c r="H131" s="32"/>
+      <c r="G131" s="31">
+        <v>4</v>
+      </c>
+      <c r="H131" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I131" s="9" t="s">
         <v>417</v>
       </c>
@@ -6870,10 +6994,12 @@
       <c r="F132" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G132" s="32">
-        <v>0</v>
-      </c>
-      <c r="H132" s="32"/>
+      <c r="G132" s="31">
+        <v>4</v>
+      </c>
+      <c r="H132" s="31" t="s">
+        <v>841</v>
+      </c>
       <c r="I132" s="9" t="s">
         <v>420</v>
       </c>
@@ -6897,10 +7023,12 @@
       <c r="F133" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G133" s="32">
-        <v>0</v>
-      </c>
-      <c r="H133" s="32"/>
+      <c r="G133" s="31">
+        <v>6</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>832</v>
+      </c>
       <c r="I133" s="9" t="s">
         <v>423</v>
       </c>
@@ -6924,10 +7052,10 @@
       <c r="F134" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G134" s="32">
-        <v>0</v>
-      </c>
-      <c r="H134" s="32"/>
+      <c r="G134" s="31">
+        <v>0</v>
+      </c>
+      <c r="H134" s="31"/>
       <c r="I134" s="9" t="s">
         <v>427</v>
       </c>
@@ -6951,10 +7079,10 @@
       <c r="F135" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="32">
-        <v>0</v>
-      </c>
-      <c r="H135" s="32"/>
+      <c r="G135" s="31">
+        <v>0</v>
+      </c>
+      <c r="H135" s="31"/>
       <c r="I135" s="9" t="s">
         <v>429</v>
       </c>
@@ -6978,10 +7106,10 @@
       <c r="F136" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G136" s="32">
-        <v>0</v>
-      </c>
-      <c r="H136" s="32"/>
+      <c r="G136" s="31">
+        <v>0</v>
+      </c>
+      <c r="H136" s="31"/>
       <c r="I136" s="9" t="s">
         <v>432</v>
       </c>
@@ -7005,10 +7133,10 @@
       <c r="F137" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G137" s="32">
-        <v>0</v>
-      </c>
-      <c r="H137" s="32"/>
+      <c r="G137" s="31">
+        <v>0</v>
+      </c>
+      <c r="H137" s="31"/>
       <c r="I137" s="9" t="s">
         <v>435</v>
       </c>
@@ -7032,10 +7160,10 @@
       <c r="F138" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G138" s="32">
-        <v>0</v>
-      </c>
-      <c r="H138" s="32"/>
+      <c r="G138" s="31">
+        <v>0</v>
+      </c>
+      <c r="H138" s="31"/>
       <c r="I138" s="9" t="s">
         <v>438</v>
       </c>
@@ -7059,10 +7187,10 @@
       <c r="F139" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G139" s="32">
-        <v>0</v>
-      </c>
-      <c r="H139" s="32"/>
+      <c r="G139" s="31">
+        <v>0</v>
+      </c>
+      <c r="H139" s="31"/>
       <c r="I139" s="9" t="s">
         <v>441</v>
       </c>
@@ -7086,10 +7214,10 @@
       <c r="F140" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G140" s="32">
-        <v>0</v>
-      </c>
-      <c r="H140" s="32"/>
+      <c r="G140" s="31">
+        <v>0</v>
+      </c>
+      <c r="H140" s="31"/>
       <c r="I140" s="9" t="s">
         <v>444</v>
       </c>
@@ -7113,10 +7241,10 @@
       <c r="F141" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G141" s="32">
-        <v>0</v>
-      </c>
-      <c r="H141" s="32"/>
+      <c r="G141" s="31">
+        <v>0</v>
+      </c>
+      <c r="H141" s="31"/>
       <c r="I141" s="9" t="s">
         <v>447</v>
       </c>
@@ -7140,10 +7268,10 @@
       <c r="F142" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="G142" s="32">
-        <v>0</v>
-      </c>
-      <c r="H142" s="32"/>
+      <c r="G142" s="31">
+        <v>0</v>
+      </c>
+      <c r="H142" s="31"/>
       <c r="I142" s="9" t="s">
         <v>451</v>
       </c>
@@ -7167,10 +7295,10 @@
       <c r="F143" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G143" s="32">
-        <v>0</v>
-      </c>
-      <c r="H143" s="32"/>
+      <c r="G143" s="31">
+        <v>0</v>
+      </c>
+      <c r="H143" s="31"/>
       <c r="I143" s="9" t="s">
         <v>455</v>
       </c>
@@ -7194,10 +7322,10 @@
       <c r="F144" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G144" s="32">
-        <v>0</v>
-      </c>
-      <c r="H144" s="32"/>
+      <c r="G144" s="31">
+        <v>0</v>
+      </c>
+      <c r="H144" s="31"/>
       <c r="I144" s="9" t="s">
         <v>459</v>
       </c>
@@ -7221,10 +7349,10 @@
       <c r="F145" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G145" s="32">
-        <v>0</v>
-      </c>
-      <c r="H145" s="32"/>
+      <c r="G145" s="31">
+        <v>0</v>
+      </c>
+      <c r="H145" s="31"/>
       <c r="I145" s="9" t="s">
         <v>462</v>
       </c>
@@ -7248,10 +7376,10 @@
       <c r="F146" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G146" s="32">
-        <v>0</v>
-      </c>
-      <c r="H146" s="32"/>
+      <c r="G146" s="31">
+        <v>0</v>
+      </c>
+      <c r="H146" s="31"/>
       <c r="I146" s="9" t="s">
         <v>465</v>
       </c>
@@ -7275,10 +7403,10 @@
       <c r="F147" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G147" s="32">
-        <v>0</v>
-      </c>
-      <c r="H147" s="32"/>
+      <c r="G147" s="31">
+        <v>0</v>
+      </c>
+      <c r="H147" s="31"/>
       <c r="I147" s="9" t="s">
         <v>468</v>
       </c>
@@ -7302,10 +7430,10 @@
       <c r="F148" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G148" s="32">
-        <v>0</v>
-      </c>
-      <c r="H148" s="32"/>
+      <c r="G148" s="31">
+        <v>0</v>
+      </c>
+      <c r="H148" s="31"/>
       <c r="I148" s="9" t="s">
         <v>471</v>
       </c>
@@ -7329,10 +7457,10 @@
       <c r="F149" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G149" s="32">
-        <v>0</v>
-      </c>
-      <c r="H149" s="32"/>
+      <c r="G149" s="31">
+        <v>0</v>
+      </c>
+      <c r="H149" s="31"/>
       <c r="I149" s="9" t="s">
         <v>474</v>
       </c>
@@ -7356,10 +7484,10 @@
       <c r="F150" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="G150" s="32">
-        <v>0</v>
-      </c>
-      <c r="H150" s="32"/>
+      <c r="G150" s="31">
+        <v>0</v>
+      </c>
+      <c r="H150" s="31"/>
       <c r="I150" s="9" t="s">
         <v>478</v>
       </c>
@@ -7383,10 +7511,10 @@
       <c r="F151" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G151" s="32">
-        <v>0</v>
-      </c>
-      <c r="H151" s="32"/>
+      <c r="G151" s="31">
+        <v>0</v>
+      </c>
+      <c r="H151" s="31"/>
       <c r="I151" s="9" t="s">
         <v>481</v>
       </c>
@@ -7410,10 +7538,10 @@
       <c r="F152" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G152" s="32">
-        <v>0</v>
-      </c>
-      <c r="H152" s="32"/>
+      <c r="G152" s="31">
+        <v>0</v>
+      </c>
+      <c r="H152" s="31"/>
       <c r="I152" s="9" t="s">
         <v>484</v>
       </c>
@@ -7437,10 +7565,10 @@
       <c r="F153" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G153" s="32">
-        <v>0</v>
-      </c>
-      <c r="H153" s="32"/>
+      <c r="G153" s="31">
+        <v>0</v>
+      </c>
+      <c r="H153" s="31"/>
       <c r="I153" s="9" t="s">
         <v>487</v>
       </c>
@@ -7464,10 +7592,10 @@
       <c r="F154" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G154" s="32">
-        <v>0</v>
-      </c>
-      <c r="H154" s="32"/>
+      <c r="G154" s="31">
+        <v>0</v>
+      </c>
+      <c r="H154" s="31"/>
       <c r="I154" s="9" t="s">
         <v>490</v>
       </c>
@@ -7491,10 +7619,10 @@
       <c r="F155" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="G155" s="32">
-        <v>0</v>
-      </c>
-      <c r="H155" s="32"/>
+      <c r="G155" s="31">
+        <v>0</v>
+      </c>
+      <c r="H155" s="31"/>
       <c r="I155" s="9" t="s">
         <v>493</v>
       </c>
@@ -7518,10 +7646,10 @@
       <c r="F156" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G156" s="32">
-        <v>0</v>
-      </c>
-      <c r="H156" s="32"/>
+      <c r="G156" s="31">
+        <v>0</v>
+      </c>
+      <c r="H156" s="31"/>
       <c r="I156" s="9" t="s">
         <v>495</v>
       </c>
@@ -7545,10 +7673,10 @@
       <c r="F157" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G157" s="32">
-        <v>0</v>
-      </c>
-      <c r="H157" s="32"/>
+      <c r="G157" s="31">
+        <v>0</v>
+      </c>
+      <c r="H157" s="31"/>
       <c r="I157" s="9" t="s">
         <v>498</v>
       </c>
@@ -7572,10 +7700,10 @@
       <c r="F158" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="G158" s="32">
-        <v>0</v>
-      </c>
-      <c r="H158" s="32"/>
+      <c r="G158" s="31">
+        <v>0</v>
+      </c>
+      <c r="H158" s="31"/>
       <c r="I158" s="9" t="s">
         <v>501</v>
       </c>
@@ -7599,10 +7727,10 @@
       <c r="F159" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G159" s="32">
-        <v>0</v>
-      </c>
-      <c r="H159" s="32"/>
+      <c r="G159" s="31">
+        <v>0</v>
+      </c>
+      <c r="H159" s="31"/>
       <c r="I159" s="9" t="s">
         <v>504</v>
       </c>
@@ -7626,10 +7754,10 @@
       <c r="F160" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G160" s="32">
-        <v>0</v>
-      </c>
-      <c r="H160" s="32"/>
+      <c r="G160" s="31">
+        <v>0</v>
+      </c>
+      <c r="H160" s="31"/>
       <c r="I160" s="9" t="s">
         <v>507</v>
       </c>
@@ -7653,10 +7781,10 @@
       <c r="F161" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="G161" s="32">
-        <v>0</v>
-      </c>
-      <c r="H161" s="32"/>
+      <c r="G161" s="31">
+        <v>0</v>
+      </c>
+      <c r="H161" s="31"/>
       <c r="I161" s="9" t="s">
         <v>510</v>
       </c>
@@ -7680,10 +7808,10 @@
       <c r="F162" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="G162" s="32">
-        <v>0</v>
-      </c>
-      <c r="H162" s="32"/>
+      <c r="G162" s="31">
+        <v>0</v>
+      </c>
+      <c r="H162" s="31"/>
       <c r="I162" s="9" t="s">
         <v>513</v>
       </c>
@@ -7707,10 +7835,10 @@
       <c r="F163" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="G163" s="32">
-        <v>0</v>
-      </c>
-      <c r="H163" s="32"/>
+      <c r="G163" s="31">
+        <v>0</v>
+      </c>
+      <c r="H163" s="31"/>
       <c r="I163" s="9" t="s">
         <v>516</v>
       </c>
@@ -7734,10 +7862,10 @@
       <c r="F164" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G164" s="32">
-        <v>0</v>
-      </c>
-      <c r="H164" s="32"/>
+      <c r="G164" s="31">
+        <v>0</v>
+      </c>
+      <c r="H164" s="31"/>
       <c r="I164" s="9" t="s">
         <v>518</v>
       </c>
@@ -7761,10 +7889,10 @@
       <c r="F165" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="G165" s="32">
-        <v>0</v>
-      </c>
-      <c r="H165" s="32"/>
+      <c r="G165" s="31">
+        <v>0</v>
+      </c>
+      <c r="H165" s="31"/>
       <c r="I165" s="9" t="s">
         <v>521</v>
       </c>
@@ -7788,10 +7916,10 @@
       <c r="F166" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="G166" s="32">
-        <v>0</v>
-      </c>
-      <c r="H166" s="32"/>
+      <c r="G166" s="31">
+        <v>0</v>
+      </c>
+      <c r="H166" s="31"/>
       <c r="I166" s="9" t="s">
         <v>524</v>
       </c>
@@ -7815,10 +7943,10 @@
       <c r="F167" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="G167" s="32">
-        <v>0</v>
-      </c>
-      <c r="H167" s="32"/>
+      <c r="G167" s="31">
+        <v>0</v>
+      </c>
+      <c r="H167" s="31"/>
       <c r="I167" s="9" t="s">
         <v>527</v>
       </c>
@@ -7842,10 +7970,10 @@
       <c r="F168" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="G168" s="32">
-        <v>0</v>
-      </c>
-      <c r="H168" s="32"/>
+      <c r="G168" s="31">
+        <v>0</v>
+      </c>
+      <c r="H168" s="31"/>
       <c r="I168" s="9" t="s">
         <v>530</v>
       </c>
@@ -7869,10 +7997,10 @@
       <c r="F169" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G169" s="32">
-        <v>0</v>
-      </c>
-      <c r="H169" s="32"/>
+      <c r="G169" s="31">
+        <v>0</v>
+      </c>
+      <c r="H169" s="31"/>
       <c r="I169" s="9" t="s">
         <v>533</v>
       </c>
@@ -7896,10 +8024,10 @@
       <c r="F170" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="G170" s="32">
-        <v>0</v>
-      </c>
-      <c r="H170" s="32"/>
+      <c r="G170" s="31">
+        <v>0</v>
+      </c>
+      <c r="H170" s="31"/>
       <c r="I170" s="9" t="s">
         <v>536</v>
       </c>
@@ -7923,10 +8051,10 @@
       <c r="F171" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="G171" s="32">
-        <v>0</v>
-      </c>
-      <c r="H171" s="32"/>
+      <c r="G171" s="31">
+        <v>0</v>
+      </c>
+      <c r="H171" s="31"/>
       <c r="I171" s="9" t="s">
         <v>539</v>
       </c>
@@ -7950,10 +8078,10 @@
       <c r="F172" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="G172" s="32">
-        <v>0</v>
-      </c>
-      <c r="H172" s="32"/>
+      <c r="G172" s="31">
+        <v>0</v>
+      </c>
+      <c r="H172" s="31"/>
       <c r="I172" s="9" t="s">
         <v>542</v>
       </c>
@@ -7977,10 +8105,10 @@
       <c r="F173" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="G173" s="32">
-        <v>0</v>
-      </c>
-      <c r="H173" s="32"/>
+      <c r="G173" s="31">
+        <v>0</v>
+      </c>
+      <c r="H173" s="31"/>
       <c r="I173" s="9" t="s">
         <v>544</v>
       </c>
@@ -8004,10 +8132,10 @@
       <c r="F174" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="G174" s="32">
-        <v>0</v>
-      </c>
-      <c r="H174" s="32"/>
+      <c r="G174" s="31">
+        <v>0</v>
+      </c>
+      <c r="H174" s="31"/>
       <c r="I174" s="9" t="s">
         <v>547</v>
       </c>
@@ -8031,10 +8159,10 @@
       <c r="F175" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="G175" s="32">
-        <v>0</v>
-      </c>
-      <c r="H175" s="32"/>
+      <c r="G175" s="31">
+        <v>0</v>
+      </c>
+      <c r="H175" s="31"/>
       <c r="I175" s="9" t="s">
         <v>550</v>
       </c>
@@ -8058,10 +8186,10 @@
       <c r="F176" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="G176" s="32">
-        <v>0</v>
-      </c>
-      <c r="H176" s="32"/>
+      <c r="G176" s="31">
+        <v>0</v>
+      </c>
+      <c r="H176" s="31"/>
       <c r="I176" s="9" t="s">
         <v>553</v>
       </c>
@@ -8085,10 +8213,10 @@
       <c r="F177" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="G177" s="32">
-        <v>0</v>
-      </c>
-      <c r="H177" s="32"/>
+      <c r="G177" s="31">
+        <v>0</v>
+      </c>
+      <c r="H177" s="31"/>
       <c r="I177" s="9" t="s">
         <v>556</v>
       </c>
@@ -8112,10 +8240,10 @@
       <c r="F178" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="G178" s="32">
-        <v>0</v>
-      </c>
-      <c r="H178" s="32"/>
+      <c r="G178" s="31">
+        <v>0</v>
+      </c>
+      <c r="H178" s="31"/>
       <c r="I178" s="9" t="s">
         <v>560</v>
       </c>
@@ -8139,10 +8267,10 @@
       <c r="F179" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G179" s="32">
-        <v>0</v>
-      </c>
-      <c r="H179" s="32"/>
+      <c r="G179" s="31">
+        <v>0</v>
+      </c>
+      <c r="H179" s="31"/>
       <c r="I179" s="9" t="s">
         <v>563</v>
       </c>
@@ -8166,10 +8294,10 @@
       <c r="F180" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="G180" s="32">
-        <v>0</v>
-      </c>
-      <c r="H180" s="32"/>
+      <c r="G180" s="31">
+        <v>0</v>
+      </c>
+      <c r="H180" s="31"/>
       <c r="I180" s="9" t="s">
         <v>566</v>
       </c>
@@ -8193,10 +8321,10 @@
       <c r="F181" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="G181" s="32">
-        <v>0</v>
-      </c>
-      <c r="H181" s="32"/>
+      <c r="G181" s="31">
+        <v>0</v>
+      </c>
+      <c r="H181" s="31"/>
       <c r="I181" s="9" t="s">
         <v>568</v>
       </c>
@@ -8220,10 +8348,10 @@
       <c r="F182" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G182" s="32">
-        <v>0</v>
-      </c>
-      <c r="H182" s="32"/>
+      <c r="G182" s="31">
+        <v>0</v>
+      </c>
+      <c r="H182" s="31"/>
       <c r="I182" s="9" t="s">
         <v>459</v>
       </c>
@@ -8247,10 +8375,10 @@
       <c r="F183" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G183" s="32">
-        <v>0</v>
-      </c>
-      <c r="H183" s="32"/>
+      <c r="G183" s="31">
+        <v>0</v>
+      </c>
+      <c r="H183" s="31"/>
       <c r="I183" s="9" t="s">
         <v>487</v>
       </c>
@@ -8274,10 +8402,10 @@
       <c r="F184" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G184" s="32">
-        <v>0</v>
-      </c>
-      <c r="H184" s="32"/>
+      <c r="G184" s="31">
+        <v>0</v>
+      </c>
+      <c r="H184" s="31"/>
       <c r="I184" s="9" t="s">
         <v>571</v>
       </c>
@@ -8301,10 +8429,10 @@
       <c r="F185" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G185" s="32">
-        <v>0</v>
-      </c>
-      <c r="H185" s="32"/>
+      <c r="G185" s="31">
+        <v>0</v>
+      </c>
+      <c r="H185" s="31"/>
       <c r="I185" s="9" t="s">
         <v>572</v>
       </c>
@@ -8328,10 +8456,10 @@
       <c r="F186" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G186" s="32">
-        <v>0</v>
-      </c>
-      <c r="H186" s="32"/>
+      <c r="G186" s="31">
+        <v>0</v>
+      </c>
+      <c r="H186" s="31"/>
       <c r="I186" s="9" t="s">
         <v>481</v>
       </c>
@@ -8355,10 +8483,10 @@
       <c r="F187" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G187" s="32">
-        <v>0</v>
-      </c>
-      <c r="H187" s="32"/>
+      <c r="G187" s="31">
+        <v>0</v>
+      </c>
+      <c r="H187" s="31"/>
       <c r="I187" s="9" t="s">
         <v>573</v>
       </c>
@@ -8382,10 +8510,10 @@
       <c r="F188" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G188" s="32">
-        <v>0</v>
-      </c>
-      <c r="H188" s="32"/>
+      <c r="G188" s="31">
+        <v>0</v>
+      </c>
+      <c r="H188" s="31"/>
       <c r="I188" s="9" t="s">
         <v>574</v>
       </c>
@@ -8409,10 +8537,10 @@
       <c r="F189" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="32">
-        <v>0</v>
-      </c>
-      <c r="H189" s="32"/>
+      <c r="G189" s="31">
+        <v>0</v>
+      </c>
+      <c r="H189" s="31"/>
       <c r="I189" s="9" t="s">
         <v>577</v>
       </c>
@@ -8436,10 +8564,10 @@
       <c r="F190" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="G190" s="32">
-        <v>0</v>
-      </c>
-      <c r="H190" s="32"/>
+      <c r="G190" s="31">
+        <v>0</v>
+      </c>
+      <c r="H190" s="31"/>
       <c r="I190" s="9" t="s">
         <v>580</v>
       </c>
@@ -8463,10 +8591,10 @@
       <c r="F191" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G191" s="32">
-        <v>0</v>
-      </c>
-      <c r="H191" s="32"/>
+      <c r="G191" s="31">
+        <v>0</v>
+      </c>
+      <c r="H191" s="31"/>
       <c r="I191" s="9" t="s">
         <v>583</v>
       </c>
@@ -8490,10 +8618,10 @@
       <c r="F192" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G192" s="32">
-        <v>0</v>
-      </c>
-      <c r="H192" s="32"/>
+      <c r="G192" s="31">
+        <v>0</v>
+      </c>
+      <c r="H192" s="31"/>
       <c r="I192" s="9" t="s">
         <v>498</v>
       </c>
@@ -8517,10 +8645,10 @@
       <c r="F193" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="G193" s="32">
-        <v>0</v>
-      </c>
-      <c r="H193" s="32"/>
+      <c r="G193" s="31">
+        <v>0</v>
+      </c>
+      <c r="H193" s="31"/>
       <c r="I193" s="9" t="s">
         <v>586</v>
       </c>
@@ -8544,10 +8672,10 @@
       <c r="F194" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G194" s="32">
-        <v>0</v>
-      </c>
-      <c r="H194" s="32"/>
+      <c r="G194" s="31">
+        <v>0</v>
+      </c>
+      <c r="H194" s="31"/>
       <c r="I194" s="9" t="s">
         <v>587</v>
       </c>
@@ -8571,10 +8699,10 @@
       <c r="F195" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G195" s="32">
-        <v>0</v>
-      </c>
-      <c r="H195" s="32"/>
+      <c r="G195" s="31">
+        <v>0</v>
+      </c>
+      <c r="H195" s="31"/>
       <c r="I195" s="9" t="s">
         <v>588</v>
       </c>
@@ -8598,10 +8726,10 @@
       <c r="F196" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="G196" s="32">
-        <v>0</v>
-      </c>
-      <c r="H196" s="32"/>
+      <c r="G196" s="31">
+        <v>0</v>
+      </c>
+      <c r="H196" s="31"/>
       <c r="I196" s="9" t="s">
         <v>591</v>
       </c>
@@ -8625,10 +8753,10 @@
       <c r="F197" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="G197" s="32">
-        <v>0</v>
-      </c>
-      <c r="H197" s="32"/>
+      <c r="G197" s="31">
+        <v>0</v>
+      </c>
+      <c r="H197" s="31"/>
       <c r="I197" s="9" t="s">
         <v>594</v>
       </c>
@@ -8652,10 +8780,10 @@
       <c r="F198" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="G198" s="32">
-        <v>0</v>
-      </c>
-      <c r="H198" s="32"/>
+      <c r="G198" s="31">
+        <v>0</v>
+      </c>
+      <c r="H198" s="31"/>
       <c r="I198" s="9" t="s">
         <v>597</v>
       </c>
@@ -8679,10 +8807,10 @@
       <c r="F199" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="G199" s="32">
-        <v>0</v>
-      </c>
-      <c r="H199" s="32"/>
+      <c r="G199" s="31">
+        <v>0</v>
+      </c>
+      <c r="H199" s="31"/>
       <c r="I199" s="9" t="s">
         <v>600</v>
       </c>
@@ -8706,10 +8834,10 @@
       <c r="F200" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="G200" s="32">
-        <v>0</v>
-      </c>
-      <c r="H200" s="32"/>
+      <c r="G200" s="31">
+        <v>0</v>
+      </c>
+      <c r="H200" s="31"/>
       <c r="I200" s="9" t="s">
         <v>527</v>
       </c>
@@ -8733,10 +8861,10 @@
       <c r="F201" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="G201" s="32">
-        <v>0</v>
-      </c>
-      <c r="H201" s="32"/>
+      <c r="G201" s="31">
+        <v>0</v>
+      </c>
+      <c r="H201" s="31"/>
       <c r="I201" s="9" t="s">
         <v>603</v>
       </c>
@@ -8760,10 +8888,10 @@
       <c r="F202" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="G202" s="32">
-        <v>0</v>
-      </c>
-      <c r="H202" s="32"/>
+      <c r="G202" s="31">
+        <v>0</v>
+      </c>
+      <c r="H202" s="31"/>
       <c r="I202" s="9" t="s">
         <v>606</v>
       </c>
@@ -8787,10 +8915,10 @@
       <c r="F203" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="G203" s="32">
-        <v>0</v>
-      </c>
-      <c r="H203" s="32"/>
+      <c r="G203" s="31">
+        <v>0</v>
+      </c>
+      <c r="H203" s="31"/>
       <c r="I203" s="9" t="s">
         <v>609</v>
       </c>
@@ -8814,10 +8942,10 @@
       <c r="F204" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G204" s="32">
-        <v>0</v>
-      </c>
-      <c r="H204" s="32"/>
+      <c r="G204" s="31">
+        <v>0</v>
+      </c>
+      <c r="H204" s="31"/>
       <c r="I204" s="9" t="s">
         <v>468</v>
       </c>
@@ -8841,10 +8969,10 @@
       <c r="F205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="G205" s="32">
-        <v>0</v>
-      </c>
-      <c r="H205" s="32"/>
+      <c r="G205" s="31">
+        <v>0</v>
+      </c>
+      <c r="H205" s="31"/>
       <c r="I205" s="9" t="s">
         <v>612</v>
       </c>
@@ -8868,10 +8996,10 @@
       <c r="F206" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G206" s="32">
-        <v>0</v>
-      </c>
-      <c r="H206" s="32"/>
+      <c r="G206" s="31">
+        <v>0</v>
+      </c>
+      <c r="H206" s="31"/>
       <c r="I206" s="9" t="s">
         <v>615</v>
       </c>
@@ -8895,10 +9023,10 @@
       <c r="F207" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G207" s="32">
-        <v>0</v>
-      </c>
-      <c r="H207" s="32"/>
+      <c r="G207" s="31">
+        <v>0</v>
+      </c>
+      <c r="H207" s="31"/>
       <c r="I207" s="9" t="s">
         <v>618</v>
       </c>
@@ -8922,10 +9050,10 @@
       <c r="F208" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G208" s="32">
-        <v>0</v>
-      </c>
-      <c r="H208" s="32"/>
+      <c r="G208" s="31">
+        <v>0</v>
+      </c>
+      <c r="H208" s="31"/>
       <c r="I208" s="9" t="s">
         <v>619</v>
       </c>
@@ -8949,10 +9077,10 @@
       <c r="F209" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="G209" s="32">
-        <v>0</v>
-      </c>
-      <c r="H209" s="32"/>
+      <c r="G209" s="31">
+        <v>0</v>
+      </c>
+      <c r="H209" s="31"/>
       <c r="I209" s="9" t="s">
         <v>622</v>
       </c>
@@ -8976,10 +9104,10 @@
       <c r="F210" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G210" s="32">
-        <v>0</v>
-      </c>
-      <c r="H210" s="32"/>
+      <c r="G210" s="31">
+        <v>0</v>
+      </c>
+      <c r="H210" s="31"/>
       <c r="I210" s="9" t="s">
         <v>625</v>
       </c>
@@ -9003,10 +9131,10 @@
       <c r="F211" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="G211" s="32">
-        <v>0</v>
-      </c>
-      <c r="H211" s="32"/>
+      <c r="G211" s="31">
+        <v>0</v>
+      </c>
+      <c r="H211" s="31"/>
       <c r="I211" s="9" t="s">
         <v>628</v>
       </c>
@@ -9030,10 +9158,10 @@
       <c r="F212" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G212" s="32">
-        <v>0</v>
-      </c>
-      <c r="H212" s="32"/>
+      <c r="G212" s="31">
+        <v>0</v>
+      </c>
+      <c r="H212" s="31"/>
       <c r="I212" s="9" t="s">
         <v>629</v>
       </c>
@@ -9057,10 +9185,10 @@
       <c r="F213" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="G213" s="32">
-        <v>0</v>
-      </c>
-      <c r="H213" s="32"/>
+      <c r="G213" s="31">
+        <v>0</v>
+      </c>
+      <c r="H213" s="31"/>
       <c r="I213" s="9" t="s">
         <v>632</v>
       </c>
@@ -9084,10 +9212,10 @@
       <c r="F214" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G214" s="32">
-        <v>0</v>
-      </c>
-      <c r="H214" s="32"/>
+      <c r="G214" s="31">
+        <v>0</v>
+      </c>
+      <c r="H214" s="31"/>
       <c r="I214" s="9" t="s">
         <v>635</v>
       </c>
@@ -9111,10 +9239,10 @@
       <c r="F215" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="G215" s="32">
-        <v>0</v>
-      </c>
-      <c r="H215" s="32"/>
+      <c r="G215" s="31">
+        <v>0</v>
+      </c>
+      <c r="H215" s="31"/>
       <c r="I215" s="9" t="s">
         <v>638</v>
       </c>
@@ -9138,10 +9266,10 @@
       <c r="F216" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G216" s="32">
-        <v>0</v>
-      </c>
-      <c r="H216" s="32"/>
+      <c r="G216" s="31">
+        <v>0</v>
+      </c>
+      <c r="H216" s="31"/>
       <c r="I216" s="9" t="s">
         <v>641</v>
       </c>
@@ -9165,10 +9293,10 @@
       <c r="F217" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G217" s="32">
-        <v>0</v>
-      </c>
-      <c r="H217" s="32"/>
+      <c r="G217" s="31">
+        <v>0</v>
+      </c>
+      <c r="H217" s="31"/>
       <c r="I217" s="9" t="s">
         <v>644</v>
       </c>
@@ -9192,10 +9320,10 @@
       <c r="F218" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G218" s="32">
-        <v>0</v>
-      </c>
-      <c r="H218" s="32"/>
+      <c r="G218" s="31">
+        <v>0</v>
+      </c>
+      <c r="H218" s="31"/>
       <c r="I218" s="9" t="s">
         <v>648</v>
       </c>
@@ -9219,10 +9347,10 @@
       <c r="F219" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="G219" s="32">
-        <v>0</v>
-      </c>
-      <c r="H219" s="32"/>
+      <c r="G219" s="31">
+        <v>0</v>
+      </c>
+      <c r="H219" s="31"/>
       <c r="I219" s="9" t="s">
         <v>651</v>
       </c>
@@ -9246,10 +9374,10 @@
       <c r="F220" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="G220" s="32">
-        <v>0</v>
-      </c>
-      <c r="H220" s="32"/>
+      <c r="G220" s="31">
+        <v>0</v>
+      </c>
+      <c r="H220" s="31"/>
       <c r="I220" s="9" t="s">
         <v>654</v>
       </c>
@@ -9273,10 +9401,10 @@
       <c r="F221" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="G221" s="32">
-        <v>0</v>
-      </c>
-      <c r="H221" s="32"/>
+      <c r="G221" s="31">
+        <v>0</v>
+      </c>
+      <c r="H221" s="31"/>
       <c r="I221" s="9" t="s">
         <v>657</v>
       </c>
@@ -9300,10 +9428,10 @@
       <c r="F222" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G222" s="32">
-        <v>0</v>
-      </c>
-      <c r="H222" s="32"/>
+      <c r="G222" s="31">
+        <v>0</v>
+      </c>
+      <c r="H222" s="31"/>
       <c r="I222" s="9" t="s">
         <v>661</v>
       </c>
@@ -9327,10 +9455,10 @@
       <c r="F223" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="G223" s="32">
-        <v>0</v>
-      </c>
-      <c r="H223" s="32"/>
+      <c r="G223" s="31">
+        <v>0</v>
+      </c>
+      <c r="H223" s="31"/>
       <c r="I223" s="9" t="s">
         <v>664</v>
       </c>
@@ -9354,10 +9482,10 @@
       <c r="F224" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="G224" s="32">
-        <v>0</v>
-      </c>
-      <c r="H224" s="32"/>
+      <c r="G224" s="31">
+        <v>0</v>
+      </c>
+      <c r="H224" s="31"/>
       <c r="I224" s="9" t="s">
         <v>667</v>
       </c>
@@ -9381,10 +9509,10 @@
       <c r="F225" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="G225" s="32">
-        <v>0</v>
-      </c>
-      <c r="H225" s="32"/>
+      <c r="G225" s="31">
+        <v>0</v>
+      </c>
+      <c r="H225" s="31"/>
       <c r="I225" s="9" t="s">
         <v>670</v>
       </c>
@@ -9408,10 +9536,10 @@
       <c r="F226" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="G226" s="32">
-        <v>0</v>
-      </c>
-      <c r="H226" s="32"/>
+      <c r="G226" s="31">
+        <v>0</v>
+      </c>
+      <c r="H226" s="31"/>
       <c r="I226" s="9" t="s">
         <v>673</v>
       </c>
@@ -9435,10 +9563,10 @@
       <c r="F227" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="G227" s="32">
-        <v>0</v>
-      </c>
-      <c r="H227" s="32"/>
+      <c r="G227" s="31">
+        <v>0</v>
+      </c>
+      <c r="H227" s="31"/>
       <c r="I227" s="9" t="s">
         <v>676</v>
       </c>
@@ -9462,10 +9590,10 @@
       <c r="F228" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="G228" s="32">
-        <v>0</v>
-      </c>
-      <c r="H228" s="32"/>
+      <c r="G228" s="31">
+        <v>0</v>
+      </c>
+      <c r="H228" s="31"/>
       <c r="I228" s="9" t="s">
         <v>679</v>
       </c>
@@ -9489,10 +9617,10 @@
       <c r="F229" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="G229" s="32">
-        <v>0</v>
-      </c>
-      <c r="H229" s="32"/>
+      <c r="G229" s="31">
+        <v>0</v>
+      </c>
+      <c r="H229" s="31"/>
       <c r="I229" s="9" t="s">
         <v>682</v>
       </c>
@@ -9516,10 +9644,10 @@
       <c r="F230" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="G230" s="32">
-        <v>0</v>
-      </c>
-      <c r="H230" s="32"/>
+      <c r="G230" s="31">
+        <v>0</v>
+      </c>
+      <c r="H230" s="31"/>
       <c r="I230" s="9" t="s">
         <v>685</v>
       </c>
@@ -9543,10 +9671,10 @@
       <c r="F231" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G231" s="32">
-        <v>0</v>
-      </c>
-      <c r="H231" s="32"/>
+      <c r="G231" s="31">
+        <v>0</v>
+      </c>
+      <c r="H231" s="31"/>
       <c r="I231" s="9" t="s">
         <v>688</v>
       </c>
@@ -9570,10 +9698,10 @@
       <c r="F232" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="G232" s="32">
-        <v>0</v>
-      </c>
-      <c r="H232" s="32"/>
+      <c r="G232" s="31">
+        <v>0</v>
+      </c>
+      <c r="H232" s="31"/>
       <c r="I232" s="9" t="s">
         <v>691</v>
       </c>
@@ -9597,10 +9725,10 @@
       <c r="F233" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="G233" s="32">
-        <v>0</v>
-      </c>
-      <c r="H233" s="32"/>
+      <c r="G233" s="31">
+        <v>0</v>
+      </c>
+      <c r="H233" s="31"/>
       <c r="I233" s="9" t="s">
         <v>694</v>
       </c>
@@ -9624,10 +9752,10 @@
       <c r="F234" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="G234" s="32">
-        <v>0</v>
-      </c>
-      <c r="H234" s="32"/>
+      <c r="G234" s="31">
+        <v>0</v>
+      </c>
+      <c r="H234" s="31"/>
       <c r="I234" s="9" t="s">
         <v>697</v>
       </c>
@@ -9651,10 +9779,10 @@
       <c r="F235" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="G235" s="32">
-        <v>0</v>
-      </c>
-      <c r="H235" s="32"/>
+      <c r="G235" s="31">
+        <v>0</v>
+      </c>
+      <c r="H235" s="31"/>
       <c r="I235" s="9" t="s">
         <v>700</v>
       </c>
@@ -9678,10 +9806,10 @@
       <c r="F236" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G236" s="32">
-        <v>0</v>
-      </c>
-      <c r="H236" s="32"/>
+      <c r="G236" s="31">
+        <v>0</v>
+      </c>
+      <c r="H236" s="31"/>
       <c r="I236" s="9" t="s">
         <v>703</v>
       </c>
@@ -9705,10 +9833,10 @@
       <c r="F237" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="G237" s="32">
-        <v>0</v>
-      </c>
-      <c r="H237" s="32"/>
+      <c r="G237" s="31">
+        <v>0</v>
+      </c>
+      <c r="H237" s="31"/>
       <c r="I237" s="9" t="s">
         <v>706</v>
       </c>
@@ -9732,10 +9860,10 @@
       <c r="F238" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="G238" s="32">
-        <v>0</v>
-      </c>
-      <c r="H238" s="32"/>
+      <c r="G238" s="31">
+        <v>0</v>
+      </c>
+      <c r="H238" s="31"/>
       <c r="I238" s="9" t="s">
         <v>710</v>
       </c>
@@ -9759,10 +9887,10 @@
       <c r="F239" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="G239" s="32">
-        <v>0</v>
-      </c>
-      <c r="H239" s="32"/>
+      <c r="G239" s="31">
+        <v>0</v>
+      </c>
+      <c r="H239" s="31"/>
       <c r="I239" s="9" t="s">
         <v>713</v>
       </c>
@@ -9786,10 +9914,10 @@
       <c r="F240" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G240" s="32">
-        <v>0</v>
-      </c>
-      <c r="H240" s="32"/>
+      <c r="G240" s="31">
+        <v>0</v>
+      </c>
+      <c r="H240" s="31"/>
       <c r="I240" s="9" t="s">
         <v>716</v>
       </c>
@@ -9813,10 +9941,10 @@
       <c r="F241" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="G241" s="32">
-        <v>0</v>
-      </c>
-      <c r="H241" s="32"/>
+      <c r="G241" s="31">
+        <v>0</v>
+      </c>
+      <c r="H241" s="31"/>
       <c r="I241" s="9" t="s">
         <v>719</v>
       </c>
@@ -9840,10 +9968,10 @@
       <c r="F242" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="G242" s="32">
-        <v>0</v>
-      </c>
-      <c r="H242" s="32"/>
+      <c r="G242" s="31">
+        <v>0</v>
+      </c>
+      <c r="H242" s="31"/>
       <c r="I242" s="9" t="s">
         <v>722</v>
       </c>
@@ -9867,10 +9995,10 @@
       <c r="F243" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G243" s="32">
-        <v>0</v>
-      </c>
-      <c r="H243" s="32"/>
+      <c r="G243" s="31">
+        <v>0</v>
+      </c>
+      <c r="H243" s="31"/>
       <c r="I243" s="9" t="s">
         <v>725</v>
       </c>
@@ -9894,10 +10022,10 @@
       <c r="F244" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="G244" s="32">
-        <v>0</v>
-      </c>
-      <c r="H244" s="32"/>
+      <c r="G244" s="31">
+        <v>0</v>
+      </c>
+      <c r="H244" s="31"/>
       <c r="I244" s="9" t="s">
         <v>728</v>
       </c>
@@ -9921,10 +10049,10 @@
       <c r="F245" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="G245" s="32">
-        <v>0</v>
-      </c>
-      <c r="H245" s="32"/>
+      <c r="G245" s="31">
+        <v>0</v>
+      </c>
+      <c r="H245" s="31"/>
       <c r="I245" s="9" t="s">
         <v>732</v>
       </c>
@@ -9948,10 +10076,10 @@
       <c r="F246" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="G246" s="32">
-        <v>0</v>
-      </c>
-      <c r="H246" s="32"/>
+      <c r="G246" s="31">
+        <v>0</v>
+      </c>
+      <c r="H246" s="31"/>
       <c r="I246" s="9" t="s">
         <v>735</v>
       </c>
@@ -9975,10 +10103,10 @@
       <c r="F247" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="G247" s="32">
-        <v>0</v>
-      </c>
-      <c r="H247" s="32"/>
+      <c r="G247" s="31">
+        <v>0</v>
+      </c>
+      <c r="H247" s="31"/>
       <c r="I247" s="9" t="s">
         <v>738</v>
       </c>
@@ -10002,10 +10130,10 @@
       <c r="F248" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="G248" s="32">
-        <v>0</v>
-      </c>
-      <c r="H248" s="32"/>
+      <c r="G248" s="31">
+        <v>0</v>
+      </c>
+      <c r="H248" s="31"/>
       <c r="I248" s="9" t="s">
         <v>742</v>
       </c>
@@ -10029,10 +10157,10 @@
       <c r="F249" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="G249" s="32">
-        <v>0</v>
-      </c>
-      <c r="H249" s="32"/>
+      <c r="G249" s="31">
+        <v>0</v>
+      </c>
+      <c r="H249" s="31"/>
       <c r="I249" s="9" t="s">
         <v>745</v>
       </c>
@@ -10056,10 +10184,10 @@
       <c r="F250" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="G250" s="32">
-        <v>0</v>
-      </c>
-      <c r="H250" s="32"/>
+      <c r="G250" s="31">
+        <v>0</v>
+      </c>
+      <c r="H250" s="31"/>
       <c r="I250" s="9" t="s">
         <v>748</v>
       </c>
@@ -10083,10 +10211,10 @@
       <c r="F251" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G251" s="32">
-        <v>0</v>
-      </c>
-      <c r="H251" s="32"/>
+      <c r="G251" s="31">
+        <v>0</v>
+      </c>
+      <c r="H251" s="31"/>
       <c r="I251" s="9" t="s">
         <v>751</v>
       </c>
@@ -10110,10 +10238,10 @@
       <c r="F252" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="G252" s="32">
-        <v>0</v>
-      </c>
-      <c r="H252" s="32"/>
+      <c r="G252" s="31">
+        <v>0</v>
+      </c>
+      <c r="H252" s="31"/>
       <c r="I252" s="9" t="s">
         <v>754</v>
       </c>
@@ -10137,10 +10265,10 @@
       <c r="F253" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G253" s="32">
-        <v>0</v>
-      </c>
-      <c r="H253" s="32"/>
+      <c r="G253" s="31">
+        <v>0</v>
+      </c>
+      <c r="H253" s="31"/>
       <c r="I253" s="9" t="s">
         <v>757</v>
       </c>
@@ -10164,10 +10292,10 @@
       <c r="F254" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="G254" s="32">
-        <v>0</v>
-      </c>
-      <c r="H254" s="32"/>
+      <c r="G254" s="31">
+        <v>0</v>
+      </c>
+      <c r="H254" s="31"/>
       <c r="I254" s="9" t="s">
         <v>760</v>
       </c>
@@ -10191,10 +10319,10 @@
       <c r="F255" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="G255" s="32">
-        <v>0</v>
-      </c>
-      <c r="H255" s="32"/>
+      <c r="G255" s="31">
+        <v>0</v>
+      </c>
+      <c r="H255" s="31"/>
       <c r="I255" s="9" t="s">
         <v>763</v>
       </c>
@@ -10218,10 +10346,10 @@
       <c r="F256" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="G256" s="32">
-        <v>0</v>
-      </c>
-      <c r="H256" s="32"/>
+      <c r="G256" s="31">
+        <v>0</v>
+      </c>
+      <c r="H256" s="31"/>
       <c r="I256" s="9" t="s">
         <v>766</v>
       </c>
@@ -10245,10 +10373,10 @@
       <c r="F257" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="G257" s="32">
-        <v>0</v>
-      </c>
-      <c r="H257" s="32"/>
+      <c r="G257" s="31">
+        <v>0</v>
+      </c>
+      <c r="H257" s="31"/>
       <c r="I257" s="9" t="s">
         <v>769</v>
       </c>
@@ -10272,10 +10400,10 @@
       <c r="F258" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="G258" s="32">
-        <v>0</v>
-      </c>
-      <c r="H258" s="32"/>
+      <c r="G258" s="31">
+        <v>0</v>
+      </c>
+      <c r="H258" s="31"/>
       <c r="I258" s="9" t="s">
         <v>772</v>
       </c>
@@ -10299,10 +10427,10 @@
       <c r="F259" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="G259" s="32">
-        <v>0</v>
-      </c>
-      <c r="H259" s="32"/>
+      <c r="G259" s="31">
+        <v>0</v>
+      </c>
+      <c r="H259" s="31"/>
       <c r="I259" s="9" t="s">
         <v>775</v>
       </c>
@@ -10326,10 +10454,10 @@
       <c r="F260" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="G260" s="32">
-        <v>0</v>
-      </c>
-      <c r="H260" s="32"/>
+      <c r="G260" s="31">
+        <v>0</v>
+      </c>
+      <c r="H260" s="31"/>
       <c r="I260" s="9" t="s">
         <v>778</v>
       </c>
@@ -10353,10 +10481,10 @@
       <c r="F261" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="G261" s="32">
-        <v>0</v>
-      </c>
-      <c r="H261" s="32"/>
+      <c r="G261" s="31">
+        <v>0</v>
+      </c>
+      <c r="H261" s="31"/>
       <c r="I261" s="9" t="s">
         <v>781</v>
       </c>
@@ -10380,10 +10508,10 @@
       <c r="F262" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="G262" s="32">
-        <v>0</v>
-      </c>
-      <c r="H262" s="32"/>
+      <c r="G262" s="31">
+        <v>0</v>
+      </c>
+      <c r="H262" s="31"/>
       <c r="I262" s="9" t="s">
         <v>784</v>
       </c>
@@ -10407,10 +10535,10 @@
       <c r="F263" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="G263" s="32">
-        <v>0</v>
-      </c>
-      <c r="H263" s="32"/>
+      <c r="G263" s="31">
+        <v>0</v>
+      </c>
+      <c r="H263" s="31"/>
       <c r="I263" s="9" t="s">
         <v>787</v>
       </c>
@@ -10434,10 +10562,10 @@
       <c r="F264" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G264" s="32">
-        <v>0</v>
-      </c>
-      <c r="H264" s="32"/>
+      <c r="G264" s="31">
+        <v>0</v>
+      </c>
+      <c r="H264" s="31"/>
       <c r="I264" s="9" t="s">
         <v>790</v>
       </c>
@@ -10461,10 +10589,10 @@
       <c r="F265" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="G265" s="33">
-        <v>0</v>
-      </c>
-      <c r="H265" s="33"/>
+      <c r="G265" s="32">
+        <v>0</v>
+      </c>
+      <c r="H265" s="32"/>
       <c r="I265" s="21" t="s">
         <v>793</v>
       </c>
@@ -10480,10 +10608,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10530,7 +10658,7 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="16">
@@ -10538,14 +10666,14 @@
       </c>
       <c r="F11">
         <f>COUNTIF(Studies!G:G, E11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="13">
         <v>2</v>
       </c>
@@ -10558,7 +10686,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="22">
         <v>3</v>
       </c>
@@ -10571,21 +10699,21 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="23">
         <v>4</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Studies!G:G, E14)</f>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="30"/>
-      <c r="E15" s="28">
+      <c r="D15" s="29"/>
+      <c r="E15" s="27">
         <v>5</v>
       </c>
       <c r="F15">
@@ -10597,13 +10725,13 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="30"/>
-      <c r="E16" s="27">
+      <c r="D16" s="29"/>
+      <c r="E16" s="26">
         <v>6</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Studies!G:G, E16)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>823</v>
@@ -10625,7 +10753,7 @@
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="36" t="s">
         <v>807</v>
       </c>
       <c r="E18" s="18">
@@ -10640,7 +10768,7 @@
       </c>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="26"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="19">
         <v>9</v>
       </c>
@@ -10653,114 +10781,143 @@
       </c>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
+      <c r="D20" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="E20" s="34">
+        <v>-1</v>
       </c>
       <c r="F20">
         <f>COUNTIF(Studies!G:G, E20)</f>
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(Studies!G:G, E21)</f>
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="22" spans="4:7">
-      <c r="D22" t="s">
+    <row r="23" spans="4:7">
+      <c r="D23" t="s">
         <v>847</v>
       </c>
-      <c r="E22">
-        <f>SUM(F11:F19)</f>
-        <v>84</v>
-      </c>
-      <c r="F22" s="31">
-        <f>E22/E22</f>
+      <c r="E23">
+        <f>SUM(F11:F20)</f>
+        <v>132</v>
+      </c>
+      <c r="F23" s="30">
+        <f>E23/E23</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" t="s">
-        <v>846</v>
-      </c>
-      <c r="E24">
-        <f>F11+F14</f>
-        <v>44</v>
-      </c>
-      <c r="F24" s="29">
-        <f>E24/E22</f>
-        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" t="s">
+        <v>846</v>
+      </c>
+      <c r="E25">
+        <f>F11+F14</f>
+        <v>58</v>
+      </c>
+      <c r="F25" s="28">
+        <f>E25/E23</f>
+        <v>0.43939393939393939</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
         <v>835</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f>F13+F15+F17+F18</f>
         <v>16</v>
       </c>
-      <c r="F25" s="29">
-        <f>E25/E22</f>
-        <v>0.19047619047619047</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" t="s">
-        <v>845</v>
-      </c>
-      <c r="E26">
-        <f>F16+F19</f>
-        <v>24</v>
-      </c>
-      <c r="F26" s="29">
-        <f>E26/E22</f>
-        <v>0.2857142857142857</v>
+      <c r="F26" s="28">
+        <f>E26/E23</f>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="27" spans="4:7">
       <c r="D27" t="s">
+        <v>845</v>
+      </c>
+      <c r="E27">
+        <f>F16+F19</f>
+        <v>33</v>
+      </c>
+      <c r="F27" s="28">
+        <f>E27/E23</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" t="s">
         <v>834</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f>F13</f>
         <v>9</v>
       </c>
-      <c r="F27" s="29">
-        <f>F13/E22</f>
-        <v>0.10714285714285714</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" t="s">
-        <v>825</v>
-      </c>
-      <c r="E29">
-        <f>SUM(F11:F19)</f>
-        <v>84</v>
-      </c>
-      <c r="F29" s="29">
-        <f>E29/SUM(F11:F20)</f>
-        <v>0.31818181818181818</v>
+      <c r="F28" s="28">
+        <f>F13/E23</f>
+        <v>6.8181818181818177E-2</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="D30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E30">
+        <f>SUM(F11:F20)</f>
+        <v>132</v>
+      </c>
+      <c r="F30" s="28">
+        <f>E30/SUM(F11:F21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
         <v>836</v>
       </c>
-      <c r="E30">
-        <f>F20</f>
-        <v>180</v>
-      </c>
-      <c r="F30" s="29">
-        <f>F20/SUM(F11:F20)</f>
-        <v>0.68181818181818177</v>
+      <c r="E31">
+        <f>F21</f>
+        <v>132</v>
+      </c>
+      <c r="F31" s="28">
+        <f>F21/SUM(F11:F21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
+        <v>851</v>
+      </c>
+      <c r="E32">
+        <f>E30+E31</f>
+        <v>264</v>
+      </c>
+      <c r="F32" s="28">
+        <f>E32/E32</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D11:D16"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA938AD-370C-B74C-882E-AC7B4406059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45911D-DB93-424C-BC9A-99E63A828322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="0" windowWidth="28460" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="858">
   <si>
     <t>Journal</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>Journal of the European Economic Association</t>
   </si>
   <si>
-    <t>Michael Vlassopoulos</t>
-  </si>
-  <si>
     <t>C Giuletti, M Tonin (2019). Michael Vlassopoulos. … Journal of the European Economic Association.</t>
   </si>
   <si>
@@ -2600,6 +2597,21 @@
   </si>
   <si>
     <t>Meta-analysis</t>
+  </si>
+  <si>
+    <t>RACIAL DISCRIMINATION IN LOCAL PUBLIC SERVICES: A FIELD EXPERIMENT IN THE UNITED STATES</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (knowledge sharing)</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (level of education)</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (cooperation)</t>
+  </si>
+  <si>
+    <t>Irrelevant dependent variable (acceptance)</t>
   </si>
 </sst>
 </file>
@@ -2869,15 +2881,15 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3177,8 +3189,10 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" zoomScale="159" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="135" zoomScaleNormal="131" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A117" sqref="A117"/>
+      <selection pane="topRight" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3189,8 +3203,8 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="190.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3214,10 +3228,10 @@
         <v>39</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>40</v>
@@ -3242,10 +3256,10 @@
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
@@ -3269,11 +3283,11 @@
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>3</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>824</v>
+      <c r="H3" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>44</v>
@@ -3298,11 +3312,11 @@
       <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>6</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>829</v>
+      <c r="H4" s="30" t="s">
+        <v>828</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>47</v>
@@ -3327,11 +3341,11 @@
       <c r="F5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>6</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>809</v>
+      <c r="H5" s="30" t="s">
+        <v>808</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>50</v>
@@ -3356,10 +3370,10 @@
       <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
@@ -3383,10 +3397,10 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>4</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="9" t="s">
         <v>54</v>
       </c>
@@ -3410,11 +3424,11 @@
       <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>4</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>809</v>
+      <c r="H8" s="30" t="s">
+        <v>808</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>56</v>
@@ -3439,11 +3453,11 @@
       <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <v>4</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>809</v>
+      <c r="H9" s="30" t="s">
+        <v>808</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>58</v>
@@ -3468,11 +3482,11 @@
       <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>4</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>826</v>
+      <c r="H10" s="30" t="s">
+        <v>825</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>59</v>
@@ -3497,11 +3511,11 @@
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>4</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>827</v>
+      <c r="H11" s="30" t="s">
+        <v>826</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>61</v>
@@ -3526,11 +3540,11 @@
       <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>4</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>827</v>
+      <c r="H12" s="30" t="s">
+        <v>826</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>63</v>
@@ -3555,10 +3569,10 @@
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>1</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="9" t="s">
         <v>65</v>
       </c>
@@ -3582,11 +3596,11 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>5</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>828</v>
+      <c r="H14" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
@@ -3611,10 +3625,10 @@
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>1</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="9" t="s">
         <v>70</v>
       </c>
@@ -3638,10 +3652,10 @@
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>1</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="9" t="s">
         <v>72</v>
       </c>
@@ -3665,11 +3679,11 @@
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <v>3</v>
       </c>
-      <c r="H17" s="31" t="s">
-        <v>824</v>
+      <c r="H17" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>74</v>
@@ -3694,11 +3708,11 @@
       <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <v>3</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>824</v>
+      <c r="H18" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>76</v>
@@ -3723,11 +3737,11 @@
       <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <v>3</v>
       </c>
-      <c r="H19" s="31" t="s">
-        <v>824</v>
+      <c r="H19" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>78</v>
@@ -3752,11 +3766,11 @@
       <c r="F20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="30">
         <v>6</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>830</v>
+      <c r="H20" s="30" t="s">
+        <v>829</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>82</v>
@@ -3781,11 +3795,11 @@
       <c r="F21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <v>3</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>824</v>
+      <c r="H21" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>84</v>
@@ -3810,11 +3824,11 @@
       <c r="F22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>4</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>826</v>
+      <c r="H22" s="30" t="s">
+        <v>825</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>86</v>
@@ -3839,11 +3853,11 @@
       <c r="F23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <v>6</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>826</v>
+      <c r="H23" s="30" t="s">
+        <v>825</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>89</v>
@@ -3868,10 +3882,10 @@
       <c r="F24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>5</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="9" t="s">
         <v>92</v>
       </c>
@@ -3895,11 +3909,11 @@
       <c r="F25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>6</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>831</v>
+      <c r="H25" s="30" t="s">
+        <v>830</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>95</v>
@@ -3924,11 +3938,11 @@
       <c r="F26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>3</v>
       </c>
-      <c r="H26" s="31" t="s">
-        <v>824</v>
+      <c r="H26" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>97</v>
@@ -3953,11 +3967,11 @@
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>6</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>832</v>
+      <c r="H27" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>99</v>
@@ -3982,11 +3996,11 @@
       <c r="F28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>4</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>833</v>
+      <c r="H28" s="30" t="s">
+        <v>832</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>101</v>
@@ -4011,11 +4025,11 @@
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <v>4</v>
       </c>
-      <c r="H29" s="31" t="s">
-        <v>833</v>
+      <c r="H29" s="30" t="s">
+        <v>832</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>103</v>
@@ -4040,11 +4054,11 @@
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <v>6</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>809</v>
+      <c r="H30" s="30" t="s">
+        <v>808</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>105</v>
@@ -4069,11 +4083,11 @@
       <c r="F31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <v>4</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>809</v>
+      <c r="H31" s="30" t="s">
+        <v>808</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>107</v>
@@ -4098,11 +4112,11 @@
       <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>6</v>
       </c>
-      <c r="H32" s="31" t="s">
-        <v>832</v>
+      <c r="H32" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>110</v>
@@ -4127,10 +4141,10 @@
       <c r="F33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <v>5</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="9" t="s">
         <v>113</v>
       </c>
@@ -4154,11 +4168,11 @@
       <c r="F34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <v>6</v>
       </c>
-      <c r="H34" s="31" t="s">
-        <v>832</v>
+      <c r="H34" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>117</v>
@@ -4183,11 +4197,11 @@
       <c r="F35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="30">
         <v>6</v>
       </c>
-      <c r="H35" s="31" t="s">
-        <v>832</v>
+      <c r="H35" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>120</v>
@@ -4212,11 +4226,11 @@
       <c r="F36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <v>4</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>827</v>
+      <c r="H36" s="30" t="s">
+        <v>826</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>124</v>
@@ -4241,11 +4255,11 @@
       <c r="F37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="30">
         <v>4</v>
       </c>
-      <c r="H37" s="31" t="s">
-        <v>838</v>
+      <c r="H37" s="30" t="s">
+        <v>837</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>127</v>
@@ -4270,11 +4284,11 @@
       <c r="F38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="30">
         <v>4</v>
       </c>
-      <c r="H38" s="31" t="s">
-        <v>832</v>
+      <c r="H38" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>130</v>
@@ -4299,11 +4313,11 @@
       <c r="F39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="30">
         <v>6</v>
       </c>
-      <c r="H39" s="31" t="s">
-        <v>839</v>
+      <c r="H39" s="30" t="s">
+        <v>838</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>133</v>
@@ -4328,11 +4342,11 @@
       <c r="F40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="30">
         <v>3</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>824</v>
+      <c r="H40" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>136</v>
@@ -4357,11 +4371,11 @@
       <c r="F41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>3</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>824</v>
+      <c r="H41" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>139</v>
@@ -4386,11 +4400,11 @@
       <c r="F42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="30">
         <v>4</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>832</v>
+      <c r="H42" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>142</v>
@@ -4415,11 +4429,11 @@
       <c r="F43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="30">
         <v>5</v>
       </c>
-      <c r="H43" s="31" t="s">
-        <v>828</v>
+      <c r="H43" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>145</v>
@@ -4444,11 +4458,11 @@
       <c r="F44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="30">
         <v>6</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>840</v>
+      <c r="H44" s="30" t="s">
+        <v>839</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>148</v>
@@ -4473,11 +4487,11 @@
       <c r="F45" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="30">
         <v>6</v>
       </c>
-      <c r="H45" s="31" t="s">
-        <v>841</v>
+      <c r="H45" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>151</v>
@@ -4502,11 +4516,11 @@
       <c r="F46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="30">
         <v>6</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>842</v>
+      <c r="H46" s="30" t="s">
+        <v>841</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>154</v>
@@ -4531,11 +4545,11 @@
       <c r="F47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="30">
         <v>6</v>
       </c>
-      <c r="H47" s="31" t="s">
-        <v>832</v>
+      <c r="H47" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>157</v>
@@ -4560,11 +4574,11 @@
       <c r="F48" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="30">
         <v>4</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>841</v>
+      <c r="H48" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>160</v>
@@ -4589,11 +4603,11 @@
       <c r="F49" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="30">
         <v>4</v>
       </c>
-      <c r="H49" s="31" t="s">
-        <v>841</v>
+      <c r="H49" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>163</v>
@@ -4618,11 +4632,11 @@
       <c r="F50" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="30">
         <v>5</v>
       </c>
-      <c r="H50" s="31" t="s">
-        <v>828</v>
+      <c r="H50" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>166</v>
@@ -4647,11 +4661,11 @@
       <c r="F51" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <v>-1</v>
       </c>
-      <c r="H51" s="31" t="s">
-        <v>837</v>
+      <c r="H51" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>168</v>
@@ -4676,11 +4690,11 @@
       <c r="F52" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <v>6</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>841</v>
+      <c r="H52" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>171</v>
@@ -4705,11 +4719,11 @@
       <c r="F53" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="30">
         <v>6</v>
       </c>
-      <c r="H53" s="31" t="s">
-        <v>841</v>
+      <c r="H53" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>174</v>
@@ -4734,11 +4748,11 @@
       <c r="F54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="30">
         <v>6</v>
       </c>
-      <c r="H54" s="31" t="s">
-        <v>841</v>
+      <c r="H54" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>177</v>
@@ -4763,11 +4777,11 @@
       <c r="F55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="30">
         <v>6</v>
       </c>
-      <c r="H55" s="31" t="s">
-        <v>841</v>
+      <c r="H55" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>180</v>
@@ -4792,11 +4806,11 @@
       <c r="F56" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="30">
         <v>4</v>
       </c>
-      <c r="H56" s="31" t="s">
-        <v>841</v>
+      <c r="H56" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>184</v>
@@ -4821,11 +4835,11 @@
       <c r="F57" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="30">
         <v>6</v>
       </c>
-      <c r="H57" s="31" t="s">
-        <v>841</v>
+      <c r="H57" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>187</v>
@@ -4850,11 +4864,11 @@
       <c r="F58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="30">
         <v>4</v>
       </c>
-      <c r="H58" s="31" t="s">
-        <v>841</v>
+      <c r="H58" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>190</v>
@@ -4879,11 +4893,11 @@
       <c r="F59" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="30">
         <v>4</v>
       </c>
-      <c r="H59" s="31" t="s">
-        <v>841</v>
+      <c r="H59" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>193</v>
@@ -4908,11 +4922,11 @@
       <c r="F60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="30">
         <v>4</v>
       </c>
-      <c r="H60" s="31" t="s">
-        <v>841</v>
+      <c r="H60" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>196</v>
@@ -4937,11 +4951,11 @@
       <c r="F61" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="30">
         <v>4</v>
       </c>
-      <c r="H61" s="31" t="s">
-        <v>841</v>
+      <c r="H61" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>199</v>
@@ -4966,11 +4980,11 @@
       <c r="F62" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="30">
         <v>4</v>
       </c>
-      <c r="H62" s="31" t="s">
-        <v>841</v>
+      <c r="H62" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>202</v>
@@ -4995,11 +5009,11 @@
       <c r="F63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="30">
         <v>4</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>841</v>
+      <c r="H63" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>205</v>
@@ -5024,11 +5038,11 @@
       <c r="F64" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="30">
         <v>4</v>
       </c>
-      <c r="H64" s="31" t="s">
-        <v>841</v>
+      <c r="H64" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>208</v>
@@ -5053,11 +5067,11 @@
       <c r="F65" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="30">
         <v>4</v>
       </c>
-      <c r="H65" s="31" t="s">
-        <v>841</v>
+      <c r="H65" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>211</v>
@@ -5082,11 +5096,11 @@
       <c r="F66" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G66" s="30">
         <v>4</v>
       </c>
-      <c r="H66" s="31" t="s">
-        <v>831</v>
+      <c r="H66" s="30" t="s">
+        <v>830</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>214</v>
@@ -5111,11 +5125,11 @@
       <c r="F67" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="30">
         <v>6</v>
       </c>
-      <c r="H67" s="31" t="s">
-        <v>843</v>
+      <c r="H67" s="30" t="s">
+        <v>842</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>218</v>
@@ -5140,11 +5154,11 @@
       <c r="F68" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="30">
         <v>6</v>
       </c>
-      <c r="H68" s="31" t="s">
-        <v>831</v>
+      <c r="H68" s="30" t="s">
+        <v>830</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>221</v>
@@ -5169,11 +5183,11 @@
       <c r="F69" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="30">
         <v>6</v>
       </c>
-      <c r="H69" s="31" t="s">
-        <v>844</v>
+      <c r="H69" s="30" t="s">
+        <v>843</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>224</v>
@@ -5198,11 +5212,11 @@
       <c r="F70" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="30">
         <v>4</v>
       </c>
-      <c r="H70" s="31" t="s">
-        <v>841</v>
+      <c r="H70" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>228</v>
@@ -5227,11 +5241,11 @@
       <c r="F71" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="30">
         <v>4</v>
       </c>
-      <c r="H71" s="31" t="s">
-        <v>841</v>
+      <c r="H71" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>231</v>
@@ -5256,11 +5270,11 @@
       <c r="F72" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="31">
+      <c r="G72" s="30">
         <v>4</v>
       </c>
-      <c r="H72" s="31" t="s">
-        <v>841</v>
+      <c r="H72" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>234</v>
@@ -5285,11 +5299,11 @@
       <c r="F73" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G73" s="31">
+      <c r="G73" s="30">
         <v>4</v>
       </c>
-      <c r="H73" s="31" t="s">
-        <v>841</v>
+      <c r="H73" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>237</v>
@@ -5314,11 +5328,11 @@
       <c r="F74" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="31">
+      <c r="G74" s="30">
         <v>4</v>
       </c>
-      <c r="H74" s="31" t="s">
-        <v>832</v>
+      <c r="H74" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>240</v>
@@ -5343,11 +5357,11 @@
       <c r="F75" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="30">
         <v>4</v>
       </c>
-      <c r="H75" s="31" t="s">
-        <v>841</v>
+      <c r="H75" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>243</v>
@@ -5372,11 +5386,11 @@
       <c r="F76" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="31">
+      <c r="G76" s="30">
         <v>4</v>
       </c>
-      <c r="H76" s="31" t="s">
-        <v>841</v>
+      <c r="H76" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>246</v>
@@ -5401,11 +5415,11 @@
       <c r="F77" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="30">
         <v>4</v>
       </c>
-      <c r="H77" s="31" t="s">
-        <v>841</v>
+      <c r="H77" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>249</v>
@@ -5430,11 +5444,11 @@
       <c r="F78" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="30">
         <v>4</v>
       </c>
-      <c r="H78" s="31" t="s">
-        <v>841</v>
+      <c r="H78" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>252</v>
@@ -5459,11 +5473,11 @@
       <c r="F79" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G79" s="30">
         <v>5</v>
       </c>
-      <c r="H79" s="31" t="s">
-        <v>828</v>
+      <c r="H79" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>255</v>
@@ -5488,11 +5502,11 @@
       <c r="F80" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="30">
         <v>3</v>
       </c>
-      <c r="H80" s="31" t="s">
-        <v>824</v>
+      <c r="H80" s="30" t="s">
+        <v>823</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>258</v>
@@ -5517,11 +5531,11 @@
       <c r="F81" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="30">
         <v>4</v>
       </c>
-      <c r="H81" s="31" t="s">
-        <v>841</v>
+      <c r="H81" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>261</v>
@@ -5546,11 +5560,11 @@
       <c r="F82" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="30">
         <v>5</v>
       </c>
-      <c r="H82" s="31" t="s">
-        <v>828</v>
+      <c r="H82" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>264</v>
@@ -5575,11 +5589,11 @@
       <c r="F83" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="30">
         <v>4</v>
       </c>
-      <c r="H83" s="31" t="s">
-        <v>841</v>
+      <c r="H83" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>267</v>
@@ -5604,11 +5618,11 @@
       <c r="F84" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G84" s="30">
         <v>6</v>
       </c>
-      <c r="H84" s="31" t="s">
-        <v>841</v>
+      <c r="H84" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>270</v>
@@ -5633,11 +5647,11 @@
       <c r="F85" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="30">
         <v>4</v>
       </c>
-      <c r="H85" s="31" t="s">
-        <v>841</v>
+      <c r="H85" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>273</v>
@@ -5662,11 +5676,11 @@
       <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G86" s="30">
         <v>4</v>
       </c>
-      <c r="H86" s="31" t="s">
-        <v>841</v>
+      <c r="H86" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>276</v>
@@ -5691,11 +5705,11 @@
       <c r="F87" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G87" s="30">
         <v>4</v>
       </c>
-      <c r="H87" s="31" t="s">
-        <v>841</v>
+      <c r="H87" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>279</v>
@@ -5720,11 +5734,11 @@
       <c r="F88" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G88" s="30">
         <v>4</v>
       </c>
-      <c r="H88" s="31" t="s">
-        <v>832</v>
+      <c r="H88" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>282</v>
@@ -5749,11 +5763,11 @@
       <c r="F89" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G89" s="30">
         <v>-1</v>
       </c>
-      <c r="H89" s="31" t="s">
-        <v>837</v>
+      <c r="H89" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>285</v>
@@ -5778,11 +5792,11 @@
       <c r="F90" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G90" s="31">
+      <c r="G90" s="30">
         <v>4</v>
       </c>
-      <c r="H90" s="31" t="s">
-        <v>832</v>
+      <c r="H90" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>288</v>
@@ -5807,11 +5821,11 @@
       <c r="F91" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G91" s="30">
         <v>6</v>
       </c>
-      <c r="H91" s="31" t="s">
-        <v>841</v>
+      <c r="H91" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>291</v>
@@ -5836,11 +5850,11 @@
       <c r="F92" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G92" s="31">
+      <c r="G92" s="30">
         <v>-1</v>
       </c>
-      <c r="H92" s="31" t="s">
-        <v>850</v>
+      <c r="H92" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>295</v>
@@ -5865,11 +5879,11 @@
       <c r="F93" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="31">
+      <c r="G93" s="30">
         <v>4</v>
       </c>
-      <c r="H93" s="31" t="s">
-        <v>841</v>
+      <c r="H93" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>298</v>
@@ -5894,11 +5908,11 @@
       <c r="F94" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G94" s="31">
+      <c r="G94" s="30">
         <v>-1</v>
       </c>
-      <c r="H94" s="31" t="s">
-        <v>850</v>
+      <c r="H94" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>301</v>
@@ -5923,11 +5937,11 @@
       <c r="F95" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G95" s="31">
+      <c r="G95" s="30">
         <v>-1</v>
       </c>
-      <c r="H95" s="31" t="s">
-        <v>850</v>
+      <c r="H95" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>304</v>
@@ -5952,11 +5966,11 @@
       <c r="F96" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G96" s="31">
+      <c r="G96" s="30">
         <v>-1</v>
       </c>
-      <c r="H96" s="31" t="s">
-        <v>850</v>
+      <c r="H96" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>307</v>
@@ -5981,11 +5995,11 @@
       <c r="F97" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G97" s="31">
+      <c r="G97" s="30">
         <v>-1</v>
       </c>
-      <c r="H97" s="31" t="s">
-        <v>850</v>
+      <c r="H97" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>310</v>
@@ -6010,11 +6024,11 @@
       <c r="F98" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G98" s="31">
+      <c r="G98" s="30">
         <v>-1</v>
       </c>
-      <c r="H98" s="31" t="s">
-        <v>850</v>
+      <c r="H98" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>313</v>
@@ -6039,11 +6053,11 @@
       <c r="F99" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G99" s="31">
+      <c r="G99" s="30">
         <v>-1</v>
       </c>
-      <c r="H99" s="31" t="s">
-        <v>850</v>
+      <c r="H99" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>316</v>
@@ -6068,11 +6082,11 @@
       <c r="F100" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G100" s="31">
+      <c r="G100" s="30">
         <v>-1</v>
       </c>
-      <c r="H100" s="31" t="s">
-        <v>850</v>
+      <c r="H100" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>319</v>
@@ -6097,11 +6111,11 @@
       <c r="F101" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G101" s="31">
+      <c r="G101" s="30">
         <v>-1</v>
       </c>
-      <c r="H101" s="31" t="s">
-        <v>850</v>
+      <c r="H101" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>322</v>
@@ -6126,11 +6140,11 @@
       <c r="F102" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G102" s="31">
+      <c r="G102" s="30">
         <v>-1</v>
       </c>
-      <c r="H102" s="31" t="s">
-        <v>850</v>
+      <c r="H102" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>325</v>
@@ -6155,11 +6169,11 @@
       <c r="F103" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G103" s="31">
+      <c r="G103" s="30">
         <v>-1</v>
       </c>
-      <c r="H103" s="31" t="s">
-        <v>850</v>
+      <c r="H103" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>328</v>
@@ -6184,11 +6198,11 @@
       <c r="F104" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G104" s="31">
+      <c r="G104" s="30">
         <v>-1</v>
       </c>
-      <c r="H104" s="31" t="s">
-        <v>850</v>
+      <c r="H104" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>331</v>
@@ -6213,11 +6227,11 @@
       <c r="F105" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G105" s="31">
+      <c r="G105" s="30">
         <v>-1</v>
       </c>
-      <c r="H105" s="31" t="s">
-        <v>850</v>
+      <c r="H105" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>334</v>
@@ -6242,11 +6256,11 @@
       <c r="F106" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G106" s="31">
+      <c r="G106" s="30">
         <v>-1</v>
       </c>
-      <c r="H106" s="31" t="s">
-        <v>850</v>
+      <c r="H106" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>337</v>
@@ -6271,11 +6285,11 @@
       <c r="F107" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G107" s="31">
+      <c r="G107" s="30">
         <v>-1</v>
       </c>
-      <c r="H107" s="31" t="s">
-        <v>850</v>
+      <c r="H107" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>340</v>
@@ -6300,11 +6314,11 @@
       <c r="F108" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G108" s="31">
+      <c r="G108" s="30">
         <v>-1</v>
       </c>
-      <c r="H108" s="31" t="s">
-        <v>850</v>
+      <c r="H108" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>343</v>
@@ -6329,11 +6343,11 @@
       <c r="F109" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G109" s="31">
+      <c r="G109" s="30">
         <v>-1</v>
       </c>
-      <c r="H109" s="31" t="s">
-        <v>850</v>
+      <c r="H109" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>346</v>
@@ -6358,11 +6372,11 @@
       <c r="F110" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G110" s="31">
+      <c r="G110" s="30">
         <v>-1</v>
       </c>
-      <c r="H110" s="31" t="s">
-        <v>850</v>
+      <c r="H110" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>349</v>
@@ -6387,11 +6401,11 @@
       <c r="F111" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G111" s="30">
         <v>-1</v>
       </c>
-      <c r="H111" s="31" t="s">
-        <v>850</v>
+      <c r="H111" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>352</v>
@@ -6416,11 +6430,11 @@
       <c r="F112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G112" s="31">
+      <c r="G112" s="30">
         <v>-1</v>
       </c>
-      <c r="H112" s="31" t="s">
-        <v>850</v>
+      <c r="H112" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>355</v>
@@ -6445,11 +6459,11 @@
       <c r="F113" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G113" s="31">
+      <c r="G113" s="30">
         <v>-1</v>
       </c>
-      <c r="H113" s="31" t="s">
-        <v>850</v>
+      <c r="H113" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>358</v>
@@ -6474,11 +6488,11 @@
       <c r="F114" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="G114" s="31">
+      <c r="G114" s="30">
         <v>-1</v>
       </c>
-      <c r="H114" s="31" t="s">
-        <v>850</v>
+      <c r="H114" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>361</v>
@@ -6503,11 +6517,11 @@
       <c r="F115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G115" s="31">
+      <c r="G115" s="30">
         <v>-1</v>
       </c>
-      <c r="H115" s="31" t="s">
-        <v>850</v>
+      <c r="H115" s="30" t="s">
+        <v>849</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>364</v>
@@ -6532,11 +6546,11 @@
       <c r="F116" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="G116" s="31">
+      <c r="G116" s="30">
         <v>4</v>
       </c>
-      <c r="H116" s="31" t="s">
-        <v>841</v>
+      <c r="H116" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>368</v>
@@ -6561,11 +6575,11 @@
       <c r="F117" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="31">
+      <c r="G117" s="30">
         <v>4</v>
       </c>
-      <c r="H117" s="31" t="s">
-        <v>841</v>
+      <c r="H117" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>371</v>
@@ -6590,11 +6604,11 @@
       <c r="F118" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="G118" s="31">
+      <c r="G118" s="30">
         <v>6</v>
       </c>
-      <c r="H118" s="31" t="s">
-        <v>832</v>
+      <c r="H118" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>375</v>
@@ -6619,11 +6633,11 @@
       <c r="F119" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="G119" s="31">
+      <c r="G119" s="30">
         <v>6</v>
       </c>
-      <c r="H119" s="31" t="s">
-        <v>841</v>
+      <c r="H119" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>379</v>
@@ -6648,11 +6662,11 @@
       <c r="F120" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G120" s="31">
+      <c r="G120" s="30">
         <v>6</v>
       </c>
-      <c r="H120" s="31" t="s">
-        <v>832</v>
+      <c r="H120" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>382</v>
@@ -6677,10 +6691,10 @@
       <c r="F121" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G121" s="31">
+      <c r="G121" s="30">
         <v>1</v>
       </c>
-      <c r="H121" s="31"/>
+      <c r="H121" s="30"/>
       <c r="I121" s="9" t="s">
         <v>386</v>
       </c>
@@ -6704,11 +6718,11 @@
       <c r="F122" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G122" s="31">
+      <c r="G122" s="30">
         <v>6</v>
       </c>
-      <c r="H122" s="31" t="s">
-        <v>852</v>
+      <c r="H122" s="30" t="s">
+        <v>851</v>
       </c>
       <c r="I122" s="9" t="s">
         <v>390</v>
@@ -6733,11 +6747,11 @@
       <c r="F123" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G123" s="31">
+      <c r="G123" s="30">
         <v>6</v>
       </c>
-      <c r="H123" s="31" t="s">
-        <v>853</v>
+      <c r="H123" s="30" t="s">
+        <v>852</v>
       </c>
       <c r="I123" s="9" t="s">
         <v>393</v>
@@ -6762,11 +6776,11 @@
       <c r="F124" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G124" s="31">
+      <c r="G124" s="30">
         <v>6</v>
       </c>
-      <c r="H124" s="31" t="s">
-        <v>841</v>
+      <c r="H124" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>396</v>
@@ -6791,11 +6805,11 @@
       <c r="F125" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G125" s="31">
+      <c r="G125" s="30">
         <v>4</v>
       </c>
-      <c r="H125" s="31" t="s">
-        <v>832</v>
+      <c r="H125" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>399</v>
@@ -6820,11 +6834,11 @@
       <c r="F126" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G126" s="31">
+      <c r="G126" s="30">
         <v>4</v>
       </c>
-      <c r="H126" s="31" t="s">
-        <v>841</v>
+      <c r="H126" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>402</v>
@@ -6849,11 +6863,11 @@
       <c r="F127" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G127" s="31">
+      <c r="G127" s="30">
         <v>6</v>
       </c>
-      <c r="H127" s="31" t="s">
-        <v>832</v>
+      <c r="H127" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>405</v>
@@ -6878,11 +6892,11 @@
       <c r="F128" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G128" s="31">
+      <c r="G128" s="30">
         <v>4</v>
       </c>
-      <c r="H128" s="31" t="s">
-        <v>841</v>
+      <c r="H128" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I128" s="9" t="s">
         <v>408</v>
@@ -6907,11 +6921,11 @@
       <c r="F129" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G129" s="31">
+      <c r="G129" s="30">
         <v>4</v>
       </c>
-      <c r="H129" s="31" t="s">
-        <v>832</v>
+      <c r="H129" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>411</v>
@@ -6936,11 +6950,11 @@
       <c r="F130" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G130" s="31">
+      <c r="G130" s="30">
         <v>4</v>
       </c>
-      <c r="H130" s="31" t="s">
-        <v>832</v>
+      <c r="H130" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I130" s="9" t="s">
         <v>414</v>
@@ -6965,11 +6979,11 @@
       <c r="F131" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G131" s="31">
+      <c r="G131" s="30">
         <v>4</v>
       </c>
-      <c r="H131" s="31" t="s">
-        <v>832</v>
+      <c r="H131" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>417</v>
@@ -6994,11 +7008,11 @@
       <c r="F132" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G132" s="31">
+      <c r="G132" s="30">
         <v>4</v>
       </c>
-      <c r="H132" s="31" t="s">
-        <v>841</v>
+      <c r="H132" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>420</v>
@@ -7023,11 +7037,11 @@
       <c r="F133" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G133" s="31">
+      <c r="G133" s="30">
         <v>6</v>
       </c>
-      <c r="H133" s="31" t="s">
-        <v>832</v>
+      <c r="H133" s="30" t="s">
+        <v>831</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>423</v>
@@ -7052,10 +7066,12 @@
       <c r="F134" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G134" s="31">
-        <v>0</v>
-      </c>
-      <c r="H134" s="31"/>
+      <c r="G134" s="30">
+        <v>5</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>827</v>
+      </c>
       <c r="I134" s="9" t="s">
         <v>427</v>
       </c>
@@ -7079,10 +7095,12 @@
       <c r="F135" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="31">
-        <v>0</v>
-      </c>
-      <c r="H135" s="31"/>
+      <c r="G135" s="30">
+        <v>6</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I135" s="9" t="s">
         <v>429</v>
       </c>
@@ -7106,10 +7124,10 @@
       <c r="F136" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G136" s="31">
-        <v>0</v>
-      </c>
-      <c r="H136" s="31"/>
+      <c r="G136" s="30">
+        <v>1</v>
+      </c>
+      <c r="H136" s="30"/>
       <c r="I136" s="9" t="s">
         <v>432</v>
       </c>
@@ -7133,10 +7151,12 @@
       <c r="F137" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G137" s="31">
-        <v>0</v>
-      </c>
-      <c r="H137" s="31"/>
+      <c r="G137" s="30">
+        <v>5</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>827</v>
+      </c>
       <c r="I137" s="9" t="s">
         <v>435</v>
       </c>
@@ -7160,10 +7180,12 @@
       <c r="F138" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G138" s="31">
-        <v>0</v>
-      </c>
-      <c r="H138" s="31"/>
+      <c r="G138" s="30">
+        <v>6</v>
+      </c>
+      <c r="H138" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I138" s="9" t="s">
         <v>438</v>
       </c>
@@ -7187,10 +7209,12 @@
       <c r="F139" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G139" s="31">
-        <v>0</v>
-      </c>
-      <c r="H139" s="31"/>
+      <c r="G139" s="30">
+        <v>5</v>
+      </c>
+      <c r="H139" s="30" t="s">
+        <v>827</v>
+      </c>
       <c r="I139" s="9" t="s">
         <v>441</v>
       </c>
@@ -7214,10 +7238,10 @@
       <c r="F140" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G140" s="31">
-        <v>0</v>
-      </c>
-      <c r="H140" s="31"/>
+      <c r="G140" s="30">
+        <v>1</v>
+      </c>
+      <c r="H140" s="30"/>
       <c r="I140" s="9" t="s">
         <v>444</v>
       </c>
@@ -7241,10 +7265,12 @@
       <c r="F141" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G141" s="31">
-        <v>0</v>
-      </c>
-      <c r="H141" s="31"/>
+      <c r="G141" s="30">
+        <v>4</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I141" s="9" t="s">
         <v>447</v>
       </c>
@@ -7266,14 +7292,16 @@
         <v>449</v>
       </c>
       <c r="F142" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="G142" s="30">
+        <v>6</v>
+      </c>
+      <c r="H142" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I142" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="G142" s="31">
-        <v>0</v>
-      </c>
-      <c r="H142" s="31"/>
-      <c r="I142" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7281,7 +7309,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C143" s="9">
         <v>2024</v>
@@ -7290,17 +7318,19 @@
         <v>0</v>
       </c>
       <c r="E143" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="G143" s="30">
+        <v>6</v>
+      </c>
+      <c r="H143" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="I143" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="G143" s="31">
-        <v>0</v>
-      </c>
-      <c r="H143" s="31"/>
-      <c r="I143" s="9" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7308,7 +7338,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C144" s="9">
         <v>2019</v>
@@ -7317,17 +7347,19 @@
         <v>217</v>
       </c>
       <c r="E144" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="G144" s="30">
+        <v>4</v>
+      </c>
+      <c r="H144" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I144" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="G144" s="31">
-        <v>0</v>
-      </c>
-      <c r="H144" s="31"/>
-      <c r="I144" s="9" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7335,7 +7367,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C145" s="9">
         <v>2019</v>
@@ -7344,17 +7376,17 @@
         <v>51</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F145" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G145" s="30">
+        <v>1</v>
+      </c>
+      <c r="H145" s="30"/>
+      <c r="I145" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="G145" s="31">
-        <v>0</v>
-      </c>
-      <c r="H145" s="31"/>
-      <c r="I145" s="9" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7362,7 +7394,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C146" s="9">
         <v>2015</v>
@@ -7371,17 +7403,19 @@
         <v>5</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F146" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G146" s="30">
+        <v>5</v>
+      </c>
+      <c r="H146" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I146" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="G146" s="31">
-        <v>0</v>
-      </c>
-      <c r="H146" s="31"/>
-      <c r="I146" s="9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7389,7 +7423,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C147" s="9">
         <v>2019</v>
@@ -7398,17 +7432,17 @@
         <v>104</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F147" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G147" s="30">
+        <v>1</v>
+      </c>
+      <c r="H147" s="30"/>
+      <c r="I147" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="G147" s="31">
-        <v>0</v>
-      </c>
-      <c r="H147" s="31"/>
-      <c r="I147" s="9" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7416,7 +7450,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C148" s="9">
         <v>2019</v>
@@ -7425,17 +7459,19 @@
         <v>68</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F148" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G148" s="30">
+        <v>6</v>
+      </c>
+      <c r="H148" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I148" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="G148" s="31">
-        <v>0</v>
-      </c>
-      <c r="H148" s="31"/>
-      <c r="I148" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7443,7 +7479,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C149" s="9">
         <v>2018</v>
@@ -7452,17 +7488,19 @@
         <v>65</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F149" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G149" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H149" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="I149" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="G149" s="31">
-        <v>0</v>
-      </c>
-      <c r="H149" s="31"/>
-      <c r="I149" s="9" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7470,7 +7508,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C150" s="9">
         <v>2016</v>
@@ -7479,17 +7517,19 @@
         <v>516</v>
       </c>
       <c r="E150" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="30">
+        <v>5</v>
+      </c>
+      <c r="H150" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I150" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="G150" s="31">
-        <v>0</v>
-      </c>
-      <c r="H150" s="31"/>
-      <c r="I150" s="9" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7497,7 +7537,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C151" s="9">
         <v>2018</v>
@@ -7506,17 +7546,19 @@
         <v>358</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F151" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G151" s="30">
+        <v>5</v>
+      </c>
+      <c r="H151" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="G151" s="31">
-        <v>0</v>
-      </c>
-      <c r="H151" s="31"/>
-      <c r="I151" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7524,7 +7566,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C152" s="9">
         <v>2016</v>
@@ -7533,17 +7575,19 @@
         <v>551</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F152" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G152" s="30">
+        <v>5</v>
+      </c>
+      <c r="H152" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I152" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="G152" s="31">
-        <v>0</v>
-      </c>
-      <c r="H152" s="31"/>
-      <c r="I152" s="9" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7551,7 +7595,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C153" s="9">
         <v>2011</v>
@@ -7560,17 +7604,19 @@
         <v>98</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F153" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G153" s="30">
+        <v>5</v>
+      </c>
+      <c r="H153" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I153" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="G153" s="31">
-        <v>0</v>
-      </c>
-      <c r="H153" s="31"/>
-      <c r="I153" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7578,7 +7624,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C154" s="9">
         <v>2012</v>
@@ -7587,17 +7633,19 @@
         <v>289</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F154" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="G154" s="30">
+        <v>5</v>
+      </c>
+      <c r="H154" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I154" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="G154" s="31">
-        <v>0</v>
-      </c>
-      <c r="H154" s="31"/>
-      <c r="I154" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7605,7 +7653,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C155" s="9">
         <v>2013</v>
@@ -7614,17 +7662,17 @@
         <v>1</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F155" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G155" s="30">
+        <v>0</v>
+      </c>
+      <c r="H155" s="30"/>
+      <c r="I155" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="G155" s="31">
-        <v>0</v>
-      </c>
-      <c r="H155" s="31"/>
-      <c r="I155" s="9" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7632,7 +7680,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C156" s="9">
         <v>2018</v>
@@ -7641,17 +7689,17 @@
         <v>0</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F156" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G156" s="30">
+        <v>0</v>
+      </c>
+      <c r="H156" s="30"/>
+      <c r="I156" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="G156" s="31">
-        <v>0</v>
-      </c>
-      <c r="H156" s="31"/>
-      <c r="I156" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7659,7 +7707,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C157" s="9">
         <v>2018</v>
@@ -7668,17 +7716,17 @@
         <v>228</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F157" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G157" s="30">
+        <v>0</v>
+      </c>
+      <c r="H157" s="30"/>
+      <c r="I157" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="G157" s="31">
-        <v>0</v>
-      </c>
-      <c r="H157" s="31"/>
-      <c r="I157" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7686,7 +7734,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C158" s="9">
         <v>2023</v>
@@ -7695,17 +7743,17 @@
         <v>1</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F158" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G158" s="30">
+        <v>0</v>
+      </c>
+      <c r="H158" s="30"/>
+      <c r="I158" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="G158" s="31">
-        <v>0</v>
-      </c>
-      <c r="H158" s="31"/>
-      <c r="I158" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7713,7 +7761,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C159" s="9">
         <v>2016</v>
@@ -7722,17 +7770,17 @@
         <v>11</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F159" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G159" s="30">
+        <v>0</v>
+      </c>
+      <c r="H159" s="30"/>
+      <c r="I159" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="G159" s="31">
-        <v>0</v>
-      </c>
-      <c r="H159" s="31"/>
-      <c r="I159" s="9" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7740,7 +7788,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C160" s="9">
         <v>2014</v>
@@ -7749,17 +7797,17 @@
         <v>3</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F160" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G160" s="30">
+        <v>0</v>
+      </c>
+      <c r="H160" s="30"/>
+      <c r="I160" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="G160" s="31">
-        <v>0</v>
-      </c>
-      <c r="H160" s="31"/>
-      <c r="I160" s="9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7767,7 +7815,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C161" s="9">
         <v>2014</v>
@@ -7776,17 +7824,17 @@
         <v>13</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F161" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G161" s="30">
+        <v>0</v>
+      </c>
+      <c r="H161" s="30"/>
+      <c r="I161" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="G161" s="31">
-        <v>0</v>
-      </c>
-      <c r="H161" s="31"/>
-      <c r="I161" s="9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7794,7 +7842,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C162" s="9">
         <v>2014</v>
@@ -7803,17 +7851,17 @@
         <v>0</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F162" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G162" s="30">
+        <v>0</v>
+      </c>
+      <c r="H162" s="30"/>
+      <c r="I162" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="G162" s="31">
-        <v>0</v>
-      </c>
-      <c r="H162" s="31"/>
-      <c r="I162" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7821,7 +7869,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C163" s="9">
         <v>2014</v>
@@ -7830,17 +7878,17 @@
         <v>26</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F163" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G163" s="30">
+        <v>0</v>
+      </c>
+      <c r="H163" s="30"/>
+      <c r="I163" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="G163" s="31">
-        <v>0</v>
-      </c>
-      <c r="H163" s="31"/>
-      <c r="I163" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7848,7 +7896,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C164" s="9">
         <v>2014</v>
@@ -7857,17 +7905,17 @@
         <v>0</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="G164" s="31">
+        <v>505</v>
+      </c>
+      <c r="G164" s="30">
         <v>0</v>
       </c>
-      <c r="H164" s="31"/>
+      <c r="H164" s="30"/>
       <c r="I164" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7875,7 +7923,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C165" s="9">
         <v>2006</v>
@@ -7884,17 +7932,17 @@
         <v>369</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F165" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G165" s="30">
+        <v>0</v>
+      </c>
+      <c r="H165" s="30"/>
+      <c r="I165" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="G165" s="31">
-        <v>0</v>
-      </c>
-      <c r="H165" s="31"/>
-      <c r="I165" s="9" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7902,7 +7950,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C166" s="9">
         <v>2015</v>
@@ -7911,17 +7959,17 @@
         <v>2</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F166" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="G166" s="30">
+        <v>0</v>
+      </c>
+      <c r="H166" s="30"/>
+      <c r="I166" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="G166" s="31">
-        <v>0</v>
-      </c>
-      <c r="H166" s="31"/>
-      <c r="I166" s="9" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7929,7 +7977,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C167" s="9">
         <v>2015</v>
@@ -7938,17 +7986,17 @@
         <v>151</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F167" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G167" s="30">
+        <v>0</v>
+      </c>
+      <c r="H167" s="30"/>
+      <c r="I167" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="G167" s="31">
-        <v>0</v>
-      </c>
-      <c r="H167" s="31"/>
-      <c r="I167" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7956,7 +8004,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C168" s="9">
         <v>1999</v>
@@ -7965,17 +8013,17 @@
         <v>495</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F168" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G168" s="30">
+        <v>0</v>
+      </c>
+      <c r="H168" s="30"/>
+      <c r="I168" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="G168" s="31">
-        <v>0</v>
-      </c>
-      <c r="H168" s="31"/>
-      <c r="I168" s="9" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7983,7 +8031,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C169" s="9">
         <v>2024</v>
@@ -7992,17 +8040,17 @@
         <v>2</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F169" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="G169" s="30">
+        <v>0</v>
+      </c>
+      <c r="H169" s="30"/>
+      <c r="I169" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="G169" s="31">
-        <v>0</v>
-      </c>
-      <c r="H169" s="31"/>
-      <c r="I169" s="9" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8010,7 +8058,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C170" s="9">
         <v>2006</v>
@@ -8019,17 +8067,17 @@
         <v>50</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F170" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G170" s="30">
+        <v>0</v>
+      </c>
+      <c r="H170" s="30"/>
+      <c r="I170" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="G170" s="31">
-        <v>0</v>
-      </c>
-      <c r="H170" s="31"/>
-      <c r="I170" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8037,7 +8085,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C171" s="9">
         <v>2022</v>
@@ -8046,17 +8094,17 @@
         <v>10</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F171" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G171" s="30">
+        <v>0</v>
+      </c>
+      <c r="H171" s="30"/>
+      <c r="I171" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="G171" s="31">
-        <v>0</v>
-      </c>
-      <c r="H171" s="31"/>
-      <c r="I171" s="9" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8064,7 +8112,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C172" s="9">
         <v>2023</v>
@@ -8073,17 +8121,17 @@
         <v>10</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F172" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="G172" s="30">
+        <v>0</v>
+      </c>
+      <c r="H172" s="30"/>
+      <c r="I172" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="G172" s="31">
-        <v>0</v>
-      </c>
-      <c r="H172" s="31"/>
-      <c r="I172" s="9" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8091,7 +8139,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C173" s="9">
         <v>1999</v>
@@ -8100,17 +8148,17 @@
         <v>75</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F173" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G173" s="30">
+        <v>0</v>
+      </c>
+      <c r="H173" s="30"/>
+      <c r="I173" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="G173" s="31">
-        <v>0</v>
-      </c>
-      <c r="H173" s="31"/>
-      <c r="I173" s="9" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8118,7 +8166,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C174" s="9">
         <v>1995</v>
@@ -8127,17 +8175,17 @@
         <v>13</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F174" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G174" s="30">
+        <v>0</v>
+      </c>
+      <c r="H174" s="30"/>
+      <c r="I174" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="G174" s="31">
-        <v>0</v>
-      </c>
-      <c r="H174" s="31"/>
-      <c r="I174" s="9" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8145,7 +8193,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C175" s="9">
         <v>2011</v>
@@ -8154,17 +8202,17 @@
         <v>0</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F175" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G175" s="30">
+        <v>0</v>
+      </c>
+      <c r="H175" s="30"/>
+      <c r="I175" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="G175" s="31">
-        <v>0</v>
-      </c>
-      <c r="H175" s="31"/>
-      <c r="I175" s="9" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8172,7 +8220,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C176" s="9">
         <v>2019</v>
@@ -8181,17 +8229,17 @@
         <v>0</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F176" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G176" s="30">
+        <v>0</v>
+      </c>
+      <c r="H176" s="30"/>
+      <c r="I176" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="G176" s="31">
-        <v>0</v>
-      </c>
-      <c r="H176" s="31"/>
-      <c r="I176" s="9" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8199,7 +8247,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C177" s="9">
         <v>2021</v>
@@ -8208,17 +8256,17 @@
         <v>0</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F177" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G177" s="30">
+        <v>0</v>
+      </c>
+      <c r="H177" s="30"/>
+      <c r="I177" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="G177" s="31">
-        <v>0</v>
-      </c>
-      <c r="H177" s="31"/>
-      <c r="I177" s="9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8226,7 +8274,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C178" s="9">
         <v>2002</v>
@@ -8235,17 +8283,17 @@
         <v>261</v>
       </c>
       <c r="E178" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="G178" s="30">
+        <v>0</v>
+      </c>
+      <c r="H178" s="30"/>
+      <c r="I178" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="G178" s="31">
-        <v>0</v>
-      </c>
-      <c r="H178" s="31"/>
-      <c r="I178" s="9" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8253,7 +8301,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C179" s="9">
         <v>2013</v>
@@ -8262,17 +8310,17 @@
         <v>53</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F179" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G179" s="30">
+        <v>0</v>
+      </c>
+      <c r="H179" s="30"/>
+      <c r="I179" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="G179" s="31">
-        <v>0</v>
-      </c>
-      <c r="H179" s="31"/>
-      <c r="I179" s="9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8280,7 +8328,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C180" s="9">
         <v>2014</v>
@@ -8289,17 +8337,17 @@
         <v>53</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F180" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="G180" s="30">
+        <v>0</v>
+      </c>
+      <c r="H180" s="30"/>
+      <c r="I180" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="G180" s="31">
-        <v>0</v>
-      </c>
-      <c r="H180" s="31"/>
-      <c r="I180" s="9" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8307,7 +8355,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C181" s="9">
         <v>2016</v>
@@ -8316,17 +8364,17 @@
         <v>516</v>
       </c>
       <c r="E181" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="G181" s="30">
+        <v>0</v>
+      </c>
+      <c r="H181" s="30"/>
+      <c r="I181" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="G181" s="31">
-        <v>0</v>
-      </c>
-      <c r="H181" s="31"/>
-      <c r="I181" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8334,7 +8382,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C182" s="9">
         <v>2019</v>
@@ -8343,17 +8391,17 @@
         <v>217</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F182" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G182" s="30">
+        <v>0</v>
+      </c>
+      <c r="H182" s="30"/>
+      <c r="I182" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="G182" s="31">
-        <v>0</v>
-      </c>
-      <c r="H182" s="31"/>
-      <c r="I182" s="9" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8361,7 +8409,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C183" s="9">
         <v>2011</v>
@@ -8370,17 +8418,17 @@
         <v>98</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F183" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G183" s="30">
+        <v>0</v>
+      </c>
+      <c r="H183" s="30"/>
+      <c r="I183" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="G183" s="31">
-        <v>0</v>
-      </c>
-      <c r="H183" s="31"/>
-      <c r="I183" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8388,7 +8436,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C184" s="9">
         <v>2011</v>
@@ -8397,17 +8445,17 @@
         <v>227</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F184" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="G184" s="30">
+        <v>0</v>
+      </c>
+      <c r="H184" s="30"/>
+      <c r="I184" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="G184" s="31">
-        <v>0</v>
-      </c>
-      <c r="H184" s="31"/>
-      <c r="I184" s="9" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8415,7 +8463,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C185" s="9">
         <v>2016</v>
@@ -8424,17 +8472,17 @@
         <v>551</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="G185" s="31">
+        <v>482</v>
+      </c>
+      <c r="G185" s="30">
         <v>0</v>
       </c>
-      <c r="H185" s="31"/>
+      <c r="H185" s="30"/>
       <c r="I185" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8442,7 +8490,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C186" s="9">
         <v>2018</v>
@@ -8451,17 +8499,17 @@
         <v>358</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F186" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G186" s="30">
+        <v>0</v>
+      </c>
+      <c r="H186" s="30"/>
+      <c r="I186" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="G186" s="31">
-        <v>0</v>
-      </c>
-      <c r="H186" s="31"/>
-      <c r="I186" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8469,7 +8517,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C187" s="9">
         <v>2012</v>
@@ -8478,17 +8526,17 @@
         <v>289</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G187" s="31">
+        <v>488</v>
+      </c>
+      <c r="G187" s="30">
         <v>0</v>
       </c>
-      <c r="H187" s="31"/>
+      <c r="H187" s="30"/>
       <c r="I187" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8496,7 +8544,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C188" s="9">
         <v>2019</v>
@@ -8505,17 +8553,17 @@
         <v>51</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="G188" s="31">
+        <v>460</v>
+      </c>
+      <c r="G188" s="30">
         <v>0</v>
       </c>
-      <c r="H188" s="31"/>
+      <c r="H188" s="30"/>
       <c r="I188" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8523,7 +8571,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C189" s="9">
         <v>2018</v>
@@ -8532,17 +8580,17 @@
         <v>22</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F189" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="G189" s="30">
+        <v>0</v>
+      </c>
+      <c r="H189" s="30"/>
+      <c r="I189" s="9" t="s">
         <v>576</v>
-      </c>
-      <c r="G189" s="31">
-        <v>0</v>
-      </c>
-      <c r="H189" s="31"/>
-      <c r="I189" s="9" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8550,7 +8598,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C190" s="9">
         <v>2013</v>
@@ -8559,17 +8607,17 @@
         <v>116</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F190" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="G190" s="30">
+        <v>0</v>
+      </c>
+      <c r="H190" s="30"/>
+      <c r="I190" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="G190" s="31">
-        <v>0</v>
-      </c>
-      <c r="H190" s="31"/>
-      <c r="I190" s="9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8577,7 +8625,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C191" s="9">
         <v>2014</v>
@@ -8586,17 +8634,17 @@
         <v>31</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F191" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G191" s="30">
+        <v>0</v>
+      </c>
+      <c r="H191" s="30"/>
+      <c r="I191" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="G191" s="31">
-        <v>0</v>
-      </c>
-      <c r="H191" s="31"/>
-      <c r="I191" s="9" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8604,7 +8652,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C192" s="9">
         <v>2018</v>
@@ -8613,17 +8661,17 @@
         <v>228</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F192" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G192" s="30">
+        <v>0</v>
+      </c>
+      <c r="H192" s="30"/>
+      <c r="I192" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="G192" s="31">
-        <v>0</v>
-      </c>
-      <c r="H192" s="31"/>
-      <c r="I192" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8631,7 +8679,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C193" s="9">
         <v>2020</v>
@@ -8640,17 +8688,17 @@
         <v>3</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F193" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G193" s="30">
+        <v>0</v>
+      </c>
+      <c r="H193" s="30"/>
+      <c r="I193" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="G193" s="31">
-        <v>0</v>
-      </c>
-      <c r="H193" s="31"/>
-      <c r="I193" s="9" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8658,7 +8706,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C194" s="9">
         <v>2015</v>
@@ -8667,17 +8715,17 @@
         <v>5</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="G194" s="31">
+        <v>463</v>
+      </c>
+      <c r="G194" s="30">
         <v>0</v>
       </c>
-      <c r="H194" s="31"/>
+      <c r="H194" s="30"/>
       <c r="I194" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8685,7 +8733,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C195" s="9">
         <v>2018</v>
@@ -8694,17 +8742,17 @@
         <v>0</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="G195" s="31">
+        <v>493</v>
+      </c>
+      <c r="G195" s="30">
         <v>0</v>
       </c>
-      <c r="H195" s="31"/>
+      <c r="H195" s="30"/>
       <c r="I195" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8712,7 +8760,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C196" s="9">
         <v>2019</v>
@@ -8721,17 +8769,17 @@
         <v>4</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F196" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G196" s="30">
+        <v>0</v>
+      </c>
+      <c r="H196" s="30"/>
+      <c r="I196" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="G196" s="31">
-        <v>0</v>
-      </c>
-      <c r="H196" s="31"/>
-      <c r="I196" s="9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8739,7 +8787,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C197" s="9">
         <v>2023</v>
@@ -8748,17 +8796,17 @@
         <v>38</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F197" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="G197" s="30">
+        <v>0</v>
+      </c>
+      <c r="H197" s="30"/>
+      <c r="I197" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="G197" s="31">
-        <v>0</v>
-      </c>
-      <c r="H197" s="31"/>
-      <c r="I197" s="9" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8766,7 +8814,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C198" s="9">
         <v>2024</v>
@@ -8775,17 +8823,17 @@
         <v>0</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F198" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G198" s="30">
+        <v>0</v>
+      </c>
+      <c r="H198" s="30"/>
+      <c r="I198" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="G198" s="31">
-        <v>0</v>
-      </c>
-      <c r="H198" s="31"/>
-      <c r="I198" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8793,7 +8841,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C199" s="9">
         <v>1997</v>
@@ -8802,17 +8850,17 @@
         <v>997</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F199" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G199" s="30">
+        <v>0</v>
+      </c>
+      <c r="H199" s="30"/>
+      <c r="I199" s="9" t="s">
         <v>599</v>
-      </c>
-      <c r="G199" s="31">
-        <v>0</v>
-      </c>
-      <c r="H199" s="31"/>
-      <c r="I199" s="9" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8820,7 +8868,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C200" s="9">
         <v>2015</v>
@@ -8829,17 +8877,17 @@
         <v>151</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F200" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G200" s="30">
+        <v>0</v>
+      </c>
+      <c r="H200" s="30"/>
+      <c r="I200" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="G200" s="31">
-        <v>0</v>
-      </c>
-      <c r="H200" s="31"/>
-      <c r="I200" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8847,7 +8895,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C201" s="9">
         <v>2020</v>
@@ -8856,17 +8904,17 @@
         <v>2</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F201" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G201" s="30">
+        <v>0</v>
+      </c>
+      <c r="H201" s="30"/>
+      <c r="I201" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="G201" s="31">
-        <v>0</v>
-      </c>
-      <c r="H201" s="31"/>
-      <c r="I201" s="9" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8874,7 +8922,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C202" s="9">
         <v>2009</v>
@@ -8883,17 +8931,17 @@
         <v>4</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F202" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="G202" s="30">
+        <v>0</v>
+      </c>
+      <c r="H202" s="30"/>
+      <c r="I202" s="9" t="s">
         <v>605</v>
-      </c>
-      <c r="G202" s="31">
-        <v>0</v>
-      </c>
-      <c r="H202" s="31"/>
-      <c r="I202" s="9" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -8901,7 +8949,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C203" s="9">
         <v>2022</v>
@@ -8910,17 +8958,17 @@
         <v>1</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F203" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="G203" s="30">
+        <v>0</v>
+      </c>
+      <c r="H203" s="30"/>
+      <c r="I203" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="G203" s="31">
-        <v>0</v>
-      </c>
-      <c r="H203" s="31"/>
-      <c r="I203" s="9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8928,7 +8976,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C204" s="9">
         <v>2019</v>
@@ -8937,17 +8985,17 @@
         <v>104</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F204" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G204" s="30">
+        <v>0</v>
+      </c>
+      <c r="H204" s="30"/>
+      <c r="I204" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="G204" s="31">
-        <v>0</v>
-      </c>
-      <c r="H204" s="31"/>
-      <c r="I204" s="9" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -8955,7 +9003,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C205" s="9">
         <v>2017</v>
@@ -8964,17 +9012,17 @@
         <v>5</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="G205" s="30">
+        <v>0</v>
+      </c>
+      <c r="H205" s="30"/>
+      <c r="I205" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="G205" s="31">
-        <v>0</v>
-      </c>
-      <c r="H205" s="31"/>
-      <c r="I205" s="9" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -8982,7 +9030,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C206" s="9">
         <v>2017</v>
@@ -8991,17 +9039,17 @@
         <v>47</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F206" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G206" s="30">
+        <v>0</v>
+      </c>
+      <c r="H206" s="30"/>
+      <c r="I206" s="9" t="s">
         <v>614</v>
-      </c>
-      <c r="G206" s="31">
-        <v>0</v>
-      </c>
-      <c r="H206" s="31"/>
-      <c r="I206" s="9" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9009,7 +9057,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C207" s="9">
         <v>2024</v>
@@ -9018,17 +9066,17 @@
         <v>1</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F207" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="G207" s="30">
+        <v>0</v>
+      </c>
+      <c r="H207" s="30"/>
+      <c r="I207" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="G207" s="31">
-        <v>0</v>
-      </c>
-      <c r="H207" s="31"/>
-      <c r="I207" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9036,7 +9084,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C208" s="9">
         <v>2019</v>
@@ -9045,17 +9093,17 @@
         <v>68</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="G208" s="31">
+        <v>469</v>
+      </c>
+      <c r="G208" s="30">
         <v>0</v>
       </c>
-      <c r="H208" s="31"/>
+      <c r="H208" s="30"/>
       <c r="I208" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9063,7 +9111,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C209" s="9">
         <v>2023</v>
@@ -9072,17 +9120,17 @@
         <v>3</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F209" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G209" s="30">
+        <v>0</v>
+      </c>
+      <c r="H209" s="30"/>
+      <c r="I209" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="G209" s="31">
-        <v>0</v>
-      </c>
-      <c r="H209" s="31"/>
-      <c r="I209" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9090,7 +9138,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C210" s="9">
         <v>2017</v>
@@ -9099,17 +9147,17 @@
         <v>6</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F210" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G210" s="30">
+        <v>0</v>
+      </c>
+      <c r="H210" s="30"/>
+      <c r="I210" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="G210" s="31">
-        <v>0</v>
-      </c>
-      <c r="H210" s="31"/>
-      <c r="I210" s="9" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9117,7 +9165,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C211" s="9">
         <v>2014</v>
@@ -9126,17 +9174,17 @@
         <v>61</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F211" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="G211" s="30">
+        <v>0</v>
+      </c>
+      <c r="H211" s="30"/>
+      <c r="I211" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="G211" s="31">
-        <v>0</v>
-      </c>
-      <c r="H211" s="31"/>
-      <c r="I211" s="9" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9144,7 +9192,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C212" s="9">
         <v>2018</v>
@@ -9153,17 +9201,17 @@
         <v>65</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G212" s="31">
+        <v>472</v>
+      </c>
+      <c r="G212" s="30">
         <v>0</v>
       </c>
-      <c r="H212" s="31"/>
+      <c r="H212" s="30"/>
       <c r="I212" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9171,7 +9219,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C213" s="9">
         <v>2020</v>
@@ -9180,17 +9228,17 @@
         <v>3</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F213" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="G213" s="30">
+        <v>0</v>
+      </c>
+      <c r="H213" s="30"/>
+      <c r="I213" s="9" t="s">
         <v>631</v>
-      </c>
-      <c r="G213" s="31">
-        <v>0</v>
-      </c>
-      <c r="H213" s="31"/>
-      <c r="I213" s="9" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9198,7 +9246,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C214" s="9">
         <v>2024</v>
@@ -9207,17 +9255,17 @@
         <v>2</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F214" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="G214" s="30">
+        <v>0</v>
+      </c>
+      <c r="H214" s="30"/>
+      <c r="I214" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="G214" s="31">
-        <v>0</v>
-      </c>
-      <c r="H214" s="31"/>
-      <c r="I214" s="9" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9225,7 +9273,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C215" s="9">
         <v>2021</v>
@@ -9234,17 +9282,17 @@
         <v>2</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F215" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="G215" s="30">
+        <v>0</v>
+      </c>
+      <c r="H215" s="30"/>
+      <c r="I215" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="G215" s="31">
-        <v>0</v>
-      </c>
-      <c r="H215" s="31"/>
-      <c r="I215" s="9" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9252,7 +9300,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C216" s="9">
         <v>2009</v>
@@ -9261,17 +9309,17 @@
         <v>45</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F216" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="G216" s="30">
+        <v>0</v>
+      </c>
+      <c r="H216" s="30"/>
+      <c r="I216" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="G216" s="31">
-        <v>0</v>
-      </c>
-      <c r="H216" s="31"/>
-      <c r="I216" s="9" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9279,7 +9327,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C217" s="9">
         <v>2014</v>
@@ -9288,17 +9336,17 @@
         <v>234</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F217" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G217" s="30">
+        <v>0</v>
+      </c>
+      <c r="H217" s="30"/>
+      <c r="I217" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="G217" s="31">
-        <v>0</v>
-      </c>
-      <c r="H217" s="31"/>
-      <c r="I217" s="9" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9306,7 +9354,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C218" s="9">
         <v>2018</v>
@@ -9315,17 +9363,19 @@
         <v>157</v>
       </c>
       <c r="E218" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="F218" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="F218" s="9" t="s">
+      <c r="G218" s="30">
+        <v>4</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I218" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="G218" s="31">
-        <v>0</v>
-      </c>
-      <c r="H218" s="31"/>
-      <c r="I218" s="9" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9333,7 +9383,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C219" s="9">
         <v>2019</v>
@@ -9342,17 +9392,19 @@
         <v>166</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F219" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="G219" s="30">
+        <v>4</v>
+      </c>
+      <c r="H219" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I219" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="G219" s="31">
-        <v>0</v>
-      </c>
-      <c r="H219" s="31"/>
-      <c r="I219" s="9" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9360,7 +9412,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C220" s="9">
         <v>2017</v>
@@ -9369,17 +9421,19 @@
         <v>378</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F220" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="G220" s="30">
+        <v>4</v>
+      </c>
+      <c r="H220" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I220" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="G220" s="31">
-        <v>0</v>
-      </c>
-      <c r="H220" s="31"/>
-      <c r="I220" s="9" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9387,7 +9441,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C221" s="9">
         <v>2023</v>
@@ -9396,17 +9450,19 @@
         <v>64</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F221" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="G221" s="30">
+        <v>6</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I221" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="G221" s="31">
-        <v>0</v>
-      </c>
-      <c r="H221" s="31"/>
-      <c r="I221" s="9" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9414,7 +9470,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C222" s="9">
         <v>2016</v>
@@ -9423,17 +9479,17 @@
         <v>32</v>
       </c>
       <c r="E222" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="F222" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="F222" s="9" t="s">
+      <c r="G222" s="30">
+        <v>1</v>
+      </c>
+      <c r="H222" s="30"/>
+      <c r="I222" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="G222" s="31">
-        <v>0</v>
-      </c>
-      <c r="H222" s="31"/>
-      <c r="I222" s="9" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9441,7 +9497,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C223" s="9">
         <v>2014</v>
@@ -9450,17 +9506,17 @@
         <v>657</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F223" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="G223" s="30">
+        <v>1</v>
+      </c>
+      <c r="H223" s="30"/>
+      <c r="I223" s="9" t="s">
         <v>663</v>
-      </c>
-      <c r="G223" s="31">
-        <v>0</v>
-      </c>
-      <c r="H223" s="31"/>
-      <c r="I223" s="9" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9468,7 +9524,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C224" s="9">
         <v>2021</v>
@@ -9477,17 +9533,19 @@
         <v>71</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F224" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="G224" s="30">
+        <v>5</v>
+      </c>
+      <c r="H224" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I224" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="G224" s="31">
-        <v>0</v>
-      </c>
-      <c r="H224" s="31"/>
-      <c r="I224" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9495,7 +9553,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C225" s="9">
         <v>2021</v>
@@ -9504,17 +9562,19 @@
         <v>11</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F225" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="G225" s="30">
+        <v>5</v>
+      </c>
+      <c r="H225" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I225" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="G225" s="31">
-        <v>0</v>
-      </c>
-      <c r="H225" s="31"/>
-      <c r="I225" s="9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9522,7 +9582,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C226" s="9">
         <v>2013</v>
@@ -9531,17 +9591,19 @@
         <v>42</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F226" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G226" s="30">
+        <v>4</v>
+      </c>
+      <c r="H226" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I226" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="G226" s="31">
-        <v>0</v>
-      </c>
-      <c r="H226" s="31"/>
-      <c r="I226" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9549,7 +9611,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C227" s="9">
         <v>2014</v>
@@ -9558,17 +9620,17 @@
         <v>37</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F227" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G227" s="30">
+        <v>1</v>
+      </c>
+      <c r="H227" s="30"/>
+      <c r="I227" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="G227" s="31">
-        <v>0</v>
-      </c>
-      <c r="H227" s="31"/>
-      <c r="I227" s="9" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9576,7 +9638,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C228" s="9">
         <v>2014</v>
@@ -9585,17 +9647,19 @@
         <v>0</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F228" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G228" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H228" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="I228" s="9" t="s">
         <v>678</v>
-      </c>
-      <c r="G228" s="31">
-        <v>0</v>
-      </c>
-      <c r="H228" s="31"/>
-      <c r="I228" s="9" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9603,7 +9667,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C229" s="9">
         <v>2014</v>
@@ -9612,17 +9676,19 @@
         <v>49</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F229" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="G229" s="30">
+        <v>4</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I229" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="G229" s="31">
-        <v>0</v>
-      </c>
-      <c r="H229" s="31"/>
-      <c r="I229" s="9" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9630,7 +9696,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C230" s="9">
         <v>2011</v>
@@ -9639,17 +9705,19 @@
         <v>142</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F230" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="G230" s="30">
+        <v>4</v>
+      </c>
+      <c r="H230" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I230" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="G230" s="31">
-        <v>0</v>
-      </c>
-      <c r="H230" s="31"/>
-      <c r="I230" s="9" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9657,7 +9725,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C231" s="9">
         <v>2010</v>
@@ -9666,17 +9734,17 @@
         <v>282</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F231" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="G231" s="30">
+        <v>1</v>
+      </c>
+      <c r="H231" s="30"/>
+      <c r="I231" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="G231" s="31">
-        <v>0</v>
-      </c>
-      <c r="H231" s="31"/>
-      <c r="I231" s="9" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9684,7 +9752,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C232" s="9">
         <v>2008</v>
@@ -9693,17 +9761,19 @@
         <v>426</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F232" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="G232" s="30">
+        <v>4</v>
+      </c>
+      <c r="H232" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I232" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="G232" s="31">
-        <v>0</v>
-      </c>
-      <c r="H232" s="31"/>
-      <c r="I232" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9711,7 +9781,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C233" s="9">
         <v>2011</v>
@@ -9720,17 +9790,19 @@
         <v>168</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F233" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G233" s="30">
+        <v>4</v>
+      </c>
+      <c r="H233" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="I233" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="G233" s="31">
-        <v>0</v>
-      </c>
-      <c r="H233" s="31"/>
-      <c r="I233" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9738,7 +9810,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C234" s="9">
         <v>2014</v>
@@ -9747,17 +9819,19 @@
         <v>37</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F234" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="G234" s="30">
+        <v>4</v>
+      </c>
+      <c r="H234" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I234" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="G234" s="31">
-        <v>0</v>
-      </c>
-      <c r="H234" s="31"/>
-      <c r="I234" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9765,7 +9839,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C235" s="9">
         <v>2009</v>
@@ -9774,17 +9848,19 @@
         <v>108</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F235" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="G235" s="30">
+        <v>6</v>
+      </c>
+      <c r="H235" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I235" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="G235" s="31">
-        <v>0</v>
-      </c>
-      <c r="H235" s="31"/>
-      <c r="I235" s="9" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9792,7 +9868,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C236" s="9">
         <v>2014</v>
@@ -9801,17 +9877,17 @@
         <v>94</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F236" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="G236" s="30">
+        <v>1</v>
+      </c>
+      <c r="H236" s="30"/>
+      <c r="I236" s="9" t="s">
         <v>702</v>
-      </c>
-      <c r="G236" s="31">
-        <v>0</v>
-      </c>
-      <c r="H236" s="31"/>
-      <c r="I236" s="9" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9819,7 +9895,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C237" s="9">
         <v>2011</v>
@@ -9828,17 +9904,19 @@
         <v>116</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F237" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="G237" s="30">
+        <v>4</v>
+      </c>
+      <c r="H237" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="G237" s="31">
-        <v>0</v>
-      </c>
-      <c r="H237" s="31"/>
-      <c r="I237" s="9" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -9846,7 +9924,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C238" s="9">
         <v>2023</v>
@@ -9855,17 +9933,19 @@
         <v>15</v>
       </c>
       <c r="E238" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F238" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="F238" s="9" t="s">
+      <c r="G238" s="30">
+        <v>5</v>
+      </c>
+      <c r="H238" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I238" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="G238" s="31">
-        <v>0</v>
-      </c>
-      <c r="H238" s="31"/>
-      <c r="I238" s="9" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -9873,7 +9953,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C239" s="9">
         <v>2023</v>
@@ -9882,17 +9962,19 @@
         <v>8</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F239" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="G239" s="30">
+        <v>5</v>
+      </c>
+      <c r="H239" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I239" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="G239" s="31">
-        <v>0</v>
-      </c>
-      <c r="H239" s="31"/>
-      <c r="I239" s="9" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -9900,7 +9982,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C240" s="9">
         <v>2024</v>
@@ -9909,17 +9991,19 @@
         <v>0</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F240" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="G240" s="30">
+        <v>5</v>
+      </c>
+      <c r="H240" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="G240" s="31">
-        <v>0</v>
-      </c>
-      <c r="H240" s="31"/>
-      <c r="I240" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9927,7 +10011,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C241" s="9">
         <v>2018</v>
@@ -9936,17 +10020,19 @@
         <v>40</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F241" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G241" s="30">
+        <v>6</v>
+      </c>
+      <c r="H241" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="G241" s="31">
-        <v>0</v>
-      </c>
-      <c r="H241" s="31"/>
-      <c r="I241" s="9" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9954,7 +10040,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C242" s="9">
         <v>2020</v>
@@ -9963,17 +10049,19 @@
         <v>75</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F242" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="G242" s="30">
+        <v>4</v>
+      </c>
+      <c r="H242" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="G242" s="31">
-        <v>0</v>
-      </c>
-      <c r="H242" s="31"/>
-      <c r="I242" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9981,7 +10069,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C243" s="9">
         <v>2018</v>
@@ -9990,17 +10078,19 @@
         <v>479</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F243" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G243" s="30">
+        <v>4</v>
+      </c>
+      <c r="H243" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="G243" s="31">
-        <v>0</v>
-      </c>
-      <c r="H243" s="31"/>
-      <c r="I243" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10008,7 +10098,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C244" s="9">
         <v>2022</v>
@@ -10017,17 +10107,19 @@
         <v>5</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F244" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G244" s="30">
+        <v>5</v>
+      </c>
+      <c r="H244" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>727</v>
-      </c>
-      <c r="G244" s="31">
-        <v>0</v>
-      </c>
-      <c r="H244" s="31"/>
-      <c r="I244" s="9" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10035,7 +10127,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C245" s="9">
         <v>2022</v>
@@ -10044,17 +10136,19 @@
         <v>11</v>
       </c>
       <c r="E245" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="F245" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="F245" s="9" t="s">
+      <c r="G245" s="30">
+        <v>6</v>
+      </c>
+      <c r="H245" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I245" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="G245" s="31">
-        <v>0</v>
-      </c>
-      <c r="H245" s="31"/>
-      <c r="I245" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10062,7 +10156,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C246" s="9">
         <v>2019</v>
@@ -10071,17 +10165,19 @@
         <v>30</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F246" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="G246" s="30">
+        <v>5</v>
+      </c>
+      <c r="H246" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I246" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="G246" s="31">
-        <v>0</v>
-      </c>
-      <c r="H246" s="31"/>
-      <c r="I246" s="9" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10089,7 +10185,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C247" s="9">
         <v>2022</v>
@@ -10098,17 +10194,19 @@
         <v>59</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F247" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="G247" s="30">
+        <v>6</v>
+      </c>
+      <c r="H247" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="G247" s="31">
-        <v>0</v>
-      </c>
-      <c r="H247" s="31"/>
-      <c r="I247" s="9" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10116,7 +10214,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C248" s="9">
         <v>2020</v>
@@ -10125,17 +10223,19 @@
         <v>48</v>
       </c>
       <c r="E248" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="F248" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="F248" s="9" t="s">
+      <c r="G248" s="30">
+        <v>4</v>
+      </c>
+      <c r="H248" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>741</v>
-      </c>
-      <c r="G248" s="31">
-        <v>0</v>
-      </c>
-      <c r="H248" s="31"/>
-      <c r="I248" s="9" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10143,7 +10243,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C249" s="9">
         <v>2020</v>
@@ -10152,17 +10252,19 @@
         <v>13</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F249" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="G249" s="30">
+        <v>6</v>
+      </c>
+      <c r="H249" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="G249" s="31">
-        <v>0</v>
-      </c>
-      <c r="H249" s="31"/>
-      <c r="I249" s="9" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10170,7 +10272,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C250" s="9">
         <v>2016</v>
@@ -10179,17 +10281,17 @@
         <v>47</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F250" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G250" s="30">
+        <v>1</v>
+      </c>
+      <c r="H250" s="30"/>
+      <c r="I250" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="G250" s="31">
-        <v>0</v>
-      </c>
-      <c r="H250" s="31"/>
-      <c r="I250" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10197,7 +10299,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C251" s="9">
         <v>2019</v>
@@ -10206,17 +10308,19 @@
         <v>27</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F251" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="G251" s="30">
+        <v>5</v>
+      </c>
+      <c r="H251" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="G251" s="31">
-        <v>0</v>
-      </c>
-      <c r="H251" s="31"/>
-      <c r="I251" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10224,7 +10328,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C252" s="9">
         <v>2018</v>
@@ -10233,17 +10337,19 @@
         <v>35</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F252" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="G252" s="30">
+        <v>6</v>
+      </c>
+      <c r="H252" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="G252" s="31">
-        <v>0</v>
-      </c>
-      <c r="H252" s="31"/>
-      <c r="I252" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10251,7 +10357,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C253" s="9">
         <v>2016</v>
@@ -10260,17 +10366,17 @@
         <v>59</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F253" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="G253" s="31">
-        <v>0</v>
-      </c>
-      <c r="H253" s="31"/>
-      <c r="I253" s="9" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10278,7 +10384,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C254" s="9">
         <v>2011</v>
@@ -10287,17 +10393,19 @@
         <v>837</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F254" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G254" s="30">
+        <v>6</v>
+      </c>
+      <c r="H254" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="G254" s="31">
-        <v>0</v>
-      </c>
-      <c r="H254" s="31"/>
-      <c r="I254" s="9" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10305,7 +10413,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C255" s="9">
         <v>2022</v>
@@ -10314,17 +10422,19 @@
         <v>18</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F255" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="G255" s="30">
+        <v>5</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>762</v>
-      </c>
-      <c r="G255" s="31">
-        <v>0</v>
-      </c>
-      <c r="H255" s="31"/>
-      <c r="I255" s="9" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10332,7 +10442,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C256" s="9">
         <v>2014</v>
@@ -10341,17 +10451,17 @@
         <v>17</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F256" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="G256" s="30">
+        <v>1</v>
+      </c>
+      <c r="H256" s="30"/>
+      <c r="I256" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="G256" s="31">
-        <v>0</v>
-      </c>
-      <c r="H256" s="31"/>
-      <c r="I256" s="9" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10359,7 +10469,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C257" s="9">
         <v>2013</v>
@@ -10368,17 +10478,19 @@
         <v>184</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F257" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="G257" s="30">
+        <v>6</v>
+      </c>
+      <c r="H257" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="I257" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="G257" s="31">
-        <v>0</v>
-      </c>
-      <c r="H257" s="31"/>
-      <c r="I257" s="9" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10386,7 +10498,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C258" s="9">
         <v>2022</v>
@@ -10395,17 +10507,19 @@
         <v>34</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F258" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="G258" s="30">
+        <v>6</v>
+      </c>
+      <c r="H258" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="I258" s="9" t="s">
         <v>771</v>
-      </c>
-      <c r="G258" s="31">
-        <v>0</v>
-      </c>
-      <c r="H258" s="31"/>
-      <c r="I258" s="9" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10413,7 +10527,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C259" s="9">
         <v>2022</v>
@@ -10422,17 +10536,19 @@
         <v>23</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F259" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="G259" s="30">
+        <v>6</v>
+      </c>
+      <c r="H259" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I259" s="9" t="s">
         <v>774</v>
-      </c>
-      <c r="G259" s="31">
-        <v>0</v>
-      </c>
-      <c r="H259" s="31"/>
-      <c r="I259" s="9" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10440,7 +10556,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C260" s="9">
         <v>2024</v>
@@ -10449,17 +10565,19 @@
         <v>0</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F260" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="G260" s="30">
+        <v>6</v>
+      </c>
+      <c r="H260" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I260" s="9" t="s">
         <v>777</v>
-      </c>
-      <c r="G260" s="31">
-        <v>0</v>
-      </c>
-      <c r="H260" s="31"/>
-      <c r="I260" s="9" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10467,7 +10585,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C261" s="9">
         <v>2012</v>
@@ -10476,17 +10594,19 @@
         <v>16</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F261" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G261" s="30">
+        <v>4</v>
+      </c>
+      <c r="H261" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I261" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="G261" s="31">
-        <v>0</v>
-      </c>
-      <c r="H261" s="31"/>
-      <c r="I261" s="9" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10494,7 +10614,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C262" s="9">
         <v>2022</v>
@@ -10503,17 +10623,19 @@
         <v>12</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F262" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="G262" s="30">
+        <v>6</v>
+      </c>
+      <c r="H262" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I262" s="9" t="s">
         <v>783</v>
-      </c>
-      <c r="G262" s="31">
-        <v>0</v>
-      </c>
-      <c r="H262" s="31"/>
-      <c r="I262" s="9" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10521,7 +10643,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C263" s="9">
         <v>2020</v>
@@ -10530,17 +10652,19 @@
         <v>42</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F263" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G263" s="30">
+        <v>4</v>
+      </c>
+      <c r="H263" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I263" s="9" t="s">
         <v>786</v>
-      </c>
-      <c r="G263" s="31">
-        <v>0</v>
-      </c>
-      <c r="H263" s="31"/>
-      <c r="I263" s="9" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10548,7 +10672,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C264" s="9">
         <v>2023</v>
@@ -10557,17 +10681,19 @@
         <v>9</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F264" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="G264" s="30">
+        <v>6</v>
+      </c>
+      <c r="H264" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="I264" s="9" t="s">
         <v>789</v>
-      </c>
-      <c r="G264" s="31">
-        <v>0</v>
-      </c>
-      <c r="H264" s="31"/>
-      <c r="I264" s="9" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="6" customFormat="1" ht="16" thickBot="1">
@@ -10575,7 +10701,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C265" s="21">
         <v>2016</v>
@@ -10584,17 +10710,19 @@
         <v>80</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F265" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="G265" s="31">
+        <v>6</v>
+      </c>
+      <c r="H265" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="I265" s="21" t="s">
         <v>792</v>
-      </c>
-      <c r="G265" s="32">
-        <v>0</v>
-      </c>
-      <c r="H265" s="32"/>
-      <c r="I265" s="21" t="s">
-        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -10610,8 +10738,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10645,20 +10773,20 @@
         <v>32</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>802</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="16">
@@ -10666,14 +10794,14 @@
       </c>
       <c r="F11">
         <f>COUNTIF(Studies!G:G, E11)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="D12" s="29"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13">
         <v>2</v>
       </c>
@@ -10682,11 +10810,11 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="D13" s="29"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="22">
         <v>3</v>
       </c>
@@ -10695,51 +10823,51 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="29"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="23">
         <v>4</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Studies!G:G, E14)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="29"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="27">
         <v>5</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Studies!G:G, E15)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="29"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="26">
         <v>6</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Studies!G:G, E16)</f>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E17" s="17">
         <v>7</v>
@@ -10749,12 +10877,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E18" s="18">
         <v>8</v>
@@ -10764,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="4:7">
@@ -10777,94 +10905,94 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="E20" s="33">
         <v>-1</v>
       </c>
       <c r="F20">
         <f>COUNTIF(Studies!G:G, E20)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="D21" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
       </c>
       <c r="F21">
         <f>COUNTIF(Studies!G:G, E21)</f>
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="D23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E23">
         <f>SUM(F11:F20)</f>
-        <v>132</v>
-      </c>
-      <c r="F23" s="30">
+        <v>201</v>
+      </c>
+      <c r="F23" s="29">
         <f>E23/E23</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E25">
         <f>F11+F14</f>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F25" s="28">
         <f>E25/E23</f>
-        <v>0.43939393939393939</v>
+        <v>0.43283582089552236</v>
       </c>
     </row>
     <row r="26" spans="4:7">
       <c r="D26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E26">
         <f>F13+F15+F17+F18</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F26" s="28">
         <f>E26/E23</f>
-        <v>0.12121212121212122</v>
+        <v>0.1691542288557214</v>
       </c>
     </row>
     <row r="27" spans="4:7">
       <c r="D27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E27">
         <f>F16+F19</f>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F27" s="28">
         <f>E27/E23</f>
-        <v>0.25</v>
+        <v>0.26368159203980102</v>
       </c>
     </row>
     <row r="28" spans="4:7">
       <c r="D28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E28">
         <f>F13</f>
@@ -10872,38 +11000,38 @@
       </c>
       <c r="F28" s="28">
         <f>F13/E23</f>
-        <v>6.8181818181818177E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="D30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E30">
         <f>SUM(F11:F20)</f>
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="F30" s="28">
         <f>E30/SUM(F11:F21)</f>
-        <v>0.5</v>
+        <v>0.76136363636363635</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="D31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E31">
         <f>F21</f>
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F31" s="28">
         <f>F21/SUM(F11:F21)</f>
-        <v>0.5</v>
+        <v>0.23863636363636365</v>
       </c>
     </row>
     <row r="32" spans="4:7">
       <c r="D32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E32">
         <f>E30+E31</f>
@@ -10976,10 +11104,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -10997,10 +11125,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -11018,10 +11146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
@@ -11081,10 +11209,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -11102,10 +11230,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -11123,10 +11251,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -11144,10 +11272,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -11165,10 +11293,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
@@ -11207,10 +11335,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
@@ -11228,10 +11356,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
@@ -11249,10 +11377,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
@@ -11312,10 +11440,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -11333,10 +11461,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -11396,10 +11524,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
@@ -11417,7 +11545,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>293</v>
@@ -11441,7 +11569,7 @@
         <v>115</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
@@ -11459,7 +11587,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>366</v>

--- a/literature_search/LoS_incentives_revision_micro.xlsx
+++ b/literature_search/LoS_incentives_revision_micro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/code/meta/incentives/literature_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45911D-DB93-424C-BC9A-99E63A828322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169DDD65-8F61-5B48-9B93-79F855889B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29400" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="860">
   <si>
     <t>Journal</t>
   </si>
@@ -2612,6 +2612,12 @@
   </si>
   <si>
     <t>Irrelevant dependent variable (acceptance)</t>
+  </si>
+  <si>
+    <t>New Journal</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
   </si>
 </sst>
 </file>
@@ -3189,10 +3195,10 @@
   </sheetPr>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="135" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="135" zoomScaleNormal="131" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A117" sqref="A117"/>
-      <selection pane="topRight" activeCell="H154" sqref="H154"/>
+      <selection pane="topRight" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7526,7 +7532,7 @@
         <v>5</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>477</v>
@@ -7555,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>480</v>
@@ -7584,7 +7590,7 @@
         <v>5</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>483</v>
@@ -7613,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>486</v>
@@ -7642,7 +7648,7 @@
         <v>5</v>
       </c>
       <c r="H154" s="30" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>489</v>
@@ -7668,9 +7674,11 @@
         <v>491</v>
       </c>
       <c r="G155" s="30">
-        <v>0</v>
-      </c>
-      <c r="H155" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H155" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I155" s="9" t="s">
         <v>492</v>
       </c>
@@ -7695,9 +7703,11 @@
         <v>493</v>
       </c>
       <c r="G156" s="30">
-        <v>0</v>
-      </c>
-      <c r="H156" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H156" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I156" s="9" t="s">
         <v>494</v>
       </c>
@@ -7722,9 +7732,11 @@
         <v>496</v>
       </c>
       <c r="G157" s="30">
-        <v>0</v>
-      </c>
-      <c r="H157" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H157" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I157" s="9" t="s">
         <v>497</v>
       </c>
@@ -7749,9 +7761,11 @@
         <v>499</v>
       </c>
       <c r="G158" s="30">
-        <v>0</v>
-      </c>
-      <c r="H158" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H158" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I158" s="9" t="s">
         <v>500</v>
       </c>
@@ -7776,9 +7790,11 @@
         <v>502</v>
       </c>
       <c r="G159" s="30">
-        <v>0</v>
-      </c>
-      <c r="H159" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H159" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I159" s="9" t="s">
         <v>503</v>
       </c>
@@ -7803,9 +7819,11 @@
         <v>505</v>
       </c>
       <c r="G160" s="30">
-        <v>0</v>
-      </c>
-      <c r="H160" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H160" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I160" s="9" t="s">
         <v>506</v>
       </c>
@@ -7830,9 +7848,11 @@
         <v>508</v>
       </c>
       <c r="G161" s="30">
-        <v>0</v>
-      </c>
-      <c r="H161" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H161" s="30" t="s">
+        <v>859</v>
+      </c>
       <c r="I161" s="9" t="s">
         <v>509</v>
       </c>
@@ -7857,9 +7877,11 @@
         <v>511</v>
       </c>
       <c r="G162" s="30">
-        <v>0</v>
-      </c>
-      <c r="H162" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H162" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I162" s="9" t="s">
         <v>512</v>
       </c>
@@ -7884,9 +7906,11 @@
         <v>514</v>
       </c>
       <c r="G163" s="30">
-        <v>0</v>
-      </c>
-      <c r="H163" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H163" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I163" s="9" t="s">
         <v>515</v>
       </c>
@@ -7911,9 +7935,11 @@
         <v>505</v>
       </c>
       <c r="G164" s="30">
-        <v>0</v>
-      </c>
-      <c r="H164" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H164" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I164" s="9" t="s">
         <v>517</v>
       </c>
@@ -7938,9 +7964,11 @@
         <v>519</v>
       </c>
       <c r="G165" s="30">
-        <v>0</v>
-      </c>
-      <c r="H165" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H165" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I165" s="9" t="s">
         <v>520</v>
       </c>
@@ -7965,9 +7993,11 @@
         <v>522</v>
       </c>
       <c r="G166" s="30">
-        <v>0</v>
-      </c>
-      <c r="H166" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H166" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I166" s="9" t="s">
         <v>523</v>
       </c>
@@ -7992,9 +8022,11 @@
         <v>525</v>
       </c>
       <c r="G167" s="30">
-        <v>0</v>
-      </c>
-      <c r="H167" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H167" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I167" s="9" t="s">
         <v>526</v>
       </c>
@@ -8019,9 +8051,11 @@
         <v>528</v>
       </c>
       <c r="G168" s="30">
-        <v>0</v>
-      </c>
-      <c r="H168" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H168" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I168" s="9" t="s">
         <v>529</v>
       </c>
@@ -8046,9 +8080,11 @@
         <v>531</v>
       </c>
       <c r="G169" s="30">
-        <v>0</v>
-      </c>
-      <c r="H169" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H169" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I169" s="9" t="s">
         <v>532</v>
       </c>
@@ -8073,9 +8109,11 @@
         <v>534</v>
       </c>
       <c r="G170" s="30">
-        <v>0</v>
-      </c>
-      <c r="H170" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H170" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I170" s="9" t="s">
         <v>535</v>
       </c>
@@ -8100,9 +8138,11 @@
         <v>537</v>
       </c>
       <c r="G171" s="30">
-        <v>0</v>
-      </c>
-      <c r="H171" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H171" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I171" s="9" t="s">
         <v>538</v>
       </c>
@@ -8127,9 +8167,11 @@
         <v>540</v>
       </c>
       <c r="G172" s="30">
-        <v>0</v>
-      </c>
-      <c r="H172" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H172" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I172" s="9" t="s">
         <v>541</v>
       </c>
@@ -8154,9 +8196,11 @@
         <v>542</v>
       </c>
       <c r="G173" s="30">
-        <v>0</v>
-      </c>
-      <c r="H173" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H173" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I173" s="9" t="s">
         <v>543</v>
       </c>
@@ -8181,9 +8225,11 @@
         <v>545</v>
       </c>
       <c r="G174" s="30">
-        <v>0</v>
-      </c>
-      <c r="H174" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H174" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I174" s="9" t="s">
         <v>546</v>
       </c>
@@ -8208,9 +8254,11 @@
         <v>548</v>
       </c>
       <c r="G175" s="30">
-        <v>0</v>
-      </c>
-      <c r="H175" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H175" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I175" s="9" t="s">
         <v>549</v>
       </c>
@@ -8235,9 +8283,11 @@
         <v>551</v>
       </c>
       <c r="G176" s="30">
-        <v>0</v>
-      </c>
-      <c r="H176" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H176" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I176" s="9" t="s">
         <v>552</v>
       </c>
@@ -8262,9 +8312,11 @@
         <v>554</v>
       </c>
       <c r="G177" s="30">
-        <v>0</v>
-      </c>
-      <c r="H177" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H177" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I177" s="9" t="s">
         <v>555</v>
       </c>
@@ -8289,9 +8341,11 @@
         <v>558</v>
       </c>
       <c r="G178" s="30">
-        <v>0</v>
-      </c>
-      <c r="H178" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H178" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I178" s="9" t="s">
         <v>559</v>
       </c>
@@ -8316,9 +8370,11 @@
         <v>561</v>
       </c>
       <c r="G179" s="30">
-        <v>0</v>
-      </c>
-      <c r="H179" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H179" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I179" s="9" t="s">
         <v>562</v>
       </c>
@@ -8343,9 +8399,11 @@
         <v>564</v>
       </c>
       <c r="G180" s="30">
-        <v>0</v>
-      </c>
-      <c r="H180" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H180" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I180" s="9" t="s">
         <v>565</v>
       </c>
@@ -8370,9 +8428,11 @@
         <v>476</v>
       </c>
       <c r="G181" s="30">
-        <v>0</v>
-      </c>
-      <c r="H181" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H181" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I181" s="9" t="s">
         <v>567</v>
       </c>
@@ -8397,9 +8457,11 @@
         <v>457</v>
       </c>
       <c r="G182" s="30">
-        <v>0</v>
-      </c>
-      <c r="H182" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H182" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I182" s="9" t="s">
         <v>458</v>
       </c>
@@ -8424,9 +8486,11 @@
         <v>485</v>
       </c>
       <c r="G183" s="30">
-        <v>0</v>
-      </c>
-      <c r="H183" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H183" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I183" s="9" t="s">
         <v>486</v>
       </c>
@@ -8451,9 +8515,11 @@
         <v>569</v>
       </c>
       <c r="G184" s="30">
-        <v>0</v>
-      </c>
-      <c r="H184" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H184" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I184" s="9" t="s">
         <v>570</v>
       </c>
@@ -8478,9 +8544,11 @@
         <v>482</v>
       </c>
       <c r="G185" s="30">
-        <v>0</v>
-      </c>
-      <c r="H185" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H185" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I185" s="9" t="s">
         <v>571</v>
       </c>
@@ -8505,9 +8573,11 @@
         <v>479</v>
       </c>
       <c r="G186" s="30">
-        <v>0</v>
-      </c>
-      <c r="H186" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H186" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I186" s="9" t="s">
         <v>480</v>
       </c>
@@ -8532,9 +8602,11 @@
         <v>488</v>
       </c>
       <c r="G187" s="30">
-        <v>0</v>
-      </c>
-      <c r="H187" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H187" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I187" s="9" t="s">
         <v>572</v>
       </c>
@@ -8559,9 +8631,11 @@
         <v>460</v>
       </c>
       <c r="G188" s="30">
-        <v>0</v>
-      </c>
-      <c r="H188" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H188" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I188" s="9" t="s">
         <v>573</v>
       </c>
@@ -8586,9 +8660,11 @@
         <v>575</v>
       </c>
       <c r="G189" s="30">
-        <v>0</v>
-      </c>
-      <c r="H189" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H189" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I189" s="9" t="s">
         <v>576</v>
       </c>
@@ -8613,9 +8689,11 @@
         <v>578</v>
       </c>
       <c r="G190" s="30">
-        <v>0</v>
-      </c>
-      <c r="H190" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H190" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="I190" s="9" t="s">
         <v>579</v>
       </c>
@@ -8640,9 +8718,11 @@
         <v>581</v>
       </c>
       <c r="G191" s="30">
-        <v>0</v>
-      </c>
-      <c r="H191" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="H191" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="I191" s="9" t="s">
         <v>582</v>
       </c>
@@ -8667,9 +8747,11 @@
         <v>496</v>
       </c>
       <c r="G192" s="30">
-        <v>0</v>
-      </c>
-      <c r="H192" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H192" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I192" s="9" t="s">
         <v>497</v>
       </c>
@@ -8694,9 +8776,11 @@
         <v>584</v>
       </c>
       <c r="G193" s="30">
-        <v>0</v>
-      </c>
-      <c r="H193" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="H193" s="30" t="s">
+        <v>858</v>
+      </c>
       <c r="I193" s="9" t="s">
         <v>585</v>
       </c>
@@ -8721,9 +8805,11 @@
         <v>463</v>
       </c>
       <c r="G194" s="30">
-        <v>0</v>
-      </c>
-      <c r="H194" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H194" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I194" s="9" t="s">
         <v>586</v>
       </c>
@@ -8748,9 +8834,11 @@
         <v>493</v>
       </c>
       <c r="G195" s="30">
-        <v>0</v>
-      </c>
-      <c r="H195" s="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H195" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="I195" s="9" t="s">
         <v>587</v>
       </c>
@@ -10846,7 +10934,7 @@
       </c>
       <c r="F15">
         <f>COUNTIF(Studies!G:G, E15)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>821</v>
@@ -10859,7 +10947,7 @@
       </c>
       <c r="F16">
         <f>COUNTIF(Studies!G:G, E16)</f>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
         <v>822</v>
@@ -10917,7 +11005,7 @@
       </c>
       <c r="F20">
         <f>COUNTIF(Studies!G:G, E20)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>848</v>
@@ -10932,7 +11020,7 @@
       </c>
       <c r="F21">
         <f>COUNTIF(Studies!G:G, E21)</f>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
         <v>804</v>
@@ -10944,7 +11032,7 @@
       </c>
       <c r="E23">
         <f>SUM(F11:F20)</f>
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F23" s="29">
         <f>E23/E23</f>
@@ -10961,7 +11049,7 @@
       </c>
       <c r="F25" s="28">
         <f>E25/E23</f>
-        <v>0.43283582089552236</v>
+        <v>0.35950413223140498</v>
       </c>
     </row>
     <row r="26" spans="4:7">
@@ -10970,11 +11058,11 @@
       </c>
       <c r="E26">
         <f>F13+F15+F17+F18</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F26" s="28">
         <f>E26/E23</f>
-        <v>0.1691542288557214</v>
+        <v>0.16942148760330578</v>
       </c>
     </row>
     <row r="27" spans="4:7">
@@ -10983,11 +11071,11 @@
       </c>
       <c r="E27">
         <f>F16+F19</f>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F27" s="28">
         <f>E27/E23</f>
-        <v>0.26368159203980102</v>
+        <v>0.30991735537190085</v>
       </c>
     </row>
     <row r="28" spans="4:7">
@@ -11000,7 +11088,7 @@
       </c>
       <c r="F28" s="28">
         <f>F13/E23</f>
-        <v>4.4776119402985072E-2</v>
+        <v>3.71900826446281E-2</v>
       </c>
     </row>
     <row r="30" spans="4:7">
@@ -11009,11 +11097,11 @@
       </c>
       <c r="E30">
         <f>SUM(F11:F20)</f>
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F30" s="28">
         <f>E30/SUM(F11:F21)</f>
-        <v>0.76136363636363635</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="31" spans="4:7">
@@ -11022,11 +11110,11 @@
       </c>
       <c r="E31">
         <f>F21</f>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F31" s="28">
         <f>F21/SUM(F11:F21)</f>
-        <v>0.23863636363636365</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="32" spans="4:7">
